--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_9E726886AC9044BAAF8772F801817FF11231F492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC3D565-49C5-4CC5-BFDC-4FB19A6E8D39}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_9E726886AC9044BAAF8772F801817FF11231F492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FB7AAF-3442-497E-BA69-9A846C31A6E4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
     <t>Communication with Course lead</t>
   </si>
   <si>
-    <t>Preparing meeting minutes , updatinmg management spreadsheets emails to team</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discussion with Sponsor </t>
+  </si>
+  <si>
+    <t>Preparing meeting minutes, updating management spreadsheets emails to team Started the MID term report</t>
   </si>
 </sst>
 </file>
@@ -760,99 +760,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,20 +781,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,7 +1262,7 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -1298,18 +1298,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1348,7 +1348,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1359,25 +1359,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="J9" s="39">
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>28.1</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="67" t="e">
+        <v>29.1</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="39" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.35818992989165072</v>
+        <v>0.36626809314033987</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1386,14 +1386,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1402,14 +1402,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1420,25 +1420,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36">
-        <v>0</v>
-      </c>
-      <c r="J12" s="39">
+      <c r="I12" s="51">
+        <v>0</v>
+      </c>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="67" t="e">
-        <f t="shared" ref="L10:L27" si="0">I12/$I$27</f>
+      <c r="K12" s="55"/>
+      <c r="L12" s="39" t="e">
+        <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.13129381771829191</v>
+        <v>0.12964128382630585</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1447,14 +1447,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1463,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1481,25 +1481,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="39">
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="67" t="e">
+      <c r="K15" s="55"/>
+      <c r="L15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.15041427660930529</v>
+        <v>0.1485210824417873</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1508,14 +1508,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1524,14 +1524,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1542,25 +1542,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="39">
+      <c r="I18" s="51">
+        <v>0</v>
+      </c>
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="67" t="e">
+      <c r="K18" s="55"/>
+      <c r="L18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28999362651370297</v>
+        <v>0.28634361233480177</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1569,14 +1569,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1585,14 +1585,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1603,25 +1603,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36">
-        <v>0</v>
-      </c>
-      <c r="J21" s="39">
+      <c r="I21" s="51">
+        <v>0</v>
+      </c>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="67" t="e">
+      <c r="K21" s="55"/>
+      <c r="L21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>7.0108349267049078E-2</v>
+        <v>6.9225928256765254E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1630,14 +1630,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1646,14 +1646,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1664,25 +1664,25 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36">
-        <v>0</v>
-      </c>
-      <c r="J24" s="39">
+      <c r="I24" s="51">
+        <v>0</v>
+      </c>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="67" t="e">
+      <c r="K24" s="55"/>
+      <c r="L24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1691,14 +1691,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -1707,11 +1707,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -1721,20 +1721,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>78.45</v>
-      </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="67" t="e">
+        <v>79.45</v>
+      </c>
+      <c r="K27" s="62"/>
+      <c r="L27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -1761,27 +1761,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -1790,6 +1777,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1852,18 +1852,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1904,7 +1904,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1925,25 +1925,25 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="51">
         <v>0.5</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="54">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="69">
+      <c r="K9" s="55"/>
+      <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1962,14 +1962,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1988,14 +1988,14 @@
       <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2006,23 +2006,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="51"/>
+      <c r="J12" s="54">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="69">
-        <f t="shared" ref="L10:L27" si="0">I12/$I$27</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="61">
+      <c r="K12" s="55"/>
+      <c r="L12" s="41">
+        <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2031,14 +2031,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2047,14 +2047,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2075,25 +2075,25 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="51">
         <v>0.2</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="54">
         <f>I15</f>
         <v>0.2</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="69">
+      <c r="K15" s="55"/>
+      <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
         <v>0.28571428571428575</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2112,14 +2112,14 @@
       <c r="H16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2138,14 +2138,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2156,23 +2156,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="51"/>
+      <c r="J18" s="54">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="69">
+      <c r="K18" s="55"/>
+      <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2181,14 +2181,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2197,14 +2197,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2215,23 +2215,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="69">
+      <c r="K21" s="55"/>
+      <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2240,14 +2240,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2256,14 +2256,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2274,23 +2274,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="69">
+      <c r="K24" s="55"/>
+      <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2299,14 +2299,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2315,11 +2315,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -2329,20 +2329,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>0.7</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>0.7</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="69">
+      <c r="K27" s="62"/>
+      <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -2355,11 +2355,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -2369,27 +2369,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2398,6 +2385,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2457,18 +2457,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2509,7 +2509,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2530,25 +2530,25 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="51">
         <v>5.45</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="69">
+      <c r="K9" s="55"/>
+      <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.84496124031007758</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
         <v>0.83216783216783219</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2567,14 +2567,14 @@
       <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2593,14 +2593,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2611,23 +2611,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="51"/>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="69">
-        <f t="shared" ref="L10:L27" si="0">I12/$I$27</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="61">
+      <c r="K12" s="55"/>
+      <c r="L12" s="41">
+        <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2636,14 +2636,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2652,14 +2652,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2680,25 +2680,25 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="51">
         <v>0.75</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0.95</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="69">
+      <c r="K15" s="55"/>
+      <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
         <v>0.13286713286713286</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2717,14 +2717,14 @@
       <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2743,14 +2743,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2761,25 +2761,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="36">
+      <c r="I18" s="51">
         <v>0.25</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0.25</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="69">
+      <c r="K18" s="55"/>
+      <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>3.875968992248062E-2</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
         <v>3.4965034965034961E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2790,14 +2790,14 @@
         <v>92</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2806,14 +2806,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2824,23 +2824,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="69">
+      <c r="K21" s="55"/>
+      <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2849,14 +2849,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2865,14 +2865,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2883,23 +2883,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="69">
+      <c r="K24" s="55"/>
+      <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2908,14 +2908,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2924,11 +2924,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -2938,20 +2938,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>6.45</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>7.15</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="69">
+      <c r="K27" s="62"/>
+      <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -2964,11 +2964,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -2978,27 +2978,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3007,6 +2994,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3066,18 +3066,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3118,7 +3118,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3139,25 +3139,25 @@
       <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="51">
         <v>5.45</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="69">
+      <c r="K9" s="55"/>
+      <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.46382978723404256</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
         <v>0.60317460317460325</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3176,14 +3176,14 @@
       <c r="H10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3202,14 +3202,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3224,25 +3224,25 @@
       <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="51">
         <v>5</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>5</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="69">
-        <f t="shared" ref="L10:L27" si="0">I12/$I$27</f>
+      <c r="K12" s="55"/>
+      <c r="L12" s="41">
+        <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.42553191489361702</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
         <v>0.26455026455026459</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3255,14 +3255,14 @@
         <v>81</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3271,14 +3271,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3289,25 +3289,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="36">
+      <c r="I15" s="51">
         <v>0.3</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>1.25</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="69">
+      <c r="K15" s="55"/>
+      <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
         <v>6.6137566137566148E-2</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3326,14 +3326,14 @@
       <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3342,14 +3342,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3364,25 +3364,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="36">
+      <c r="I18" s="51">
         <v>1</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>1.25</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="69">
+      <c r="K18" s="55"/>
+      <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
         <v>6.6137566137566148E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -3395,14 +3395,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -3413,14 +3413,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3431,23 +3431,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="69">
+      <c r="K21" s="55"/>
+      <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -3456,14 +3456,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -3472,14 +3472,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3490,23 +3490,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="69">
+      <c r="K24" s="55"/>
+      <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3515,14 +3515,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -3531,11 +3531,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -3545,20 +3545,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>11.75</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="69">
+      <c r="K27" s="62"/>
+      <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -3571,11 +3571,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -3585,27 +3585,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3614,6 +3601,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3673,18 +3673,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3726,7 +3726,7 @@
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3747,26 +3747,26 @@
       <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="51">
         <v>4.45</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="69">
+      <c r="K9" s="55"/>
+      <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.23359580052493439</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
         <v>0.4176548089591568</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3785,15 +3785,15 @@
       <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3812,15 +3812,15 @@
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3835,26 +3835,26 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36">
+      <c r="I12" s="51">
         <v>3.3</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="69">
-        <f t="shared" ref="L10:L29" si="0">I12/$I$27</f>
+      <c r="K12" s="55"/>
+      <c r="L12" s="41">
+        <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.17322834645669291</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
         <v>0.21870882740447958</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3869,15 +3869,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3886,15 +3886,15 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3915,26 +3915,26 @@
       <c r="H15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="51">
         <v>4.3</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>5.55</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="69">
+      <c r="K15" s="55"/>
+      <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.22572178477690286</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
         <v>0.14624505928853754</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3953,15 +3953,15 @@
       <c r="H16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3980,15 +3980,15 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4005,26 +4005,26 @@
       <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="51">
         <v>4</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>5.25</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="69">
+      <c r="K18" s="55"/>
+      <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0.20997375328083989</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
         <v>0.13833992094861658</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4039,15 +4039,15 @@
       <c r="H19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4062,15 +4062,15 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4081,26 +4081,26 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36">
+      <c r="I21" s="51">
         <v>3</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="69">
+      <c r="K21" s="55"/>
+      <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0.15748031496062992</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
         <v>7.9051383399209474E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4111,15 +4111,15 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4128,15 +4128,15 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4147,24 +4147,24 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="69">
+      <c r="K24" s="55"/>
+      <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4173,15 +4173,15 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4190,11 +4190,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
@@ -4205,20 +4205,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>19.05</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>37.950000000000003</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="69">
+      <c r="K27" s="62"/>
+      <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -4232,11 +4232,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="15"/>
@@ -4247,27 +4247,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4276,6 +4263,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4337,18 +4337,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4389,7 +4389,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4410,25 +4410,25 @@
       <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="51">
         <v>4.75</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="59">
+      <c r="K9" s="55"/>
+      <c r="L9" s="31">
         <f>I9/$I$27</f>
         <v>0.21839080459770116</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
         <v>0.34505862646566166</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4445,14 +4445,14 @@
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4471,14 +4471,14 @@
       <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4489,25 +4489,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36">
+      <c r="I12" s="51">
         <v>2</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="59">
+      <c r="K12" s="55"/>
+      <c r="L12" s="31">
         <f>I12/$I$27</f>
         <v>9.1954022988505746E-2</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
         <v>0.17252931323283083</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4518,14 +4518,14 @@
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4534,14 +4534,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4562,25 +4562,25 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="51">
         <v>6.25</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="59">
+      <c r="K15" s="55"/>
+      <c r="L15" s="31">
         <f>I15/$I$27</f>
         <v>0.28735632183908044</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
         <v>0.19765494137353434</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4599,14 +4599,14 @@
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4625,14 +4625,14 @@
       <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4653,25 +4653,25 @@
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="51">
         <v>6.25</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>11.5</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="59">
+      <c r="K18" s="55"/>
+      <c r="L18" s="31">
         <f>I18/$I$27</f>
         <v>0.28735632183908044</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
         <v>0.19262981574539362</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4690,14 +4690,14 @@
       <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4716,14 +4716,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4734,25 +4734,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36">
+      <c r="I21" s="51">
         <v>2.5</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="59">
+      <c r="K21" s="55"/>
+      <c r="L21" s="31">
         <f>I21/$I$27</f>
         <v>0.11494252873563218</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
         <v>9.2127303182579556E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4765,14 +4765,14 @@
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4781,14 +4781,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4799,23 +4799,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="59">
+      <c r="K24" s="55"/>
+      <c r="L24" s="31">
         <f>I24/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4824,14 +4824,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4840,11 +4840,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -4854,20 +4854,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>21.75</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>59.7</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="59">
+      <c r="K27" s="62"/>
+      <c r="L27" s="31">
         <f>I27/$I$27</f>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -4880,11 +4880,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -4894,27 +4894,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4923,6 +4910,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4982,18 +4982,18 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5034,7 +5034,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5047,25 +5047,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="63">
         <v>4</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="66">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
         <v>24.6</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="64">
+      <c r="K9" s="67"/>
+      <c r="L9" s="36">
         <f>I9/$I$27</f>
         <v>0.3902439024390244</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="37">
         <f>J9/$J$27</f>
         <v>0.3516797712651894</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5080,14 +5080,14 @@
       <c r="H10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5096,14 +5096,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5114,23 +5114,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51">
+      <c r="I12" s="63"/>
+      <c r="J12" s="66">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="64">
+      <c r="K12" s="67"/>
+      <c r="L12" s="36">
         <f>I12/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="37">
         <f>J12/$J$27</f>
         <v>0.1472480343102216</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5139,14 +5139,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5155,14 +5155,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5173,23 +5173,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51">
+      <c r="I15" s="63"/>
+      <c r="J15" s="66">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="64">
+      <c r="K15" s="67"/>
+      <c r="L15" s="36">
         <f>I15/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M15" s="37">
         <f>J15/$J$27</f>
         <v>0.16869192280200143</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5198,14 +5198,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5214,14 +5214,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5240,25 +5240,25 @@
       <c r="H18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="63">
         <v>6.25</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="66">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>17.75</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="64">
+      <c r="K18" s="67"/>
+      <c r="L18" s="36">
         <f>I18/$I$27</f>
         <v>0.6097560975609756</v>
       </c>
-      <c r="M18" s="65">
+      <c r="M18" s="37">
         <f>J18/$J$27</f>
         <v>0.25375268048606148</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5275,14 +5275,14 @@
       <c r="H19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5299,14 +5299,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5317,23 +5317,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="63"/>
+      <c r="J21" s="66">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="64">
+      <c r="K21" s="67"/>
+      <c r="L21" s="36">
         <f>I21/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="37">
         <f>J21/$J$27</f>
         <v>7.8627591136526093E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5342,14 +5342,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5358,14 +5358,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5376,23 +5376,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="63"/>
+      <c r="J24" s="66">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="64">
+      <c r="K24" s="67"/>
+      <c r="L24" s="36">
         <f>I24/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="37">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5401,14 +5401,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5417,11 +5417,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -5431,20 +5431,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="72">
         <f>SUM(I9:I26)</f>
         <v>10.25</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="72">
         <f>SUM(J9:K26)</f>
         <v>69.95</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="66">
+      <c r="K27" s="72"/>
+      <c r="L27" s="38">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="37">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -5457,11 +5457,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="65"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -5471,27 +5471,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="65"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -5500,6 +5487,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5560,18 +5560,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5612,7 +5612,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5623,30 +5623,30 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="36">
+      <c r="I9" s="51">
         <v>0.5</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>25.1</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="69">
+      <c r="K9" s="55"/>
+      <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
         <v>0.33267064280980785</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>103</v>
@@ -5660,14 +5660,14 @@
       <c r="H10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5676,14 +5676,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5694,23 +5694,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="51"/>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="69">
+      <c r="K12" s="55"/>
+      <c r="L12" s="41">
         <f>I12/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
         <v>0.13651424784625579</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5719,14 +5719,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5735,14 +5735,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5753,23 +5753,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="51"/>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="69">
+      <c r="K15" s="55"/>
+      <c r="L15" s="41">
         <f>I15/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
         <v>0.1563949635520212</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5778,14 +5778,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5794,14 +5794,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5818,25 +5818,25 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="36">
+      <c r="I18" s="51">
         <v>5</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="69">
+      <c r="K18" s="55"/>
+      <c r="L18" s="41">
         <f>I18/$I$27</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
         <v>0.30152418820410865</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5851,14 +5851,14 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5873,14 +5873,14 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5891,23 +5891,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="69">
+      <c r="K21" s="55"/>
+      <c r="L21" s="41">
         <f>I21/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
         <v>7.2895957587806495E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5916,14 +5916,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5932,14 +5932,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5950,23 +5950,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="69">
+      <c r="K24" s="55"/>
+      <c r="L24" s="41">
         <f>I24/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5975,14 +5975,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5991,11 +5991,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -6005,20 +6005,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="31">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>5.5</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>75.45</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="74">
+      <c r="K27" s="62"/>
+      <c r="L27" s="45">
         <f>SUM(L9:L26)</f>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -6031,11 +6031,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -6045,27 +6045,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -6074,6 +6061,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6086,8 +6086,8 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6122,18 +6122,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6172,7 +6172,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6183,43 +6183,43 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="36">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39">
+      <c r="I9" s="51">
+        <v>4</v>
+      </c>
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>28.1</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="69">
+        <v>29.1</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>1</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.35818992989165072</v>
+        <v>0.36626809314033987</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="62"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -6228,14 +6228,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6246,23 +6246,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="51"/>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="67">
-        <f t="shared" ref="L10:L27" si="0">I12/$I$27</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="61">
+      <c r="K12" s="55"/>
+      <c r="L12" s="39">
+        <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.13129381771829191</v>
+        <v>0.12964128382630585</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -6271,14 +6271,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="62"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -6287,14 +6287,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6305,23 +6305,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="51"/>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="67">
+      <c r="K15" s="55"/>
+      <c r="L15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.15041427660930529</v>
+        <v>0.1485210824417873</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="35"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -6330,14 +6330,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="62"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -6346,14 +6346,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6364,23 +6364,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="51"/>
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="67">
+      <c r="K18" s="55"/>
+      <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28999362651370297</v>
+        <v>0.28634361233480177</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -6389,14 +6389,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="62"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="35"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6405,14 +6405,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6423,23 +6423,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="67">
+      <c r="K21" s="55"/>
+      <c r="L21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>7.0108349267049078E-2</v>
+        <v>6.9225928256765254E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="35"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -6448,14 +6448,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="62"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -6464,14 +6464,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="62"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6482,23 +6482,23 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="67">
+      <c r="K24" s="55"/>
+      <c r="L24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="33">
         <f>J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -6507,14 +6507,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6523,11 +6523,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
@@ -6537,20 +6537,20 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="70">
+      <c r="I27" s="42">
         <f>SUM(I9:I26)</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="31">
+        <v>4</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>78.45</v>
-      </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="67">
+        <v>79.45</v>
+      </c>
+      <c r="K27" s="74"/>
+      <c r="L27" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="33">
         <f>J27/$J$27</f>
         <v>1</v>
       </c>
@@ -6563,11 +6563,11 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="62"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
@@ -6577,14 +6577,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="62"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="I9:I11"/>
@@ -6592,19 +6605,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_9E726886AC9044BAAF8772F801817FF11231F492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FB7AAF-3442-497E-BA69-9A846C31A6E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9050F3-539F-40E9-BE3B-13E74C2E1A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="113">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>Preparing meeting minutes, updating management spreadsheets emails to team Started the MID term report</t>
+  </si>
+  <si>
+    <t>Updated front end file locations and links using url_for</t>
+  </si>
+  <si>
+    <t>Updated database</t>
+  </si>
+  <si>
+    <t>Created Databse</t>
+  </si>
+  <si>
+    <t>Created database connection function and added routes in the routes file using html pages</t>
   </si>
 </sst>
 </file>
@@ -793,6 +805,48 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,48 +854,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,10 +908,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,23 +1202,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
         <v>96</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="26" t="s">
         <v>97</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="26" t="s">
         <v>99</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="26" t="s">
         <v>101</v>
       </c>
@@ -1242,7 +1250,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="26" t="s">
         <v>102</v>
       </c>
@@ -1266,57 +1274,57 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="2"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1347,8 +1355,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1359,25 +1367,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>29.1</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="39" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.36626809314033987</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+        <v>0.32172470978441126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1386,14 +1394,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1402,14 +1410,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1420,25 +1428,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>0</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="39" t="e">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.12964128382630585</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+        <v>0.1138750690989497</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1447,14 +1455,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1471,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1481,25 +1489,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.1485210824417873</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+        <v>0.13045881702598122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1508,14 +1516,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1524,14 +1532,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1542,25 +1550,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>0</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28634361233480177</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+        <v>0.25152017689331119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1569,14 +1577,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1585,14 +1593,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1603,25 +1611,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>0</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K21" s="55"/>
+        <v>16.5</v>
+      </c>
+      <c r="K21" s="52"/>
       <c r="L21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.9225928256765254E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+        <v>0.1824212271973466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1630,14 +1638,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1646,14 +1654,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1664,14 +1672,14 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51">
+      <c r="I24" s="48">
         <v>0</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1681,8 +1689,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1691,14 +1699,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -1707,13 +1715,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1721,15 +1729,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>79.45</v>
-      </c>
-      <c r="K27" s="62"/>
+        <v>90.45</v>
+      </c>
+      <c r="K27" s="59"/>
       <c r="L27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1739,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1747,13 +1755,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1761,14 +1769,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -1777,19 +1798,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1809,70 +1817,70 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1903,8 +1911,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1925,14 +1933,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.7142857142857143</v>
@@ -1942,8 +1950,8 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1962,14 +1970,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1988,14 +1996,14 @@
       <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2006,12 +2014,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2021,8 +2029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2031,14 +2039,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2047,14 +2055,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2075,14 +2083,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.2</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>I15</f>
         <v>0.2</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -2092,8 +2100,8 @@
         <v>0.28571428571428575</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2112,14 +2120,14 @@
       <c r="H16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2138,14 +2146,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2156,12 +2164,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54">
+      <c r="I18" s="48"/>
+      <c r="J18" s="51">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2171,8 +2179,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2181,14 +2189,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2197,14 +2205,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2215,12 +2223,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2230,8 +2238,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2240,14 +2248,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2256,14 +2264,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2274,12 +2282,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2289,8 +2297,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2299,14 +2307,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2315,13 +2323,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2329,15 +2337,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>0.7</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>0.7</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2347,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2355,13 +2363,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2369,14 +2377,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2385,19 +2406,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2414,70 +2422,70 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -2508,8 +2516,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2530,14 +2538,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>5.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.84496124031007758</v>
@@ -2547,8 +2555,8 @@
         <v>0.83216783216783219</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2567,14 +2575,14 @@
       <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2593,14 +2601,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2611,12 +2619,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2626,8 +2634,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2636,14 +2644,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2652,14 +2660,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2680,14 +2688,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.75</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0.95</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
@@ -2697,8 +2705,8 @@
         <v>0.13286713286713286</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2717,14 +2725,14 @@
       <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2743,14 +2751,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2761,14 +2769,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>0.25</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>3.875968992248062E-2</v>
@@ -2778,8 +2786,8 @@
         <v>3.4965034965034961E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2790,14 +2798,14 @@
         <v>92</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2806,14 +2814,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2824,12 +2832,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2839,8 +2847,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2849,14 +2857,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2865,14 +2873,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2883,12 +2891,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2898,8 +2906,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2908,14 +2916,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2924,13 +2932,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2938,15 +2946,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>6.45</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>7.15</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2956,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2964,13 +2972,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2978,14 +2986,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2994,19 +3015,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3023,70 +3031,70 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -3117,8 +3125,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3139,14 +3147,14 @@
       <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>5.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.46382978723404256</v>
@@ -3156,8 +3164,8 @@
         <v>0.60317460317460325</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+    <row r="10" spans="2:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3176,14 +3184,14 @@
       <c r="H10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3202,14 +3210,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3224,14 +3232,14 @@
       <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>5</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>5</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.42553191489361702</v>
@@ -3241,8 +3249,8 @@
         <v>0.26455026455026459</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3255,14 +3263,14 @@
         <v>81</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3271,14 +3279,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3289,14 +3297,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>1.25</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
@@ -3306,8 +3314,8 @@
         <v>6.6137566137566148E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3326,14 +3334,14 @@
       <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3342,14 +3350,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3364,14 +3372,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>1</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>1.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
@@ -3381,8 +3389,8 @@
         <v>6.6137566137566148E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -3395,14 +3403,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -3413,14 +3421,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3431,12 +3439,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3446,8 +3454,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -3456,14 +3464,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -3472,14 +3480,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3490,12 +3498,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3505,8 +3513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3515,14 +3523,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -3531,13 +3539,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -3545,15 +3553,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>11.75</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3563,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3571,13 +3579,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -3585,14 +3593,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3601,19 +3622,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3630,70 +3638,70 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -3724,9 +3732,9 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3747,14 +3755,14 @@
       <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.23359580052493439</v>
@@ -3764,9 +3772,9 @@
         <v>0.4176548089591568</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3785,15 +3793,15 @@
       <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3812,15 +3820,15 @@
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3835,14 +3843,14 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>3.3</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.17322834645669291</v>
@@ -3852,9 +3860,9 @@
         <v>0.21870882740447958</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3869,15 +3877,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3886,15 +3894,15 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3915,14 +3923,14 @@
       <c r="H15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>4.3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>5.55</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.22572178477690286</v>
@@ -3932,9 +3940,9 @@
         <v>0.14624505928853754</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3953,15 +3961,15 @@
       <c r="H16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3980,15 +3988,15 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4005,14 +4013,14 @@
       <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>4</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>5.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0.20997375328083989</v>
@@ -4022,9 +4030,9 @@
         <v>0.13833992094861658</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4039,15 +4047,15 @@
       <c r="H19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4062,15 +4070,15 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4081,14 +4089,14 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>3</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0.15748031496062992</v>
@@ -4098,9 +4106,9 @@
         <v>7.9051383399209474E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4111,15 +4119,15 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4128,15 +4136,15 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4147,12 +4155,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4162,9 +4170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4173,15 +4181,15 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4190,13 +4198,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -4205,15 +4213,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>19.05</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>37.950000000000003</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4223,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -4232,13 +4240,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="41"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -4247,14 +4255,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="41"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4263,19 +4284,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4292,72 +4300,72 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -4388,8 +4396,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4410,14 +4418,14 @@
       <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.75</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="31">
         <f>I9/$I$27</f>
         <v>0.21839080459770116</v>
@@ -4427,8 +4435,8 @@
         <v>0.34505862646566166</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+    <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4445,14 +4453,14 @@
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="32"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4471,14 +4479,14 @@
       <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4489,14 +4497,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>2</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="31">
         <f>I12/$I$27</f>
         <v>9.1954022988505746E-2</v>
@@ -4506,8 +4514,8 @@
         <v>0.17252931323283083</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4518,14 +4526,14 @@
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="32"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4534,14 +4542,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4562,14 +4570,14 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>6.25</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="31">
         <f>I15/$I$27</f>
         <v>0.28735632183908044</v>
@@ -4579,8 +4587,8 @@
         <v>0.19765494137353434</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+    <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4599,14 +4607,14 @@
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="32"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4625,14 +4633,14 @@
       <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4653,14 +4661,14 @@
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>6.25</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>11.5</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="31">
         <f>I18/$I$27</f>
         <v>0.28735632183908044</v>
@@ -4670,8 +4678,8 @@
         <v>0.19262981574539362</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4690,14 +4698,14 @@
       <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="32"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4716,14 +4724,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4734,14 +4742,14 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>2.5</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="31">
         <f>I21/$I$27</f>
         <v>0.11494252873563218</v>
@@ -4751,8 +4759,8 @@
         <v>9.2127303182579556E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4765,14 +4773,14 @@
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="32"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4781,14 +4789,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4799,12 +4807,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="31">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -4814,8 +4822,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4824,14 +4832,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="32"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4840,13 +4848,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="32"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4854,15 +4862,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>21.75</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>59.7</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="31">
         <f>I27/$I$27</f>
         <v>1</v>
@@ -4872,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -4880,13 +4888,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -4894,14 +4902,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4910,19 +4931,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4935,74 +4943,74 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -5033,8 +5041,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5057,15 +5065,15 @@
       <c r="K9" s="67"/>
       <c r="L9" s="36">
         <f>I9/$I$27</f>
-        <v>0.3902439024390244</v>
+        <v>0.21917808219178081</v>
       </c>
       <c r="M9" s="37">
         <f>J9/$J$27</f>
-        <v>0.3516797712651894</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+        <v>0.31558691468890315</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5086,8 +5094,8 @@
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5102,8 +5110,8 @@
       <c r="L11" s="36"/>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5126,11 +5134,11 @@
       </c>
       <c r="M12" s="37">
         <f>J12/$J$27</f>
-        <v>0.1472480343102216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+        <v>0.13213598460551637</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5145,8 +5153,8 @@
       <c r="L13" s="36"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5161,8 +5169,8 @@
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5185,11 +5193,11 @@
       </c>
       <c r="M15" s="37">
         <f>J15/$J$27</f>
-        <v>0.16869192280200143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+        <v>0.15137908915971776</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5204,8 +5212,8 @@
       <c r="L16" s="36"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5220,8 +5228,8 @@
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5250,15 +5258,15 @@
       <c r="K18" s="67"/>
       <c r="L18" s="36">
         <f>I18/$I$27</f>
-        <v>0.6097560975609756</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="M18" s="37">
         <f>J18/$J$27</f>
-        <v>0.25375268048606148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+        <v>0.22771007055805004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5281,8 +5289,8 @@
       <c r="L19" s="36"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5305,8 +5313,8 @@
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5317,30 +5325,36 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="63"/>
+      <c r="I21" s="63">
+        <v>8</v>
+      </c>
       <c r="J21" s="66">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="K21" s="67"/>
       <c r="L21" s="36">
         <f>I21/$I$27</f>
-        <v>0</v>
+        <v>0.43835616438356162</v>
       </c>
       <c r="M21" s="37">
         <f>J21/$J$27</f>
-        <v>7.8627591136526093E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+        <v>0.17318794098781271</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="H22" s="14"/>
       <c r="I22" s="64"/>
       <c r="J22" s="68"/>
@@ -5348,8 +5362,8 @@
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5364,8 +5378,8 @@
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5391,8 +5405,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5407,8 +5421,8 @@
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5437,7 @@
       <c r="L26" s="36"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -5433,11 +5447,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="72">
         <f>SUM(I9:I26)</f>
-        <v>10.25</v>
+        <v>18.25</v>
       </c>
       <c r="J27" s="72">
         <f>SUM(J9:K26)</f>
-        <v>69.95</v>
+        <v>77.95</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="38">
@@ -5449,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5463,7 +5477,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -5479,6 +5493,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -5487,19 +5514,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5512,75 +5526,75 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -5611,8 +5625,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5623,25 +5637,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>25.1</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>9.0909090909090912E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.33267064280980785</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+        <v>0.29373902867173785</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5660,14 +5674,14 @@
       <c r="H10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="44"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5676,14 +5690,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="44"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5694,23 +5708,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f>I12/$I$27</f>
         <v>0</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.13651424784625579</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+        <v>0.12053832650672909</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5719,14 +5733,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="44"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5735,14 +5749,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="44"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5753,23 +5767,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54">
+      <c r="I15" s="48"/>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f>I15/$I$27</f>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.1563949635520212</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+        <v>0.13809245172615564</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5778,14 +5792,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="44"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5794,14 +5808,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="44"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5818,25 +5832,25 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>5</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f>I18/$I$27</f>
-        <v>0.90909090909090906</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.30152418820410865</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+        <v>0.26623756582796959</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5851,14 +5865,14 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="44"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5873,14 +5887,14 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="44"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5891,23 +5905,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48">
+        <v>2</v>
+      </c>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K21" s="55"/>
+        <v>15.5</v>
+      </c>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f>I21/$I$27</f>
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>7.2895957587806495E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+        <v>0.18139262726740785</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5915,15 +5931,17 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="H22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="44"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5932,14 +5950,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5950,12 +5968,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -5965,8 +5983,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5975,14 +5993,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="44"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5991,13 +6009,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="44"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -6005,15 +6023,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
-        <v>5.5</v>
-      </c>
-      <c r="J27" s="60">
+        <v>7.5</v>
+      </c>
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>75.45</v>
-      </c>
-      <c r="K27" s="62"/>
+        <v>85.45</v>
+      </c>
+      <c r="K27" s="59"/>
       <c r="L27" s="45">
         <f>SUM(L9:L26)</f>
         <v>1</v>
@@ -6023,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -6031,13 +6049,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -6045,14 +6063,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="40"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -6061,19 +6092,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6086,61 +6104,61 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="2"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -6171,8 +6189,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6183,25 +6201,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
         <v>29.1</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.36626809314033987</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+        <v>0.32172470978441126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -6212,14 +6230,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -6228,14 +6246,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6246,23 +6264,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="39">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.12964128382630585</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+        <v>0.1138750690989497</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -6271,14 +6289,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -6287,14 +6305,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6305,23 +6323,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54">
+      <c r="I15" s="48"/>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.1485210824417873</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+        <v>0.13045881702598122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -6330,14 +6348,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -6346,14 +6364,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6364,23 +6382,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54">
+      <c r="I18" s="48"/>
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28634361233480177</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+        <v>0.25152017689331119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -6389,14 +6407,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6405,14 +6423,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6423,39 +6441,43 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48">
+        <v>1</v>
+      </c>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K21" s="55"/>
+        <v>16.5</v>
+      </c>
+      <c r="K21" s="52"/>
       <c r="L21" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.9225928256765254E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+        <v>0.1824212271973466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -6464,14 +6486,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6482,12 +6504,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6497,8 +6519,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -6507,14 +6529,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6523,13 +6545,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -6539,11 +6561,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="42">
         <f>SUM(I9:I26)</f>
-        <v>4</v>
-      </c>
-      <c r="J27" s="60">
+        <v>5</v>
+      </c>
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>79.45</v>
+        <v>90.45</v>
       </c>
       <c r="K27" s="74"/>
       <c r="L27" s="39">
@@ -6555,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -6569,7 +6591,7 @@
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -6585,6 +6607,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
@@ -6592,19 +6627,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_9E726886AC9044BAAF8772F801817FF11231F492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FB7AAF-3442-497E-BA69-9A846C31A6E4}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_9E726886AC9044BAAF8772F801817FF11231F492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B180BB1B-1BDD-4ED5-AA5F-0A4CC9E2D824}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,9 +356,6 @@
     <t>Away</t>
   </si>
   <si>
-    <t>Communications with Course Lead ref Server</t>
-  </si>
-  <si>
     <t>Communication with Client</t>
   </si>
   <si>
@@ -368,7 +365,10 @@
     <t xml:space="preserve">Discussion with Sponsor </t>
   </si>
   <si>
-    <t>Preparing meeting minutes, updating management spreadsheets emails to team Started the MID term report</t>
+    <t>Preparing meeting minutes, updating management spreadsheets emails to team Started the MID term report.  Some coaching of JC regarding project management, following standing in while away!</t>
+  </si>
+  <si>
+    <t>Communications with Course Lead ref Server Project meeting with team and weekly scrum.  Appointed deputy while away for family issues.  Some coaching of JC</t>
   </si>
 </sst>
 </file>
@@ -793,6 +793,48 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,48 +842,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,18 +1298,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1348,7 +1348,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1359,25 +1359,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
-        <v>0</v>
-      </c>
-      <c r="J9" s="54">
+      <c r="I9" s="48">
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>29.1</v>
-      </c>
-      <c r="K9" s="55"/>
+        <v>29.6</v>
+      </c>
+      <c r="K9" s="52"/>
       <c r="L9" s="39" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.36626809314033987</v>
+        <v>0.37023139462163851</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1386,14 +1386,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1402,14 +1402,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1420,25 +1420,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
-        <v>0</v>
-      </c>
-      <c r="J12" s="54">
+      <c r="I12" s="48">
+        <v>0</v>
+      </c>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="39" t="e">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.12964128382630585</v>
+        <v>0.12883051907442153</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1447,14 +1447,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1463,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1481,25 +1481,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51">
-        <v>0</v>
-      </c>
-      <c r="J15" s="54">
+      <c r="I15" s="48">
+        <v>0</v>
+      </c>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.1485210824417873</v>
+        <v>0.14759224515322078</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1508,14 +1508,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1524,14 +1524,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1542,25 +1542,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
-        <v>0</v>
-      </c>
-      <c r="J18" s="54">
+      <c r="I18" s="48">
+        <v>0</v>
+      </c>
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28634361233480177</v>
+        <v>0.28455284552845528</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1569,14 +1569,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1585,14 +1585,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1603,25 +1603,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
-        <v>0</v>
-      </c>
-      <c r="J21" s="54">
+      <c r="I21" s="48">
+        <v>0</v>
+      </c>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.9225928256765254E-2</v>
+        <v>6.8792995622263917E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1630,14 +1630,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1646,14 +1646,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1664,14 +1664,14 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51">
-        <v>0</v>
-      </c>
-      <c r="J24" s="54">
+      <c r="I24" s="48">
+        <v>0</v>
+      </c>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1682,7 +1682,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1691,14 +1691,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -1707,9 +1707,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
@@ -1721,15 +1721,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>79.45</v>
-      </c>
-      <c r="K27" s="62"/>
+        <v>79.95</v>
+      </c>
+      <c r="K27" s="59"/>
       <c r="L27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1747,9 +1747,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
@@ -1761,14 +1761,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -1777,19 +1790,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1852,18 +1852,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1904,7 +1904,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1925,14 +1925,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.7142857142857143</v>
@@ -1943,7 +1943,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1962,14 +1962,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1988,14 +1988,14 @@
       <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2006,12 +2006,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2031,14 +2031,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2047,14 +2047,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2075,14 +2075,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.2</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>I15</f>
         <v>0.2</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2112,14 +2112,14 @@
       <c r="H16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2138,14 +2138,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2156,12 +2156,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54">
+      <c r="I18" s="48"/>
+      <c r="J18" s="51">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2181,14 +2181,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2197,14 +2197,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2215,12 +2215,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2240,14 +2240,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2256,14 +2256,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2274,12 +2274,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2299,14 +2299,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2315,9 +2315,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -2329,15 +2329,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>0.7</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>0.7</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2355,9 +2355,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -2369,14 +2369,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2385,19 +2398,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2457,18 +2457,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2509,7 +2509,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2530,14 +2530,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>5.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.84496124031007758</v>
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2567,14 +2567,14 @@
       <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2593,14 +2593,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2611,12 +2611,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2627,7 +2627,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2636,14 +2636,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2652,14 +2652,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2680,14 +2680,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.75</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0.95</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2717,14 +2717,14 @@
       <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2743,14 +2743,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2761,14 +2761,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>0.25</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>3.875968992248062E-2</v>
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2790,14 +2790,14 @@
         <v>92</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2806,14 +2806,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2824,12 +2824,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2849,14 +2849,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2865,14 +2865,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2883,12 +2883,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2899,7 +2899,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2908,14 +2908,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2924,9 +2924,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -2938,15 +2938,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>6.45</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>7.15</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2964,9 +2964,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -2978,14 +2978,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2994,19 +3007,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3066,18 +3066,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3118,7 +3118,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3139,14 +3139,14 @@
       <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>5.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.46382978723404256</v>
@@ -3157,7 +3157,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3176,14 +3176,14 @@
       <c r="H10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3202,14 +3202,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3224,14 +3224,14 @@
       <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>5</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>5</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.42553191489361702</v>
@@ -3242,7 +3242,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3255,14 +3255,14 @@
         <v>81</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3271,14 +3271,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3289,14 +3289,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>1.25</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
@@ -3307,7 +3307,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3326,14 +3326,14 @@
       <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3342,14 +3342,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3364,14 +3364,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>1</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>1.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
@@ -3382,7 +3382,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -3395,14 +3395,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -3413,14 +3413,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3431,12 +3431,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -3456,14 +3456,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -3472,14 +3472,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3490,12 +3490,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3506,7 +3506,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3515,14 +3515,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -3531,9 +3531,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -3545,15 +3545,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>11.75</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3571,9 +3571,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -3585,14 +3585,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3601,19 +3614,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3673,18 +3673,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3726,7 +3726,7 @@
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3747,14 +3747,14 @@
       <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.23359580052493439</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3785,15 +3785,15 @@
       <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3812,15 +3812,15 @@
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3835,14 +3835,14 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>3.3</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.17322834645669291</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3869,15 +3869,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3886,15 +3886,15 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3915,14 +3915,14 @@
       <c r="H15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>4.3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>5.55</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.22572178477690286</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3953,15 +3953,15 @@
       <c r="H16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3980,15 +3980,15 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4005,14 +4005,14 @@
       <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>4</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>5.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0.20997375328083989</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4039,15 +4039,15 @@
       <c r="H19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4062,15 +4062,15 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4081,14 +4081,14 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>3</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0.15748031496062992</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4111,15 +4111,15 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4128,15 +4128,15 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4147,12 +4147,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4173,15 +4173,15 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4190,9 +4190,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -4205,15 +4205,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>19.05</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>37.950000000000003</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4232,9 +4232,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="41"/>
       <c r="M28" s="34"/>
     </row>
@@ -4247,14 +4247,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="41"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4263,19 +4276,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4337,18 +4337,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4389,7 +4389,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4410,14 +4410,14 @@
       <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.75</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="31">
         <f>I9/$I$27</f>
         <v>0.21839080459770116</v>
@@ -4428,7 +4428,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4445,14 +4445,14 @@
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="32"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4471,14 +4471,14 @@
       <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4489,14 +4489,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>2</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="31">
         <f>I12/$I$27</f>
         <v>9.1954022988505746E-2</v>
@@ -4507,7 +4507,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4518,14 +4518,14 @@
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="32"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4534,14 +4534,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4562,14 +4562,14 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>6.25</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="31">
         <f>I15/$I$27</f>
         <v>0.28735632183908044</v>
@@ -4580,7 +4580,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4599,14 +4599,14 @@
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="32"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4625,14 +4625,14 @@
       <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4653,14 +4653,14 @@
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>6.25</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>11.5</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="31">
         <f>I18/$I$27</f>
         <v>0.28735632183908044</v>
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4690,14 +4690,14 @@
       <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="32"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4716,14 +4716,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4734,14 +4734,14 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>2.5</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="31">
         <f>I21/$I$27</f>
         <v>0.11494252873563218</v>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4765,14 +4765,14 @@
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="32"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4781,14 +4781,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4799,12 +4799,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="31">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4824,14 +4824,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="32"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4840,9 +4840,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="32"/>
       <c r="M26" s="34"/>
     </row>
@@ -4854,15 +4854,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>21.75</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>59.7</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="31">
         <f>I27/$I$27</f>
         <v>1</v>
@@ -4880,9 +4880,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
@@ -4894,14 +4894,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4910,19 +4923,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4935,8 +4935,8 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4982,18 +4982,18 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5034,7 +5034,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5064,21 +5064,21 @@
         <v>0.3516797712651894</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+    <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="68"/>
@@ -5087,7 +5087,7 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5103,7 +5103,7 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5146,7 +5146,7 @@
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5189,7 +5189,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5258,7 +5258,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5333,7 +5333,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="M22" s="37"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5392,7 +5392,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="M25" s="37"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5479,6 +5479,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -5487,19 +5500,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5560,18 +5560,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5612,7 +5612,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5623,14 +5623,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>25.1</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>9.0909090909090912E-2</v>
@@ -5641,12 +5641,12 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>103</v>
@@ -5660,14 +5660,14 @@
       <c r="H10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="44"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5676,14 +5676,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="44"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5694,12 +5694,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f>I12/$I$27</f>
         <v>0</v>
@@ -5710,7 +5710,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5719,14 +5719,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="44"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5735,14 +5735,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="44"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5753,12 +5753,12 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54">
+      <c r="I15" s="48"/>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f>I15/$I$27</f>
         <v>0</v>
@@ -5769,7 +5769,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5778,14 +5778,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="44"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5794,14 +5794,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="44"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5818,14 +5818,14 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>5</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f>I18/$I$27</f>
         <v>0.90909090909090906</v>
@@ -5836,7 +5836,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5851,14 +5851,14 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="44"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5873,14 +5873,14 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="44"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5891,12 +5891,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f>I21/$I$27</f>
         <v>0</v>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5916,14 +5916,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="44"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5932,14 +5932,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5950,12 +5950,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -5966,7 +5966,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5975,14 +5975,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="44"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5991,9 +5991,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="44"/>
       <c r="M26" s="34"/>
     </row>
@@ -6005,15 +6005,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>5.5</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>75.45</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="45">
         <f>SUM(L9:L26)</f>
         <v>1</v>
@@ -6031,9 +6031,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
@@ -6045,14 +6045,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="40"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -6061,19 +6074,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6087,7 +6087,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6122,18 +6122,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6172,7 +6172,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6183,43 +6183,43 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
-        <v>4</v>
-      </c>
-      <c r="J9" s="54">
+      <c r="I9" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>29.1</v>
-      </c>
-      <c r="K9" s="55"/>
+        <v>29.6</v>
+      </c>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>1</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.36626809314033987</v>
+        <v>0.37023139462163851</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -6228,14 +6228,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6246,23 +6246,23 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="39">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.12964128382630585</v>
+        <v>0.12883051907442153</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -6271,14 +6271,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -6287,14 +6287,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6305,23 +6305,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54">
+      <c r="I15" s="48"/>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.1485210824417873</v>
+        <v>0.14759224515322078</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -6330,14 +6330,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -6346,14 +6346,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6364,23 +6364,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54">
+      <c r="I18" s="48"/>
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28634361233480177</v>
+        <v>0.28455284552845528</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -6389,14 +6389,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6405,14 +6405,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6423,23 +6423,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.9225928256765254E-2</v>
+        <v>6.8792995622263917E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -6448,14 +6448,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -6464,14 +6464,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6482,12 +6482,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -6507,14 +6507,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6523,9 +6523,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
@@ -6539,11 +6539,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="42">
         <f>SUM(I9:I26)</f>
-        <v>4</v>
-      </c>
-      <c r="J27" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>79.45</v>
+        <v>79.95</v>
       </c>
       <c r="K27" s="74"/>
       <c r="L27" s="39">
@@ -6585,6 +6585,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
@@ -6592,19 +6605,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclok\GitHub\MENS-SHED-SOC09109\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_9E726886AC9044BAAF8772F801817FF11231F492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B180BB1B-1BDD-4ED5-AA5F-0A4CC9E2D824}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9C64F-3389-4001-BEF0-A9353BE205FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="115">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -369,6 +369,24 @@
   </si>
   <si>
     <t>Communications with Course Lead ref Server Project meeting with team and weekly scrum.  Appointed deputy while away for family issues.  Some coaching of JC</t>
+  </si>
+  <si>
+    <t>Attended the Glassroom to search for a team placement, discussed potential to join Men's Shed Project</t>
+  </si>
+  <si>
+    <t>Attended optional lecture to gather STARL information, team meeting</t>
+  </si>
+  <si>
+    <t>Researched how to implement bcrypt in a python flask application</t>
+  </si>
+  <si>
+    <t>Lack of knowledge on flask implementation</t>
+  </si>
+  <si>
+    <t>Added Bcrypt initialisation to init.py in preparation for user login functionality</t>
+  </si>
+  <si>
+    <t>Further research on bcrypt implementation, add initialisation for bcrypt.</t>
   </si>
 </sst>
 </file>
@@ -793,6 +811,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -833,15 +860,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,10 +914,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,23 +1208,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
         <v>96</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>97</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
         <v>99</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="26" t="s">
         <v>101</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
         <v>102</v>
       </c>
@@ -1262,61 +1276,61 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="2"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7" s="2"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1347,8 +1361,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1359,25 +1373,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>0</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>29.6</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="39" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.37023139462163851</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.33598183881952332</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1386,14 +1400,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1402,14 +1416,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1420,25 +1434,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>0</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
-        <v>10.3</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>18.45</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="39" t="e">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.12883051907442153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.20942111237230421</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1447,14 +1461,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1477,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1481,25 +1495,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.14759224515322078</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>0.13393870601589106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1508,14 +1522,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1524,14 +1538,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1542,25 +1556,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>0</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28455284552845528</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>0.25822928490351876</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1569,14 +1583,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1585,14 +1599,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1603,25 +1617,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48">
+      <c r="I21" s="51">
         <v>0</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.8792995622263917E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+        <v>6.2429057888762775E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1630,14 +1644,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1646,14 +1660,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1664,14 +1678,14 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48">
+      <c r="I24" s="51">
         <v>0</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1681,8 +1695,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1691,14 +1705,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -1707,13 +1721,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1721,15 +1735,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>79.95</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>88.1</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1739,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1747,13 +1761,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1761,27 +1775,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -1790,6 +1791,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1809,70 +1823,70 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1903,8 +1917,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1925,14 +1939,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>0.5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.7142857142857143</v>
@@ -1942,8 +1956,8 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1962,14 +1976,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1988,14 +2002,14 @@
       <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2006,12 +2020,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51">
+      <c r="I12" s="51"/>
+      <c r="J12" s="54">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2021,8 +2035,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2031,14 +2045,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2047,14 +2061,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2075,14 +2089,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0.2</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>I15</f>
         <v>0.2</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -2092,8 +2106,8 @@
         <v>0.28571428571428575</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2112,14 +2126,14 @@
       <c r="H16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2138,14 +2152,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2156,12 +2170,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="51">
+      <c r="I18" s="51"/>
+      <c r="J18" s="54">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2171,8 +2185,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2181,14 +2195,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2197,14 +2211,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2215,12 +2229,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2230,8 +2244,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2240,14 +2254,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2256,14 +2270,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2274,12 +2288,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2289,8 +2303,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2299,14 +2313,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2315,13 +2329,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2329,15 +2343,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>0.7</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>0.7</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2347,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2355,13 +2369,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2369,27 +2383,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2398,6 +2399,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2410,74 +2424,74 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -2508,8 +2522,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2530,25 +2544,25 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>5.45</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>0.84496124031007758</v>
+        <v>0.73154362416107388</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.83216783216783219</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.73006134969325154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2567,14 +2581,14 @@
       <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2593,14 +2607,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2611,39 +2625,43 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51">
+      <c r="I12" s="51">
+        <v>1</v>
+      </c>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
-        <v>0</v>
+        <v>0.13422818791946309</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.12269938650306748</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2652,14 +2670,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2680,25 +2698,25 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0.75</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0.95</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
-        <v>0.11627906976744186</v>
+        <v>0.10067114093959731</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.13286713286713286</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>0.1165644171779141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2717,14 +2735,14 @@
       <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2743,14 +2761,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2761,25 +2779,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>0.25</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0.25</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
-        <v>3.875968992248062E-2</v>
+        <v>3.3557046979865772E-2</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>3.4965034965034961E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>3.0674846625766871E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2790,14 +2808,14 @@
         <v>92</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2806,14 +2824,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2824,12 +2842,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2839,8 +2857,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2849,14 +2867,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2865,14 +2883,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2883,12 +2901,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2898,8 +2916,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2908,14 +2926,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2924,13 +2942,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2938,15 +2956,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
-        <v>6.45</v>
-      </c>
-      <c r="J27" s="57">
+        <v>7.45</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>7.15</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>8.15</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2956,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2964,13 +2982,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2978,27 +2996,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3007,6 +3012,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3023,70 +3041,70 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -3117,8 +3135,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3139,25 +3157,25 @@
       <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>5.45</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.46382978723404256</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.60317460317460325</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.57286432160804024</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3176,14 +3194,14 @@
       <c r="H10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3202,14 +3220,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3224,25 +3242,25 @@
       <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>5</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
-        <v>5</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.42553191489361702</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.26455026455026459</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.30150753768844224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3255,14 +3273,14 @@
         <v>81</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3271,14 +3289,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3289,25 +3307,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0.3</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>1.25</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>6.6137566137566148E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>6.2814070351758802E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3326,14 +3344,14 @@
       <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3342,14 +3360,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3364,25 +3382,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>1</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>1.25</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>6.6137566137566148E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>6.2814070351758802E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -3395,14 +3413,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -3413,14 +3431,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3431,12 +3449,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3446,8 +3464,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -3456,14 +3474,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -3472,14 +3490,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3490,12 +3508,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3505,8 +3523,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3515,14 +3533,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -3531,13 +3549,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -3545,15 +3563,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>11.75</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3563,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3571,13 +3589,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -3585,27 +3603,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3614,6 +3619,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3630,70 +3648,70 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -3724,9 +3742,9 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3747,26 +3765,26 @@
       <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>4.45</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.23359580052493439</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.4176548089591568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.40693196405648269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3785,15 +3803,15 @@
       <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3812,15 +3830,15 @@
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3835,26 +3853,26 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>3.3</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.17322834645669291</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.21870882740447958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.23876765083440307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3869,15 +3887,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3886,15 +3904,15 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3915,26 +3933,26 @@
       <c r="H15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>4.3</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>5.55</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.22572178477690286</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.14624505928853754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.14249037227214376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3953,15 +3971,15 @@
       <c r="H16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3980,15 +3998,15 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4005,26 +4023,26 @@
       <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>4</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>5.25</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0.20997375328083989</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.13833992094861658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.13478818998716302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4039,15 +4057,15 @@
       <c r="H19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4062,15 +4080,15 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4081,26 +4099,26 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48">
+      <c r="I21" s="51">
         <v>3</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0.15748031496062992</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>7.9051383399209474E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+        <v>7.7021822849807436E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4111,15 +4129,15 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4128,15 +4146,15 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4147,12 +4165,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4162,9 +4180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4173,15 +4191,15 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4190,13 +4208,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -4205,15 +4223,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>19.05</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>37.950000000000003</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>38.950000000000003</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4223,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -4232,13 +4250,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="41"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -4247,27 +4265,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="41"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4276,6 +4281,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4288,76 +4306,76 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -4388,8 +4406,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4410,25 +4428,25 @@
       <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>4.75</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="31">
         <f>I9/$I$27</f>
-        <v>0.21839080459770116</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.34505862646566166</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.32854864433811803</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4445,14 +4463,14 @@
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="32"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4471,14 +4489,14 @@
       <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4489,43 +4507,45 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
-        <v>2</v>
-      </c>
-      <c r="J12" s="51">
+      <c r="I12" s="51">
+        <v>4</v>
+      </c>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
-        <v>10.3</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>13.3</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="31">
         <f>I12/$I$27</f>
-        <v>9.1954022988505746E-2</v>
+        <v>0.16842105263157894</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.17252931323283083</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.21212121212121213</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="32"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4534,14 +4554,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4562,25 +4582,25 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>6.25</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="31">
         <f>I15/$I$27</f>
-        <v>0.28735632183908044</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.19765494137353434</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>0.18819776714513556</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4599,14 +4619,14 @@
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="32"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4625,14 +4645,14 @@
       <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4653,25 +4673,25 @@
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>6.25</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>11.5</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="31">
         <f>I18/$I$27</f>
-        <v>0.28735632183908044</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.19262981574539362</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>0.18341307814992025</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4690,14 +4710,14 @@
       <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="32"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4716,14 +4736,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4734,25 +4754,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48">
+      <c r="I21" s="51">
         <v>2.5</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="31">
         <f>I21/$I$27</f>
-        <v>0.11494252873563218</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>9.2127303182579556E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="47"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4765,14 +4785,14 @@
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="32"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4781,14 +4801,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4799,12 +4819,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="31">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -4814,8 +4834,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4824,14 +4844,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="32"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4840,13 +4860,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="32"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4854,15 +4874,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
-        <v>21.75</v>
-      </c>
-      <c r="J27" s="57">
+        <v>23.75</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>59.7</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>62.7</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="31">
         <f>I27/$I$27</f>
         <v>1</v>
@@ -4872,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -4880,13 +4900,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -4894,27 +4914,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4923,6 +4930,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4935,74 +4955,74 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -5033,8 +5053,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5057,15 +5077,15 @@
       <c r="K9" s="67"/>
       <c r="L9" s="36">
         <f>I9/$I$27</f>
-        <v>0.3902439024390244</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="M9" s="37">
         <f>J9/$J$27</f>
-        <v>0.3516797712651894</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.33265720081135902</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5086,8 +5106,8 @@
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5102,8 +5122,8 @@
       <c r="L11" s="36"/>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5114,27 +5134,31 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="63"/>
+      <c r="I12" s="63">
+        <v>1</v>
+      </c>
       <c r="J12" s="66">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
-        <v>10.3</v>
+        <v>14.3</v>
       </c>
       <c r="K12" s="67"/>
       <c r="L12" s="36">
         <f>I12/$I$27</f>
-        <v>0</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M12" s="37">
         <f>J12/$J$27</f>
-        <v>0.1472480343102216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.19337390128465179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -5145,8 +5169,8 @@
       <c r="L13" s="36"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5161,8 +5185,8 @@
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5185,11 +5209,11 @@
       </c>
       <c r="M15" s="37">
         <f>J15/$J$27</f>
-        <v>0.16869192280200143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>0.15956727518593644</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5204,8 +5228,8 @@
       <c r="L16" s="36"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5220,8 +5244,8 @@
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5250,15 +5274,15 @@
       <c r="K18" s="67"/>
       <c r="L18" s="36">
         <f>I18/$I$27</f>
-        <v>0.6097560975609756</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M18" s="37">
         <f>J18/$J$27</f>
-        <v>0.25375268048606148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>0.24002704530087896</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5281,8 +5305,8 @@
       <c r="L19" s="36"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5305,8 +5329,8 @@
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5329,11 +5353,11 @@
       </c>
       <c r="M21" s="37">
         <f>J21/$J$27</f>
-        <v>7.8627591136526093E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+        <v>7.4374577417173765E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5348,8 +5372,8 @@
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5364,8 +5388,8 @@
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5391,8 +5415,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5407,8 +5431,8 @@
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5447,7 @@
       <c r="L26" s="36"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -5433,11 +5457,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="72">
         <f>SUM(I9:I26)</f>
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="J27" s="72">
         <f>SUM(J9:K26)</f>
-        <v>69.95</v>
+        <v>73.95</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="38">
@@ -5449,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5463,7 +5487,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -5479,19 +5503,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -5500,6 +5511,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5512,75 +5536,75 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -5611,8 +5635,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5623,25 +5647,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>0.5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>25.1</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>9.0909090909090912E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.33267064280980785</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.30442692540933902</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5660,14 +5684,14 @@
       <c r="H10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="44"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5676,14 +5700,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="44"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5694,39 +5718,45 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51">
+      <c r="I12" s="51">
+        <v>3</v>
+      </c>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
-        <v>10.3</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>17.3</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f>I12/$I$27</f>
-        <v>0</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.13651424784625579</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.20982413583990298</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="44"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5735,14 +5765,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="44"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5753,23 +5783,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51">
+      <c r="I15" s="51"/>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f>I15/$I$27</f>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.1563949635520212</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>0.14311704063068525</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5778,14 +5808,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="44"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5794,14 +5824,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="44"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5818,25 +5848,25 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>5</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f>I18/$I$27</f>
-        <v>0.90909090909090906</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.30152418820410865</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>0.27592480291085503</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5851,14 +5881,14 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="44"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5873,14 +5903,14 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="44"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5891,23 +5921,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f>I21/$I$27</f>
         <v>0</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>7.2895957587806495E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+        <v>6.6707095209217707E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5916,14 +5946,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="44"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5932,14 +5962,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5950,12 +5980,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -5965,8 +5995,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5975,14 +6005,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="44"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5991,13 +6021,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="44"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -6005,15 +6035,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
-        <v>5.5</v>
-      </c>
-      <c r="J27" s="57">
+        <v>8.5</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>75.45</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>82.45</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="45">
         <f>SUM(L9:L26)</f>
         <v>1</v>
@@ -6023,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -6031,13 +6061,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -6045,27 +6075,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="40"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -6074,6 +6091,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6086,61 +6116,61 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="2"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7" s="2"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -6171,8 +6201,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6183,25 +6213,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>4.5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
         <v>29.6</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>1</v>
+        <v>0.79646017699115035</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.37023139462163851</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+        <v>0.33598183881952332</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -6212,14 +6242,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -6228,14 +6258,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6245,56 +6275,66 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51">
+      <c r="H12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="51">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
-        <v>10.3</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>18.45</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="39">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
-        <v>0</v>
+        <v>0.20353982300884954</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.12883051907442153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+        <v>0.20942111237230421</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6305,23 +6345,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51">
+      <c r="I15" s="51"/>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.14759224515322078</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+        <v>0.13393870601589106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -6330,14 +6370,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -6346,14 +6386,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6364,23 +6404,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="51">
+      <c r="I18" s="51"/>
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.28455284552845528</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+        <v>0.25822928490351876</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -6389,14 +6429,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6405,14 +6445,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6423,23 +6463,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.8792995622263917E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+        <v>6.2429057888762775E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -6448,14 +6488,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -6464,14 +6504,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6482,12 +6522,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6497,8 +6537,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -6507,14 +6547,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6523,13 +6563,13 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -6539,11 +6579,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="42">
         <f>SUM(I9:I26)</f>
-        <v>4.5</v>
-      </c>
-      <c r="J27" s="57">
+        <v>5.65</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>79.95</v>
+        <v>88.1</v>
       </c>
       <c r="K27" s="74"/>
       <c r="L27" s="39">
@@ -6555,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -6569,7 +6609,7 @@
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -6585,6 +6625,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="I9:I11"/>
@@ -6592,19 +6645,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclok\GitHub\MENS-SHED-SOC09109\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9C64F-3389-4001-BEF0-A9353BE205FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5791D5-23E8-4F8C-BEC0-EA47ED9530D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="116">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Further research on bcrypt implementation, add initialisation for bcrypt.</t>
+  </si>
+  <si>
+    <t>Mid-point report security and testing section</t>
   </si>
 </sst>
 </file>
@@ -811,6 +814,48 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,48 +863,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1312,18 +1315,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1365,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1373,25 +1376,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>29.6</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="39" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.33598183881952332</v>
+        <v>0.33277121978639684</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1400,14 +1403,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1416,14 +1419,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1434,25 +1437,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>0</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
-        <v>18.45</v>
-      </c>
-      <c r="K12" s="55"/>
+        <v>19.3</v>
+      </c>
+      <c r="K12" s="52"/>
       <c r="L12" s="39" t="e">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.20942111237230421</v>
+        <v>0.21697582911748173</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1461,14 +1464,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1477,14 +1480,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1495,25 +1498,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.13393870601589106</v>
+        <v>0.13265879707700956</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1522,14 +1525,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1538,14 +1541,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1556,25 +1559,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>0</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.25822928490351876</v>
+        <v>0.25576166385609894</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1583,14 +1586,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1599,14 +1602,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1617,25 +1620,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>0</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.2429057888762775E-2</v>
+        <v>6.1832490163012926E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1644,14 +1647,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1660,14 +1663,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1678,14 +1681,14 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51">
+      <c r="I24" s="48">
         <v>0</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1696,7 +1699,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1705,14 +1708,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -1721,9 +1724,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
@@ -1735,15 +1738,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>88.1</v>
-      </c>
-      <c r="K27" s="62"/>
+        <v>88.95</v>
+      </c>
+      <c r="K27" s="59"/>
       <c r="L27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1761,9 +1764,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
@@ -1775,14 +1778,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -1791,19 +1807,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1866,18 +1869,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1921,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1939,14 +1942,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.7142857142857143</v>
@@ -1957,7 +1960,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1976,14 +1979,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2002,14 +2005,14 @@
       <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2020,12 +2023,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54">
+      <c r="I12" s="48"/>
+      <c r="J12" s="51">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2036,7 +2039,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2045,14 +2048,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2061,14 +2064,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2089,14 +2092,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.2</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>I15</f>
         <v>0.2</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -2107,7 +2110,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2126,14 +2129,14 @@
       <c r="H16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2152,14 +2155,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2170,12 +2173,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54">
+      <c r="I18" s="48"/>
+      <c r="J18" s="51">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2186,7 +2189,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2195,14 +2198,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2211,14 +2214,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2229,12 +2232,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2245,7 +2248,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2254,14 +2257,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2270,14 +2273,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2288,12 +2291,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2304,7 +2307,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2313,14 +2316,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2329,9 +2332,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -2343,15 +2346,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>0.7</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>0.7</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2369,9 +2372,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -2383,14 +2386,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2399,19 +2415,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2471,18 +2474,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2523,7 +2526,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2544,14 +2547,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>5.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.73154362416107388</v>
@@ -2562,7 +2565,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2581,14 +2584,14 @@
       <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2607,14 +2610,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2625,14 +2628,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>1</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.13422818791946309</v>
@@ -2643,7 +2646,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2654,14 +2657,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2670,14 +2673,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2698,14 +2701,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.75</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0.95</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.10067114093959731</v>
@@ -2716,7 +2719,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2735,14 +2738,14 @@
       <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2761,14 +2764,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2779,14 +2782,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>0.25</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>3.3557046979865772E-2</v>
@@ -2797,7 +2800,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2808,14 +2811,14 @@
         <v>92</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2824,14 +2827,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2842,12 +2845,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2858,7 +2861,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2867,14 +2870,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2883,14 +2886,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2901,12 +2904,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2917,7 +2920,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2926,14 +2929,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2942,9 +2945,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -2956,15 +2959,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>7.45</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>8.15</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2982,9 +2985,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -2996,14 +2999,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3012,19 +3028,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3084,18 +3087,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3136,7 +3139,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3157,14 +3160,14 @@
       <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>5.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.46382978723404256</v>
@@ -3175,7 +3178,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3194,14 +3197,14 @@
       <c r="H10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3220,14 +3223,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3242,14 +3245,14 @@
       <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>5</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>6</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.42553191489361702</v>
@@ -3260,7 +3263,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3273,14 +3276,14 @@
         <v>81</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3289,14 +3292,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3307,14 +3310,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>0.3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>1.25</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
@@ -3325,7 +3328,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3344,14 +3347,14 @@
       <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3360,14 +3363,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3382,14 +3385,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>1</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>1.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
@@ -3400,7 +3403,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -3413,14 +3416,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -3431,14 +3434,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3449,12 +3452,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3465,7 +3468,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -3474,14 +3477,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -3490,14 +3493,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3508,12 +3511,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3524,7 +3527,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3533,14 +3536,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -3549,9 +3552,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -3563,15 +3566,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>11.75</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3589,9 +3592,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -3603,14 +3606,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3619,19 +3635,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3691,18 +3694,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,7 +3747,7 @@
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3765,14 +3768,14 @@
       <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.45</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.23359580052493439</v>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3803,15 +3806,15 @@
       <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3830,15 +3833,15 @@
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3853,14 +3856,14 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>3.3</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.17322834645669291</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3887,15 +3890,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3904,15 +3907,15 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3933,14 +3936,14 @@
       <c r="H15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>4.3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>5.55</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.22572178477690286</v>
@@ -3952,7 +3955,7 @@
     </row>
     <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3971,15 +3974,15 @@
       <c r="H16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3998,15 +4001,15 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4023,14 +4026,14 @@
       <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>4</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>5.25</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0.20997375328083989</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4057,15 +4060,15 @@
       <c r="H19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4080,15 +4083,15 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4099,14 +4102,14 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>3</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0.15748031496062992</v>
@@ -4118,7 +4121,7 @@
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4129,15 +4132,15 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4146,15 +4149,15 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4165,12 +4168,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4182,7 +4185,7 @@
     </row>
     <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4191,15 +4194,15 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4208,9 +4211,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -4223,15 +4226,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>19.05</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>38.950000000000003</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4250,9 +4253,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="41"/>
       <c r="M28" s="34"/>
     </row>
@@ -4265,14 +4268,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="41"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4281,19 +4297,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4355,18 +4358,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4407,7 +4410,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4428,14 +4431,14 @@
       <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.75</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="31">
         <f>I9/$I$27</f>
         <v>0.2</v>
@@ -4446,7 +4449,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4463,14 +4466,14 @@
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="32"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4489,14 +4492,14 @@
       <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4507,14 +4510,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>4</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>13.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="31">
         <f>I12/$I$27</f>
         <v>0.16842105263157894</v>
@@ -4525,7 +4528,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4538,14 +4541,14 @@
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="32"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4554,14 +4557,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4582,14 +4585,14 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="48">
         <v>6.25</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="31">
         <f>I15/$I$27</f>
         <v>0.26315789473684209</v>
@@ -4600,7 +4603,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4619,14 +4622,14 @@
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="32"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4645,14 +4648,14 @@
       <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4673,14 +4676,14 @@
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>6.25</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>11.5</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="31">
         <f>I18/$I$27</f>
         <v>0.26315789473684209</v>
@@ -4691,7 +4694,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4710,14 +4713,14 @@
       <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="32"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4736,14 +4739,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4754,14 +4757,14 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>2.5</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="31">
         <f>I21/$I$27</f>
         <v>0.10526315789473684</v>
@@ -4772,7 +4775,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4785,14 +4788,14 @@
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="32"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4801,14 +4804,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4819,12 +4822,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="31">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -4835,7 +4838,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4844,14 +4847,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="32"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4860,9 +4863,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="32"/>
       <c r="M26" s="34"/>
     </row>
@@ -4874,15 +4877,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>23.75</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>62.7</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="31">
         <f>I27/$I$27</f>
         <v>1</v>
@@ -4900,9 +4903,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
@@ -4914,14 +4917,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4930,19 +4946,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5002,18 +5005,18 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5054,7 +5057,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5085,7 +5088,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5107,7 +5110,7 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5123,7 +5126,7 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5152,7 +5155,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5170,7 +5173,7 @@
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5186,7 +5189,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5213,7 +5216,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5229,7 +5232,7 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5245,7 +5248,7 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5282,7 +5285,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5306,7 +5309,7 @@
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5330,7 +5333,7 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5357,7 +5360,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5373,7 +5376,7 @@
       <c r="M22" s="37"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5389,7 +5392,7 @@
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5416,7 +5419,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5432,7 +5435,7 @@
       <c r="M25" s="37"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -5503,6 +5506,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -5511,19 +5527,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5584,18 +5587,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5636,7 +5639,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5647,14 +5650,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>25.1</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>5.8823529411764705E-2</v>
@@ -5665,7 +5668,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5684,14 +5687,14 @@
       <c r="H10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="44"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5700,14 +5703,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="44"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5718,14 +5721,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>3</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>17.3</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="41">
         <f>I12/$I$27</f>
         <v>0.35294117647058826</v>
@@ -5736,7 +5739,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5749,14 +5752,14 @@
         <v>111</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="44"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5765,14 +5768,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="44"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5783,12 +5786,12 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54">
+      <c r="I15" s="48"/>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="41">
         <f>I15/$I$27</f>
         <v>0</v>
@@ -5799,7 +5802,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5808,14 +5811,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="44"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5824,14 +5827,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="44"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5848,14 +5851,14 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51">
+      <c r="I18" s="48">
         <v>5</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="41">
         <f>I18/$I$27</f>
         <v>0.58823529411764708</v>
@@ -5866,7 +5869,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5881,14 +5884,14 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="44"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5903,14 +5906,14 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="44"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5921,12 +5924,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="41">
         <f>I21/$I$27</f>
         <v>0</v>
@@ -5937,7 +5940,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5946,14 +5949,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="44"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5962,14 +5965,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5980,12 +5983,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="41">
         <f>I24/$I$27</f>
         <v>0</v>
@@ -5996,7 +5999,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -6005,14 +6008,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="44"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6021,9 +6024,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="44"/>
       <c r="M26" s="34"/>
     </row>
@@ -6035,15 +6038,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="60">
+      <c r="I27" s="57">
         <f>SUM(I9:I26)</f>
         <v>8.5</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
         <v>82.45</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="45">
         <f>SUM(L9:L26)</f>
         <v>1</v>
@@ -6061,9 +6064,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
@@ -6075,14 +6078,27 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="40"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -6091,19 +6107,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6116,7 +6119,7 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6152,18 +6155,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6202,7 +6205,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6213,25 +6216,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>4.5</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
         <v>29.6</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>0.79646017699115035</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.33598183881952332</v>
+        <v>0.33277121978639684</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -6242,14 +6245,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -6258,14 +6261,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6278,25 +6281,25 @@
       <c r="H12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="51">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J12" s="54">
+      <c r="I12" s="48">
+        <v>2</v>
+      </c>
+      <c r="J12" s="51">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
-        <v>18.45</v>
-      </c>
-      <c r="K12" s="55"/>
+        <v>19.3</v>
+      </c>
+      <c r="K12" s="52"/>
       <c r="L12" s="39">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
-        <v>0.20353982300884954</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.20942111237230421</v>
+        <v>0.21697582911748173</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -6308,15 +6311,17 @@
       <c r="G13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="H13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -6327,14 +6332,14 @@
         <v>112</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6345,23 +6350,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54">
+      <c r="I15" s="48"/>
+      <c r="J15" s="51">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.13393870601589106</v>
+        <v>0.13265879707700956</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -6370,14 +6375,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -6386,14 +6391,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6404,23 +6409,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54">
+      <c r="I18" s="48"/>
+      <c r="J18" s="51">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.25822928490351876</v>
+        <v>0.25576166385609894</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -6429,14 +6434,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6445,14 +6450,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6463,23 +6468,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54">
+      <c r="I21" s="48"/>
+      <c r="J21" s="51">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.2429057888762775E-2</v>
+        <v>6.1832490163012926E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -6488,14 +6493,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -6504,14 +6509,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6522,12 +6527,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6538,7 +6543,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -6547,14 +6552,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6563,9 +6568,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
@@ -6579,11 +6584,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="42">
         <f>SUM(I9:I26)</f>
-        <v>5.65</v>
-      </c>
-      <c r="J27" s="60">
+        <v>6.5</v>
+      </c>
+      <c r="J27" s="57">
         <f>SUM(J9:K26)</f>
-        <v>88.1</v>
+        <v>88.95</v>
       </c>
       <c r="K27" s="74"/>
       <c r="L27" s="39">
@@ -6625,6 +6630,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
@@ -6632,19 +6650,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclok\GitHub\MENS-SHED-SOC09109\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5791D5-23E8-4F8C-BEC0-EA47ED9530D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65B4501-6476-43B4-B752-9ED553ED6480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18810" yWindow="1815" windowWidth="20010" windowHeight="17430" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WK 8 06-03-23" sheetId="9" r:id="rId9"/>
     <sheet name="WK 9 13-03-23" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="124">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -390,6 +390,30 @@
   </si>
   <si>
     <t>Mid-point report security and testing section</t>
+  </si>
+  <si>
+    <t>made my contrabutions to the PIR repot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writing sql files for the database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">looking at changes to be made for SQLite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">combined sqll files into one after forgeting upload the pervise files made for SQLite </t>
+  </si>
+  <si>
+    <t>looked in to how to displaying images in a database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the data base neededs to be rerun so no point enttering data that will be lost </t>
+  </si>
+  <si>
+    <t>made the database done, not done and risks to the mid piont report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createded files to add data into the data base </t>
   </si>
 </sst>
 </file>
@@ -689,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -814,6 +838,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -856,15 +889,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,6 +924,18 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,18 +1351,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,7 +1401,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1376,25 +1412,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>0</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>29.6</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="39" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.33277121978639684</v>
+        <v>0.29914098029307734</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1403,14 +1439,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1419,14 +1455,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1437,25 +1473,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>0</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>19.3</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="39" t="e">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.21697582911748173</v>
+        <v>0.19504800404244568</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1464,14 +1500,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1480,14 +1516,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1498,25 +1534,25 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.13265879707700956</v>
+        <v>0.11925214754926731</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1525,14 +1561,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1541,14 +1577,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1559,25 +1595,25 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>0</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.25576166385609894</v>
+        <v>0.22991409802930773</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1586,14 +1622,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1602,14 +1638,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1620,25 +1656,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48">
+      <c r="I21" s="51">
         <v>0</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.1832490163012926E-2</v>
+        <v>5.5583628094997471E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1647,14 +1683,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1663,14 +1699,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1681,25 +1717,25 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48">
+      <c r="I24" s="51">
         <v>0</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="55"/>
       <c r="L24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="33">
         <f>J24/$J$27</f>
-        <v>0</v>
+        <v>0.10106114199090449</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1708,14 +1744,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -1724,9 +1760,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
@@ -1738,15 +1774,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>88.95</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>98.95</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1764,9 +1800,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
@@ -1778,27 +1814,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -1807,6 +1830,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1869,18 +1905,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1921,7 +1957,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1942,14 +1978,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>0.5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.7142857142857143</v>
@@ -1960,7 +1996,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1979,14 +2015,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2005,14 +2041,14 @@
       <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2023,12 +2059,12 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="51">
+      <c r="I12" s="51"/>
+      <c r="J12" s="54">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0</v>
@@ -2039,7 +2075,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2048,14 +2084,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2064,14 +2100,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2092,14 +2128,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0.2</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>I15</f>
         <v>0.2</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -2110,7 +2146,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2129,14 +2165,14 @@
       <c r="H16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2155,14 +2191,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2173,12 +2209,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="51">
+      <c r="I18" s="51"/>
+      <c r="J18" s="54">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2189,7 +2225,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2198,14 +2234,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2214,14 +2250,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2232,12 +2268,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2248,7 +2284,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2257,14 +2293,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2273,14 +2309,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2291,12 +2327,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2307,7 +2343,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2316,14 +2352,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2332,9 +2368,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -2346,15 +2382,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>0.7</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>0.7</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2372,9 +2408,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -2386,27 +2422,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -2415,6 +2438,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2474,18 +2510,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2562,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2547,14 +2583,14 @@
       <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>5.45</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.73154362416107388</v>
@@ -2565,7 +2601,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2584,14 +2620,14 @@
       <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2610,14 +2646,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2628,14 +2664,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>1</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.13422818791946309</v>
@@ -2646,7 +2682,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2657,14 +2693,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2673,14 +2709,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2701,14 +2737,14 @@
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0.75</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0.95</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.10067114093959731</v>
@@ -2719,7 +2755,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2738,14 +2774,14 @@
       <c r="H16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2764,14 +2800,14 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2782,14 +2818,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>0.25</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0.25</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>3.3557046979865772E-2</v>
@@ -2800,7 +2836,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2811,14 +2847,14 @@
         <v>92</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2827,14 +2863,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2845,12 +2881,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2861,7 +2897,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2870,14 +2906,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -2886,14 +2922,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2904,12 +2940,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2920,7 +2956,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2929,14 +2965,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -2945,9 +2981,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -2959,15 +2995,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>7.45</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>8.15</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2985,9 +3021,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -2999,27 +3035,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3028,6 +3051,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3087,18 +3123,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,7 +3175,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3160,14 +3196,14 @@
       <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>5.45</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
         <v>0.46382978723404256</v>
@@ -3178,7 +3214,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3197,14 +3233,14 @@
       <c r="H10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3223,14 +3259,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3245,14 +3281,14 @@
       <c r="H12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>5</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>6</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
         <v>0.42553191489361702</v>
@@ -3263,7 +3299,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3276,14 +3312,14 @@
         <v>81</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3292,14 +3328,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3310,14 +3346,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>0.3</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>1.25</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
@@ -3328,7 +3364,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3347,14 +3383,14 @@
       <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -3363,14 +3399,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3385,14 +3421,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>1</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>1.25</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
@@ -3403,7 +3439,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -3416,14 +3452,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -3434,14 +3470,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3452,12 +3488,12 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3468,7 +3504,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -3477,14 +3513,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -3493,14 +3529,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3511,12 +3547,12 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51"/>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3527,7 +3563,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3536,14 +3572,14 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -3552,9 +3588,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -3566,15 +3602,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
         <v>11.75</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3592,9 +3628,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="35"/>
       <c r="M28" s="34"/>
     </row>
@@ -3606,27 +3642,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="35"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -3635,6 +3658,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3647,8 +3683,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,18 +3730,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3747,7 +3783,7 @@
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3768,26 +3804,26 @@
       <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>4.45</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>0.23359580052493439</v>
+        <v>0.21140142517814728</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.40693196405648269</v>
+        <v>0.38705738705738707</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3806,15 +3842,15 @@
       <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="41"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3833,15 +3869,15 @@
       <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="41"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3856,26 +3892,26 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>3.3</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
-        <v>0.17322834645669291</v>
+        <v>0.15676959619952494</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.23876765083440307</v>
+        <v>0.2271062271062271</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3890,15 +3926,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3907,15 +3943,15 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="41"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3936,26 +3972,26 @@
       <c r="H15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>4.3</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>5.55</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f t="shared" si="0"/>
-        <v>0.22572178477690286</v>
+        <v>0.20427553444180521</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.14249037227214376</v>
+        <v>0.13553113553113552</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3974,15 +4010,15 @@
       <c r="H16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="41"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4001,15 +4037,15 @@
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="41"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4026,26 +4062,26 @@
       <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>4</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>5.25</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f t="shared" si="0"/>
-        <v>0.20997375328083989</v>
+        <v>0.19002375296912113</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.13478818998716302</v>
+        <v>0.12820512820512819</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4060,15 +4096,15 @@
       <c r="H19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="41"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4083,15 +4119,15 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="41"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4102,26 +4138,26 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48">
+      <c r="I21" s="51">
         <v>3</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f t="shared" si="0"/>
-        <v>0.15748031496062992</v>
+        <v>0.14251781472684086</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>7.7021822849807436E-2</v>
+        <v>7.326007326007325E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4132,15 +4168,15 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="41"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4149,71 +4185,75 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="41"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76">
+        <v>2</v>
+      </c>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="52"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5011876484560567E-2</v>
       </c>
       <c r="M24" s="33">
         <f>J24/$J$27</f>
-        <v>0</v>
+        <v>4.884004884004884E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="41"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="41"/>
       <c r="M26" s="34"/>
     </row>
@@ -4226,15 +4266,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
-        <v>19.05</v>
-      </c>
-      <c r="J27" s="57">
+        <v>21.05</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>38.950000000000003</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>40.950000000000003</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4253,9 +4293,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="41"/>
       <c r="M28" s="34"/>
     </row>
@@ -4268,27 +4308,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="41"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4297,6 +4324,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4310,7 +4350,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,18 +4398,18 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,7 +4450,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4431,25 +4471,25 @@
       <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>4.75</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="31">
         <f>I9/$I$27</f>
-        <v>0.2</v>
+        <v>0.19191919191919191</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.32854864433811803</v>
+        <v>0.31354642313546421</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4466,14 +4506,14 @@
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="32"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4492,14 +4532,14 @@
       <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4510,25 +4550,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>4</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>13.3</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="31">
         <f>I12/$I$27</f>
-        <v>0.16842105263157894</v>
+        <v>0.16161616161616163</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.21212121212121213</v>
+        <v>0.20243531202435311</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4541,14 +4581,14 @@
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="32"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4557,14 +4597,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4585,25 +4625,25 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="51">
         <v>6.25</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="31">
         <f>I15/$I$27</f>
-        <v>0.26315789473684209</v>
+        <v>0.25252525252525254</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.18819776714513556</v>
+        <v>0.17960426179604261</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4622,14 +4662,14 @@
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="32"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4648,14 +4688,14 @@
       <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4676,25 +4716,25 @@
       <c r="H18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>6.25</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>11.5</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="31">
         <f>I18/$I$27</f>
-        <v>0.26315789473684209</v>
+        <v>0.25252525252525254</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.18341307814992025</v>
+        <v>0.17503805175038051</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -4713,14 +4753,14 @@
       <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="32"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -4739,14 +4779,14 @@
       <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4757,25 +4797,25 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48">
+      <c r="I21" s="51">
         <v>2.5</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="31">
         <f>I21/$I$27</f>
-        <v>0.10526315789473684</v>
+        <v>0.10101010101010101</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>8.771929824561403E-2</v>
+        <v>8.3713850837138504E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -4788,14 +4828,14 @@
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="32"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -4804,14 +4844,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4822,23 +4862,25 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51">
+        <v>1</v>
+      </c>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="52"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="55"/>
       <c r="L24" s="31">
         <f>I24/$I$27</f>
-        <v>0</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="M24" s="33">
         <f>J24/$J$27</f>
-        <v>0</v>
+        <v>4.5662100456621002E-2</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -4846,15 +4888,17 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="H25" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="32"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -4863,9 +4907,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="32"/>
       <c r="M26" s="34"/>
     </row>
@@ -4877,15 +4921,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
-        <v>23.75</v>
-      </c>
-      <c r="J27" s="57">
+        <v>24.75</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>62.7</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>65.7</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="31">
         <f>I27/$I$27</f>
         <v>1</v>
@@ -4903,9 +4947,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="32"/>
       <c r="M28" s="34"/>
     </row>
@@ -4917,27 +4961,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="32"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -4946,6 +4977,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4959,7 +5003,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,18 +5049,18 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5057,7 +5101,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5080,15 +5124,15 @@
       <c r="K9" s="67"/>
       <c r="L9" s="36">
         <f>I9/$I$27</f>
-        <v>0.35555555555555557</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="M9" s="37">
         <f>J9/$J$27</f>
-        <v>0.33265720081135902</v>
+        <v>0.31357552581261949</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5110,7 +5154,7 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5126,7 +5170,7 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5147,15 +5191,15 @@
       <c r="K12" s="67"/>
       <c r="L12" s="36">
         <f>I12/$I$27</f>
-        <v>8.8888888888888892E-2</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="M12" s="37">
         <f>J12/$J$27</f>
-        <v>0.19337390128465179</v>
+        <v>0.18228170809432759</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5173,7 +5217,7 @@
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5189,7 +5233,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5212,11 +5256,11 @@
       </c>
       <c r="M15" s="37">
         <f>J15/$J$27</f>
-        <v>0.15956727518593644</v>
+        <v>0.15041427660930529</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5232,7 +5276,7 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5248,7 +5292,7 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5277,15 +5321,15 @@
       <c r="K18" s="67"/>
       <c r="L18" s="36">
         <f>I18/$I$27</f>
-        <v>0.55555555555555558</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="M18" s="37">
         <f>J18/$J$27</f>
-        <v>0.24002704530087896</v>
+        <v>0.22625876354365837</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5309,7 +5353,7 @@
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5333,7 +5377,7 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5356,11 +5400,11 @@
       </c>
       <c r="M21" s="37">
         <f>J21/$J$27</f>
-        <v>7.4374577417173765E-2</v>
+        <v>7.0108349267049078E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5376,7 +5420,7 @@
       <c r="M22" s="37"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5392,59 +5436,65 @@
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="63"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76">
+        <v>1.5</v>
+      </c>
       <c r="J24" s="66">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K24" s="67"/>
       <c r="L24" s="36">
         <f>I24/$I$27</f>
-        <v>0</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="M24" s="37">
         <f>J24/$J$27</f>
-        <v>0</v>
+        <v>5.736137667304015E-2</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="64"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="68"/>
       <c r="K25" s="69"/>
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="65"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="70"/>
       <c r="K26" s="71"/>
       <c r="L26" s="36"/>
@@ -5460,11 +5510,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="72">
         <f>SUM(I9:I26)</f>
-        <v>11.25</v>
+        <v>12.75</v>
       </c>
       <c r="J27" s="72">
         <f>SUM(J9:K26)</f>
-        <v>73.95</v>
+        <v>78.45</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="38">
@@ -5506,19 +5556,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -5527,6 +5564,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5539,8 +5589,8 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5587,18 +5637,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5639,7 +5689,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5650,25 +5700,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>0.5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>25.1</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>5.8823529411764705E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.30442692540933902</v>
+        <v>0.28060368921185019</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5687,14 +5737,14 @@
       <c r="H10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="44"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5703,14 +5753,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="44"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5721,25 +5771,25 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>3</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>17.3</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="41">
         <f>I12/$I$27</f>
-        <v>0.35294117647058826</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.20982413583990298</v>
+        <v>0.19340413638904416</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5752,14 +5802,14 @@
         <v>111</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="44"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5768,14 +5818,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="44"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -5786,23 +5836,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51">
+      <c r="I15" s="51"/>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="41">
         <f>I15/$I$27</f>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.14311704063068525</v>
+        <v>0.13191727221911684</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5811,14 +5861,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="44"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -5827,14 +5877,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="44"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5851,25 +5901,25 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48">
+      <c r="I18" s="51">
         <v>5</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41">
         <f>I18/$I$27</f>
-        <v>0.58823529411764708</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.27592480291085503</v>
+        <v>0.25433202906651758</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -5884,14 +5934,14 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="44"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5906,14 +5956,14 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="44"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5924,23 +5974,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="41">
         <f>I21/$I$27</f>
         <v>0</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.6707095209217707E-2</v>
+        <v>6.1486864169927331E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -5949,14 +5999,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="44"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5965,14 +6015,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5983,50 +6033,56 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="52"/>
+        <v>7</v>
+      </c>
+      <c r="K24" s="55"/>
       <c r="L24" s="41">
         <f>I24/$I$27</f>
-        <v>0</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="M24" s="33">
         <f>J24/$J$27</f>
-        <v>0</v>
+        <v>7.825600894354387E-2</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="44"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="44"/>
       <c r="M26" s="34"/>
     </row>
@@ -6038,15 +6094,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="57">
+      <c r="I27" s="60">
         <f>SUM(I9:I26)</f>
-        <v>8.5</v>
-      </c>
-      <c r="J27" s="57">
+        <v>11</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>82.45</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>89.45</v>
+      </c>
+      <c r="K27" s="62"/>
       <c r="L27" s="45">
         <f>SUM(L9:L26)</f>
         <v>1</v>
@@ -6064,9 +6120,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="40"/>
       <c r="M28" s="34"/>
     </row>
@@ -6078,27 +6134,14 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="40"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
@@ -6107,6 +6150,19 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6119,8 +6175,8 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6155,18 +6211,18 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6205,7 +6261,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6216,25 +6272,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="48">
+      <c r="I9" s="51">
         <v>4.5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="54">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
         <v>29.6</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="41">
         <f>I9/$I$27</f>
-        <v>0.69230769230769229</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="M9" s="33">
         <f>J9/$J$27</f>
-        <v>0.33277121978639684</v>
+        <v>0.29914098029307734</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -6245,14 +6301,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="39"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -6261,14 +6317,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="39"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6281,25 +6337,25 @@
       <c r="H12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="51">
         <v>2</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="54">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>19.3</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="39">
         <f t="shared" ref="L12:L27" si="0">I12/$I$27</f>
-        <v>0.30769230769230771</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="M12" s="33">
         <f>J12/$J$27</f>
-        <v>0.21697582911748173</v>
+        <v>0.19504800404244568</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -6314,14 +6370,14 @@
       <c r="H13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="39"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
@@ -6332,14 +6388,14 @@
         <v>112</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="39"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -6350,23 +6406,23 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51">
+      <c r="I15" s="51"/>
+      <c r="J15" s="54">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>11.8</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="33">
         <f>J15/$J$27</f>
-        <v>0.13265879707700956</v>
+        <v>0.11925214754926731</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -6375,14 +6431,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="39"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
@@ -6391,14 +6447,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="39"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6409,23 +6465,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="51">
+      <c r="I18" s="51"/>
+      <c r="J18" s="54">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>22.75</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
         <f>J18/$J$27</f>
-        <v>0.25576166385609894</v>
+        <v>0.22991409802930773</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
@@ -6434,14 +6490,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="39"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6450,14 +6506,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="39"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6468,23 +6524,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="51">
+      <c r="I21" s="51"/>
+      <c r="J21" s="54">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="33">
         <f>J21/$J$27</f>
-        <v>6.1832490163012926E-2</v>
+        <v>5.5583628094997471E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
@@ -6493,14 +6549,14 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="39"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
@@ -6509,14 +6565,14 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6527,39 +6583,45 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51">
+      <c r="I24" s="51">
+        <v>3</v>
+      </c>
+      <c r="J24" s="54">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="55"/>
       <c r="L24" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="M24" s="33">
         <f>J24/$J$27</f>
-        <v>0</v>
+        <v>0.10106114199090449</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="G25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="39"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6568,9 +6630,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="39"/>
       <c r="M26" s="34"/>
     </row>
@@ -6584,11 +6646,11 @@
       <c r="H27" s="15"/>
       <c r="I27" s="42">
         <f>SUM(I9:I26)</f>
-        <v>6.5</v>
-      </c>
-      <c r="J27" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="J27" s="60">
         <f>SUM(J9:K26)</f>
-        <v>88.95</v>
+        <v>98.95</v>
       </c>
       <c r="K27" s="74"/>
       <c r="L27" s="39">
@@ -6630,6 +6692,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="I9:I11"/>
@@ -6637,19 +6712,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{B65B4501-6476-43B4-B752-9ED553ED6480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B7E27DE-8938-40D4-9EC6-BB9663B6A8FB}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{B65B4501-6476-43B4-B752-9ED553ED6480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C4C5D98-F5D5-49F8-A34D-C6ED9819383B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="131">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -434,7 +434,10 @@
     <t>emails and chat messages</t>
   </si>
   <si>
-    <t>Meeting with Client</t>
+    <t>Preporation for the Client meetingMeeting with Client</t>
+  </si>
+  <si>
+    <t>Agenda &amp; Spreadsheets</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,7 +1336,9 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1411,11 +1416,11 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="48">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>35.85</v>
+        <v>31.35</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="40">
@@ -1424,7 +1429,7 @@
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.34077946768060835</v>
+        <v>0.31132075471698112</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1491,7 +1496,7 @@
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.18346007604562739</v>
+        <v>0.19165839126117179</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1552,7 +1557,7 @@
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.11216730038022814</v>
+        <v>0.11717974180734857</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1613,7 +1618,7 @@
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.21625475285171103</v>
+        <v>0.22591857000993049</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1674,7 +1679,7 @@
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.2281368821292772E-2</v>
+        <v>5.461767626613704E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -1735,7 +1740,7 @@
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>9.5057034220532313E-2</v>
+        <v>9.9304865938430978E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1780,11 +1785,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>105.2</v>
+        <v>100.7</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="40">
@@ -1862,8 +1867,8 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1935,18 +1940,18 @@
         <v>11</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="48">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>35.85</v>
+        <v>28.85</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="40">
@@ -1955,7 +1960,7 @@
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.34077946768060835</v>
+        <v>0.29378818737270879</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1967,12 +1972,8 @@
         <v>127</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="49"/>
       <c r="J5" s="53"/>
@@ -2022,7 +2023,7 @@
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.18346007604562739</v>
+        <v>0.19653767820773932</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2083,7 +2084,7 @@
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.11216730038022814</v>
+        <v>0.12016293279022404</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2144,7 +2145,7 @@
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.21625475285171103</v>
+        <v>0.23167006109979632</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2205,7 +2206,7 @@
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.2281368821292772E-2</v>
+        <v>5.6008146639511203E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -2266,7 +2267,7 @@
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>9.5057034220532313E-2</v>
+        <v>0.10183299389002036</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2311,11 +2312,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>105.2</v>
+        <v>98.2</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="40">
@@ -2390,8 +2391,8 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2467,19 +2468,21 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="48">
+        <v>2.5</v>
+      </c>
       <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>30.35</v>
+        <v>28.85</v>
       </c>
       <c r="K4" s="52"/>
-      <c r="L4" s="40" t="e">
+      <c r="L4" s="40">
         <f>I4/$I$22</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.30441323971915746</v>
+        <v>0.29378818737270879</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2534,13 +2537,13 @@
         <v>19.3</v>
       </c>
       <c r="K7" s="52"/>
-      <c r="L7" s="40" t="e">
+      <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19358074222668004</v>
+        <v>0.19653767820773932</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2595,13 +2598,13 @@
         <v>11.8</v>
       </c>
       <c r="K10" s="52"/>
-      <c r="L10" s="40" t="e">
+      <c r="L10" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.11835506519558676</v>
+        <v>0.12016293279022404</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2656,13 +2659,13 @@
         <v>22.75</v>
       </c>
       <c r="K13" s="52"/>
-      <c r="L13" s="40" t="e">
+      <c r="L13" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.22818455366098295</v>
+        <v>0.23167006109979632</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -2717,13 +2720,13 @@
         <v>5.5</v>
       </c>
       <c r="K16" s="52"/>
-      <c r="L16" s="40" t="e">
+      <c r="L16" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.5165496489468405E-2</v>
+        <v>5.6008146639511203E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -2778,13 +2781,13 @@
         <v>10</v>
       </c>
       <c r="K19" s="52"/>
-      <c r="L19" s="40" t="e">
+      <c r="L19" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>0.10030090270812438</v>
+        <v>0.10183299389002036</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2829,16 +2832,16 @@
       <c r="H22" s="15"/>
       <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>99.7</v>
+        <v>98.2</v>
       </c>
       <c r="K22" s="59"/>
-      <c r="L22" s="40" t="e">
+      <c r="L22" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M22" s="33">
         <f>J22/$J$22</f>
@@ -2908,8 +2911,8 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I6"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2985,19 +2988,21 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="48">
+        <v>2.5</v>
+      </c>
       <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>30.35</v>
+        <v>28.85</v>
       </c>
       <c r="K4" s="52"/>
-      <c r="L4" s="40" t="e">
+      <c r="L4" s="40">
         <f>I4/$I$22</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.30441323971915746</v>
+        <v>0.29378818737270879</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -3052,13 +3057,13 @@
         <v>19.3</v>
       </c>
       <c r="K7" s="52"/>
-      <c r="L7" s="40" t="e">
+      <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19358074222668004</v>
+        <v>0.19653767820773932</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -3113,13 +3118,13 @@
         <v>11.8</v>
       </c>
       <c r="K10" s="52"/>
-      <c r="L10" s="40" t="e">
+      <c r="L10" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.11835506519558676</v>
+        <v>0.12016293279022404</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -3174,13 +3179,13 @@
         <v>22.75</v>
       </c>
       <c r="K13" s="52"/>
-      <c r="L13" s="40" t="e">
+      <c r="L13" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.22818455366098295</v>
+        <v>0.23167006109979632</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -3235,13 +3240,13 @@
         <v>5.5</v>
       </c>
       <c r="K16" s="52"/>
-      <c r="L16" s="40" t="e">
+      <c r="L16" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.5165496489468405E-2</v>
+        <v>5.6008146639511203E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -3296,13 +3301,13 @@
         <v>10</v>
       </c>
       <c r="K19" s="52"/>
-      <c r="L19" s="40" t="e">
+      <c r="L19" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>0.10030090270812438</v>
+        <v>0.10183299389002036</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3347,16 +3352,16 @@
       <c r="H22" s="15"/>
       <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>99.7</v>
+        <v>98.2</v>
       </c>
       <c r="K22" s="59"/>
-      <c r="L22" s="40" t="e">
+      <c r="L22" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M22" s="33">
         <f>J22/$J$22</f>
@@ -6421,7 +6426,7 @@
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6503,20 +6508,20 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="69">
         <f>SUM(I4,'WK 5 13-02-23'!J4:K6)</f>
-        <v>24.6</v>
+        <v>23.6</v>
       </c>
       <c r="K4" s="70"/>
       <c r="L4" s="36">
         <f>I4/$I$22</f>
-        <v>0.31372549019607843</v>
+        <v>0.25531914893617019</v>
       </c>
       <c r="M4" s="37">
         <f>J4/$J$22</f>
-        <v>0.31357552581261949</v>
+        <v>0.30471271788250487</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
@@ -6579,11 +6584,11 @@
       <c r="K7" s="70"/>
       <c r="L7" s="36">
         <f>I7/$I$22</f>
-        <v>7.8431372549019607E-2</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="M7" s="37">
         <f>J7/$J$22</f>
-        <v>0.18228170809432759</v>
+        <v>0.18463524854744998</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6644,7 +6649,7 @@
       </c>
       <c r="M10" s="37">
         <f>J10/$J$22</f>
-        <v>0.15041427660930529</v>
+        <v>0.15235635894125243</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6709,11 +6714,11 @@
       <c r="K13" s="70"/>
       <c r="L13" s="36">
         <f>I13/$I$22</f>
-        <v>0.49019607843137253</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="M13" s="37">
         <f>J13/$J$22</f>
-        <v>0.22625876354365837</v>
+        <v>0.22918011620400258</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -6788,7 +6793,7 @@
       </c>
       <c r="M16" s="37">
         <f>J16/$J$22</f>
-        <v>7.0108349267049078E-2</v>
+        <v>7.1013557133634594E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6845,11 +6850,11 @@
       <c r="K19" s="70"/>
       <c r="L19" s="36">
         <f>I19/$I$22</f>
-        <v>0.11764705882352941</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="M19" s="37">
         <f>J19/$J$22</f>
-        <v>5.736137667304015E-2</v>
+        <v>5.8102001291155579E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -6898,11 +6903,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="75">
         <f>SUM(I4:I21)</f>
-        <v>12.75</v>
+        <v>11.75</v>
       </c>
       <c r="J22" s="75">
         <f>SUM(J4:K21)</f>
-        <v>78.45</v>
+        <v>77.45</v>
       </c>
       <c r="K22" s="75"/>
       <c r="L22" s="38">
@@ -7063,7 +7068,7 @@
       </c>
       <c r="J4" s="51">
         <f>SUM(I4,'WK 6 20-02-23 '!J4:K6)</f>
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="40">
@@ -7072,7 +7077,7 @@
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.28060368921185019</v>
+        <v>0.2724703222159412</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7143,7 +7148,7 @@
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19340413638904416</v>
+        <v>0.19559072922555115</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7206,7 +7211,7 @@
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.13191727221911684</v>
+        <v>0.13340870548332392</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7273,7 +7278,7 @@
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.25433202906651758</v>
+        <v>0.25720746184284904</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.45">
@@ -7344,7 +7349,7 @@
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>6.1486864169927331E-2</v>
+        <v>6.2182023742227248E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -7405,7 +7410,7 @@
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>7.825600894354387E-2</v>
+        <v>7.9140757490107405E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -7458,7 +7463,7 @@
       </c>
       <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>89.45</v>
+        <v>88.45</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="44">
@@ -7534,7 +7539,7 @@
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+      <selection activeCell="J4" sqref="J4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7611,20 +7616,20 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="48">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="J4" s="51">
         <f>SUM(I4,'WK 7 27-02-23'!J4:K6)</f>
-        <v>30.35</v>
+        <v>26.35</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
-        <v>0.51219512195121952</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.30441323971915746</v>
+        <v>0.27533960292580983</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7689,11 +7694,11 @@
       <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
-        <v>0.1951219512195122</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19358074222668004</v>
+        <v>0.20167189132706373</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7760,7 +7765,7 @@
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.11835506519558676</v>
+        <v>0.1233019853709509</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7819,7 +7824,7 @@
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.22818455366098295</v>
+        <v>0.23772204806687564</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -7878,7 +7883,7 @@
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.5165496489468405E-2</v>
+        <v>5.7471264367816091E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
@@ -7935,11 +7940,11 @@
       <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
-        <v>0.29268292682926828</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>0.10030090270812438</v>
+        <v>0.1044932079414838</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -7988,11 +7993,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="41">
         <f>SUM(I4:I21)</f>
-        <v>10.25</v>
+        <v>7.25</v>
       </c>
       <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>99.7</v>
+        <v>95.7</v>
       </c>
       <c r="K22" s="77"/>
       <c r="L22" s="40">

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclok\GitHub\MENS-SHED-SOC09109\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4A75D-6B92-4E50-B0F5-96E0D29683D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6815C-B604-4525-BBC8-CEFAEE81A8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="134">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -438,6 +438,15 @@
   </si>
   <si>
     <t>Agenda &amp; Spreadsheets</t>
+  </si>
+  <si>
+    <t>Set up Database</t>
+  </si>
+  <si>
+    <t>got register and Login fetures working</t>
+  </si>
+  <si>
+    <t>Worked on register and Login fetures</t>
   </si>
 </sst>
 </file>
@@ -862,15 +871,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -911,6 +911,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,7 +970,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,18 +1361,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1411,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1415,25 +1424,25 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
         <v>31.35</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.30825958702064898</v>
+        <v>0.28577939835916133</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -1448,14 +1457,14 @@
         <v>129</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1464,14 +1473,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1482,25 +1491,25 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>1</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
         <v>20.3</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19960668633235004</v>
+        <v>0.18505013673655424</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1511,14 +1520,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1527,14 +1536,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1545,25 +1554,25 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.1160275319567355</v>
+        <v>0.10756608933454877</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1572,14 +1581,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1588,14 +1597,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1606,25 +1615,25 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>0</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.22369714847590952</v>
+        <v>0.20738377392889698</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1633,14 +1642,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -1649,14 +1658,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1667,25 +1676,25 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51">
+      <c r="I16" s="48">
         <v>0</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K16" s="55"/>
+        <v>13.5</v>
+      </c>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.4080629301868237E-2</v>
+        <v>0.12306289881494986</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -1694,14 +1703,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -1710,14 +1719,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1728,25 +1737,25 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51">
+      <c r="I19" s="48">
         <v>0</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>9.8328416912487712E-2</v>
+        <v>9.1157702825888781E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -1755,14 +1764,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -1771,9 +1780,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -1785,15 +1794,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>6</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>101.7</v>
-      </c>
-      <c r="K22" s="62"/>
+        <v>109.7</v>
+      </c>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1811,9 +1820,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -1825,19 +1834,550 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L4 L7 L10 L13 L16 L19 L22" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE4D42-20BB-495B-A71E-BA01A66E0D5C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="51">
+        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
+        <v>28.85</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="40">
+        <f>I4/$I$22</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="M4" s="33">
+        <f>J4/$J$22</f>
+        <v>0.24001663893510816</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="47"/>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="48">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
+        <v>19.3</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <f>J7/$J$22</f>
+        <v>0.1605657237936772</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47"/>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="48">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51">
+        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
+        <v>11.8</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="33">
+        <f>J10/$J$22</f>
+        <v>9.8169717138103171E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="48">
+        <v>0</v>
+      </c>
+      <c r="J13" s="51">
+        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
+        <v>22.75</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <f>J13/$J$22</f>
+        <v>0.18926788685524126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="48">
+        <v>14</v>
+      </c>
+      <c r="J16" s="51">
+        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
+        <v>27.5</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="40">
+        <f t="shared" si="0"/>
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="M16" s="33">
+        <f>J16/$J$22</f>
+        <v>0.22878535773710482</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="47"/>
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="48">
+        <v>0</v>
+      </c>
+      <c r="J19" s="51">
+        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
+        <f>J19/$J$22</f>
+        <v>8.3194675540765387E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47"/>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="57">
+        <f>SUM(I4:I21)</f>
+        <v>16.5</v>
+      </c>
+      <c r="J22" s="57">
+        <f>SUM(J4:K21)</f>
+        <v>120.2</v>
+      </c>
+      <c r="K22" s="59"/>
+      <c r="L22" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="33">
+        <f>J22/$J$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
@@ -1854,533 +2394,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:K9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="L4 L7 L10 L13 L16 L19 L22" evalError="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE4D42-20BB-495B-A71E-BA01A66E0D5C}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:M24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J2" s="2"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="51">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="54">
-        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>28.85</v>
-      </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="40">
-        <f>I4/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="33">
-        <f>J4/$J$22</f>
-        <v>0.29378818737270879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="51">
-        <v>0</v>
-      </c>
-      <c r="J7" s="54">
-        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
-        <v>19.3</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
-        <f>J7/$J$22</f>
-        <v>0.19653767820773932</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="51">
-        <v>0</v>
-      </c>
-      <c r="J10" s="54">
-        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
-        <v>11.8</v>
-      </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <f>J10/$J$22</f>
-        <v>0.12016293279022404</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="51">
-        <v>0</v>
-      </c>
-      <c r="J13" s="54">
-        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
-        <v>22.75</v>
-      </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <f>J13/$J$22</f>
-        <v>0.23167006109979632</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="51">
-        <v>0</v>
-      </c>
-      <c r="J16" s="54">
-        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="33">
-        <f>J16/$J$22</f>
-        <v>5.6008146639511203E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="51">
-        <v>0</v>
-      </c>
-      <c r="J19" s="54">
-        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
-        <f>J19/$J$22</f>
-        <v>0.10183299389002036</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="60">
-        <f>SUM(I4:I21)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J22" s="60">
-        <f>SUM(J4:K21)</f>
-        <v>98.2</v>
-      </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="33">
-        <f>J22/$J$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2409,18 +2422,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,7 +2472,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2470,25 +2483,25 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>2.5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
         <v>28.85</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>1</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.29378818737270879</v>
+        <v>0.2716572504708098</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -2497,14 +2510,14 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2513,14 +2526,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -2531,25 +2544,25 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>0</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
         <v>19.3</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19653767820773932</v>
+        <v>0.18173258003766479</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2558,14 +2571,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2574,14 +2587,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2592,25 +2605,25 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.12016293279022404</v>
+        <v>0.11111111111111112</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -2619,14 +2632,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -2635,14 +2648,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2653,25 +2666,25 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>0</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.23167006109979632</v>
+        <v>0.21421845574387946</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -2680,14 +2693,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -2696,14 +2709,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2714,25 +2727,25 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51">
+      <c r="I16" s="48">
         <v>0</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K16" s="55"/>
+        <v>13.5</v>
+      </c>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.6008146639511203E-2</v>
+        <v>0.1271186440677966</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -2741,14 +2754,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -2757,14 +2770,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -2775,25 +2788,25 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51">
+      <c r="I19" s="48">
         <v>0</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>0.10183299389002036</v>
+        <v>9.4161958568738227E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -2802,14 +2815,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -2818,9 +2831,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -2832,15 +2845,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>2.5</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>98.2</v>
-      </c>
-      <c r="K22" s="62"/>
+        <v>106.2</v>
+      </c>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2858,9 +2871,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -2872,27 +2885,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -2901,6 +2901,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2929,18 +2942,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,7 +2992,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2990,25 +3003,25 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>2.5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
         <v>28.85</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>1</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.29378818737270879</v>
+        <v>0.2716572504708098</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -3017,14 +3030,14 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3033,14 +3046,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3051,25 +3064,25 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>0</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
         <v>19.3</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19653767820773932</v>
+        <v>0.18173258003766479</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -3078,14 +3091,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -3094,14 +3107,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3112,25 +3125,25 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.12016293279022404</v>
+        <v>0.11111111111111112</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -3139,14 +3152,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3155,14 +3168,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3173,25 +3186,25 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>0</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.23167006109979632</v>
+        <v>0.21421845574387946</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -3200,14 +3213,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -3216,14 +3229,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3234,25 +3247,25 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51">
+      <c r="I16" s="48">
         <v>0</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K16" s="55"/>
+        <v>13.5</v>
+      </c>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.6008146639511203E-2</v>
+        <v>0.1271186440677966</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -3261,14 +3274,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -3277,14 +3290,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3295,25 +3308,25 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51">
+      <c r="I19" s="48">
         <v>0</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>0.10183299389002036</v>
+        <v>9.4161958568738227E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -3322,14 +3335,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -3338,9 +3351,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -3352,15 +3365,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>2.5</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>98.2</v>
-      </c>
-      <c r="K22" s="62"/>
+        <v>106.2</v>
+      </c>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3378,9 +3391,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -3392,27 +3405,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -3421,6 +3421,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3450,18 +3463,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,7 +3515,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3523,14 +3536,14 @@
       <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>0.5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>I4</f>
         <v>0.5</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.7142857142857143</v>
@@ -3541,7 +3554,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -3560,14 +3573,14 @@
       <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3586,14 +3599,14 @@
       <c r="H6" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3604,12 +3617,12 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="54">
+      <c r="I7" s="48"/>
+      <c r="J7" s="51">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0</v>
@@ -3620,7 +3633,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -3629,14 +3642,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -3645,14 +3658,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3673,14 +3686,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0.2</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>I10</f>
         <v>0.2</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -3691,7 +3704,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -3710,14 +3723,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3736,14 +3749,14 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3754,12 +3767,12 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="54">
+      <c r="I13" s="48"/>
+      <c r="J13" s="51">
         <f>I13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3770,7 +3783,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -3779,14 +3792,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -3795,14 +3808,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3813,12 +3826,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="54">
+      <c r="I16" s="48"/>
+      <c r="J16" s="51">
         <f>I16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3829,7 +3842,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -3838,14 +3851,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -3854,14 +3867,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3872,12 +3885,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="54">
+      <c r="I19" s="48"/>
+      <c r="J19" s="51">
         <f>I19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3888,7 +3901,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -3897,14 +3910,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -3913,9 +3926,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -3927,15 +3940,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>0.7</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
         <v>0.7</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3953,9 +3966,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
     </row>
@@ -3967,14 +3980,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="35"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -3983,19 +4009,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4025,18 +4038,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4077,7 +4090,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4098,14 +4111,14 @@
       <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>5.45</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 1 16-01-23'!J4:K6)</f>
         <v>5.95</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.73154362416107388</v>
@@ -4116,7 +4129,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -4135,14 +4148,14 @@
       <c r="H5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4161,14 +4174,14 @@
       <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4179,14 +4192,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>1</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 1 16-01-23'!J7:K9)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.13422818791946309</v>
@@ -4197,7 +4210,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -4208,14 +4221,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -4224,14 +4237,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4252,14 +4265,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0.75</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 1 16-01-23'!J10:K12)</f>
         <v>0.95</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0.10067114093959731</v>
@@ -4270,7 +4283,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -4289,14 +4302,14 @@
       <c r="H11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -4315,14 +4328,14 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4333,14 +4346,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>0.25</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 1 16-01-23'!J13:K15)</f>
         <v>0.25</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>3.3557046979865772E-2</v>
@@ -4351,7 +4364,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -4362,14 +4375,14 @@
         <v>92</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -4378,14 +4391,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4396,12 +4409,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="54">
+      <c r="I16" s="48"/>
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 1 16-01-23'!J16:K18)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4412,7 +4425,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -4421,14 +4434,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -4437,14 +4450,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -4455,12 +4468,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="54">
+      <c r="I19" s="48"/>
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 1 16-01-23'!J19:K21)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4471,7 +4484,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -4480,14 +4493,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -4496,9 +4509,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -4510,15 +4523,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>7.45</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
         <v>8.15</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4536,9 +4549,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
     </row>
@@ -4550,14 +4563,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="35"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -4566,19 +4592,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4608,18 +4621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4660,7 +4673,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4681,14 +4694,14 @@
       <c r="H4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>5.45</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 2 23-01-23'!J4:K6)</f>
         <v>11.4</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.46382978723404256</v>
@@ -4699,7 +4712,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -4718,14 +4731,14 @@
       <c r="H5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4744,14 +4757,14 @@
       <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4766,14 +4779,14 @@
       <c r="H7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>5</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 2 23-01-23'!J7:K9)</f>
         <v>6</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.42553191489361702</v>
@@ -4784,7 +4797,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -4797,14 +4810,14 @@
         <v>81</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -4813,14 +4826,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4831,14 +4844,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0.3</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 2 23-01-23'!J10:K12)</f>
         <v>1.25</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
@@ -4849,7 +4862,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -4868,14 +4881,14 @@
       <c r="H11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -4884,14 +4897,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4906,14 +4919,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>1</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 2 23-01-23'!J13:K15)</f>
         <v>1.25</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
@@ -4924,7 +4937,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -4937,14 +4950,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -4955,14 +4968,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4973,12 +4986,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="54">
+      <c r="I16" s="48"/>
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 2 23-01-23'!J16:K18)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4989,7 +5002,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -4998,14 +5011,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -5014,14 +5027,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5032,12 +5045,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="54">
+      <c r="I19" s="48"/>
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 2 23-01-23'!J19:K21)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5048,7 +5061,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -5057,14 +5070,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -5073,9 +5086,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -5087,15 +5100,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>11.75</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5113,9 +5126,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
     </row>
@@ -5127,14 +5140,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="35"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -5143,19 +5169,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5185,18 +5198,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5238,7 +5251,7 @@
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -5259,14 +5272,14 @@
       <c r="H4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>4.45</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 3 30-01-23'!J4:K6)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.21140142517814728</v>
@@ -5278,7 +5291,7 @@
     </row>
     <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -5297,15 +5310,15 @@
       <c r="H5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5324,15 +5337,15 @@
       <c r="H6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -5347,14 +5360,14 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>3.3</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 3 30-01-23'!J7:K9)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.15676959619952494</v>
@@ -5366,7 +5379,7 @@
     </row>
     <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -5381,15 +5394,15 @@
         <v>63</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -5398,15 +5411,15 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -5427,14 +5440,14 @@
       <c r="H10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>4.3</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 3 30-01-23'!J10:K12)</f>
         <v>5.55</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0.20427553444180521</v>
@@ -5446,7 +5459,7 @@
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -5465,15 +5478,15 @@
       <c r="H11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -5492,15 +5505,15 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5517,14 +5530,14 @@
       <c r="H13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>4</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 3 30-01-23'!J13:K15)</f>
         <v>5.25</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0.19002375296912113</v>
@@ -5536,7 +5549,7 @@
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -5551,15 +5564,15 @@
       <c r="H14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -5574,15 +5587,15 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -5593,14 +5606,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51">
+      <c r="I16" s="48">
         <v>3</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 3 30-01-23'!J16:K18)</f>
         <v>3</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0.14251781472684086</v>
@@ -5612,7 +5625,7 @@
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -5623,15 +5636,15 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -5640,15 +5653,15 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5662,11 +5675,11 @@
       <c r="I19" s="63">
         <v>2</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 3 30-01-23'!J19:K21)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>9.5011876484560567E-2</v>
@@ -5678,7 +5691,7 @@
     </row>
     <row r="20" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -5690,14 +5703,14 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="64"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -5707,8 +5720,8 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="65"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -5721,15 +5734,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>21.05</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
         <v>40.950000000000003</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5748,9 +5761,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="40"/>
       <c r="M23" s="34"/>
     </row>
@@ -5763,14 +5776,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="40"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -5779,19 +5805,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5823,18 +5836,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5875,7 +5888,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -5896,14 +5909,14 @@
       <c r="H4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>4.75</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 4 06-02-23'!J4:K6)</f>
         <v>20.6</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="31">
         <f>I4/$I$22</f>
         <v>0.19191919191919191</v>
@@ -5914,7 +5927,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -5931,14 +5944,14 @@
       <c r="H5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="32"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5957,14 +5970,14 @@
       <c r="H6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="32"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -5975,14 +5988,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>4</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 4 06-02-23'!J7:K9)</f>
         <v>13.3</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="31">
         <f>I7/$I$22</f>
         <v>0.16161616161616163</v>
@@ -5993,7 +6006,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -6006,14 +6019,14 @@
       <c r="H8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="32"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -6022,14 +6035,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="32"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -6050,14 +6063,14 @@
       <c r="H10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>6.25</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 4 06-02-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="31">
         <f>I10/$I$22</f>
         <v>0.25252525252525254</v>
@@ -6068,7 +6081,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -6087,14 +6100,14 @@
       <c r="H11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -6113,14 +6126,14 @@
       <c r="H12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="32"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6141,14 +6154,14 @@
       <c r="H13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>6.25</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 4 06-02-23'!J13:K15)</f>
         <v>11.5</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="31">
         <f>I13/$I$22</f>
         <v>0.25252525252525254</v>
@@ -6159,7 +6172,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -6178,14 +6191,14 @@
       <c r="H14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -6204,14 +6217,14 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="32"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6222,14 +6235,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51">
+      <c r="I16" s="48">
         <v>2.5</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 4 06-02-23'!J16:K18)</f>
         <v>5.5</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="31">
         <f>I16/$I$22</f>
         <v>0.10101010101010101</v>
@@ -6240,7 +6253,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -6253,14 +6266,14 @@
       <c r="H17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -6269,14 +6282,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="32"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -6287,14 +6300,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51">
+      <c r="I19" s="48">
         <v>1</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 4 06-02-23'!J19:K21)</f>
         <v>3</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="31">
         <f>I19/$I$22</f>
         <v>4.0404040404040407E-2</v>
@@ -6305,7 +6318,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -6316,14 +6329,14 @@
       <c r="H20" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -6332,9 +6345,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="32"/>
       <c r="M21" s="34"/>
     </row>
@@ -6346,15 +6359,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>24.75</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
         <v>65.7</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="31">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -6372,9 +6385,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -6386,14 +6399,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -6402,19 +6428,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6428,7 +6441,7 @@
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+      <selection activeCell="I16" sqref="I16:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6444,18 +6457,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="16"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6496,7 +6509,7 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -6519,15 +6532,15 @@
       <c r="K4" s="70"/>
       <c r="L4" s="36">
         <f>I4/$I$22</f>
-        <v>0.25531914893617019</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="M4" s="37">
         <f>J4/$J$22</f>
-        <v>0.30471271788250487</v>
+        <v>0.27618490345231128</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -6549,7 +6562,7 @@
       <c r="M5" s="37"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -6565,7 +6578,7 @@
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -6586,15 +6599,15 @@
       <c r="K7" s="70"/>
       <c r="L7" s="36">
         <f>I7/$I$22</f>
-        <v>8.5106382978723402E-2</v>
+        <v>5.0632911392405063E-2</v>
       </c>
       <c r="M7" s="37">
         <f>J7/$J$22</f>
-        <v>0.18463524854744998</v>
+        <v>0.16734932709186659</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -6612,7 +6625,7 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -6628,7 +6641,7 @@
       <c r="M9" s="37"/>
     </row>
     <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -6651,11 +6664,11 @@
       </c>
       <c r="M10" s="37">
         <f>J10/$J$22</f>
-        <v>0.15235635894125243</v>
+        <v>0.13809245172615564</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -6671,7 +6684,7 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -6687,7 +6700,7 @@
       <c r="M12" s="37"/>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6716,15 +6729,15 @@
       <c r="K13" s="70"/>
       <c r="L13" s="36">
         <f>I13/$I$22</f>
-        <v>0.53191489361702127</v>
+        <v>0.31645569620253167</v>
       </c>
       <c r="M13" s="37">
         <f>J13/$J$22</f>
-        <v>0.22918011620400258</v>
+        <v>0.20772381509654769</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -6748,7 +6761,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -6772,7 +6785,7 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6783,29 +6796,33 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="66"/>
+      <c r="I16" s="66">
+        <v>8</v>
+      </c>
       <c r="J16" s="69">
         <f>SUM(I16,'WK 5 13-02-23'!J16:K18)</f>
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="K16" s="70"/>
       <c r="L16" s="36">
         <f>I16/$I$22</f>
-        <v>0</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="M16" s="37">
         <f>J16/$J$22</f>
-        <v>7.1013557133634594E-2</v>
+        <v>0.15798712697483908</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="67"/>
@@ -6815,7 +6832,7 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -6831,7 +6848,7 @@
       <c r="M18" s="37"/>
     </row>
     <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -6852,15 +6869,15 @@
       <c r="K19" s="70"/>
       <c r="L19" s="36">
         <f>I19/$I$22</f>
-        <v>0.1276595744680851</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="M19" s="37">
         <f>J19/$J$22</f>
-        <v>5.8102001291155579E-2</v>
+        <v>5.2662375658279692E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -6880,7 +6897,7 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -6905,11 +6922,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="75">
         <f>SUM(I4:I21)</f>
-        <v>11.75</v>
+        <v>19.75</v>
       </c>
       <c r="J22" s="75">
         <f>SUM(J4:K21)</f>
-        <v>77.45</v>
+        <v>85.45</v>
       </c>
       <c r="K22" s="75"/>
       <c r="L22" s="38">
@@ -6951,6 +6968,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -6959,19 +6989,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6984,7 +7001,7 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -7002,18 +7019,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7054,7 +7071,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -7065,25 +7082,25 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>0.5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 6 20-02-23 '!J4:K6)</f>
         <v>24.1</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.2724703222159412</v>
+        <v>0.2498703991705547</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7102,14 +7119,14 @@
       <c r="H5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="43"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -7118,14 +7135,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="43"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -7136,25 +7153,25 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>3</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 6 20-02-23 '!J7:K9)</f>
         <v>17.3</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f>I7/$I$22</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.19559072922555115</v>
+        <v>0.17936754795230689</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -7167,14 +7184,14 @@
         <v>111</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="43"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -7183,14 +7200,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="43"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -7201,23 +7218,23 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="54">
+      <c r="I10" s="48"/>
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 6 20-02-23 '!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f>I10/$I$22</f>
         <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.13340870548332392</v>
+        <v>0.12234318299637117</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -7226,14 +7243,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="43"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -7242,14 +7259,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="43"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -7266,25 +7283,25 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>5</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 6 20-02-23 '!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f>I13/$I$22</f>
         <v>0.45454545454545453</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.25720746184284904</v>
+        <v>0.23587350959046138</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -7299,14 +7316,14 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="43"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -7321,14 +7338,14 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="43"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -7339,23 +7356,23 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="54">
+      <c r="I16" s="48"/>
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 6 20-02-23 '!J16:K18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K16" s="55"/>
+        <v>13.5</v>
+      </c>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f>I16/$I$22</f>
         <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>6.2182023742227248E-2</v>
+        <v>0.13996889580093314</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -7364,14 +7381,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="43"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -7380,14 +7397,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="43"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -7398,25 +7415,25 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51">
+      <c r="I19" s="48">
         <v>2.5</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 6 20-02-23 '!J19:K21)</f>
         <v>7</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f>I19/$I$22</f>
         <v>0.22727272727272727</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>7.9140757490107405E-2</v>
+        <v>7.257646448937273E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -7427,14 +7444,14 @@
         <v>120</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="43"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -7445,9 +7462,9 @@
         <v>121</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="43"/>
       <c r="M21" s="34"/>
     </row>
@@ -7459,15 +7476,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <f>SUM(I4:I21)</f>
         <v>11</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>88.45</v>
-      </c>
-      <c r="K22" s="62"/>
+        <v>96.45</v>
+      </c>
+      <c r="K22" s="59"/>
       <c r="L22" s="44">
         <f>SUM(L4:L21)</f>
         <v>1</v>
@@ -7485,9 +7502,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
@@ -7499,14 +7516,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="39"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -7515,19 +7545,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7556,18 +7573,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7606,7 +7623,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -7617,25 +7634,25 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="51">
+      <c r="I4" s="48">
         <v>2.25</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <f>SUM(I4,'WK 7 27-02-23'!J4:K6)</f>
         <v>26.35</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.31034482758620691</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.27533960292580983</v>
+        <v>0.25409836065573771</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7650,14 +7667,14 @@
       <c r="H5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -7666,14 +7683,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -7686,25 +7703,25 @@
       <c r="H7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>2</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>SUM(I7,'WK 7 27-02-23'!J7:K9)</f>
         <v>19.3</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.27586206896551724</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.20167189132706373</v>
+        <v>0.18611378977820636</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -7719,14 +7736,14 @@
       <c r="H8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -7737,14 +7754,14 @@
         <v>112</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -7755,23 +7772,23 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="54">
+      <c r="I10" s="48"/>
+      <c r="J10" s="51">
         <f>SUM(I10,'WK 7 27-02-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.1233019853709509</v>
+        <v>0.11378977820636452</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -7780,14 +7797,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -7796,14 +7813,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -7814,23 +7831,23 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="54">
+      <c r="I13" s="48"/>
+      <c r="J13" s="51">
         <f>SUM(I13,'WK 7 27-02-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.23772204806687564</v>
+        <v>0.21938283510125361</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -7839,14 +7856,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -7855,14 +7872,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -7873,23 +7890,23 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="54">
+      <c r="I16" s="48"/>
+      <c r="J16" s="51">
         <f>SUM(I16,'WK 7 27-02-23'!J16:K18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K16" s="55"/>
+        <v>13.5</v>
+      </c>
+      <c r="K16" s="52"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>5.7471264367816091E-2</v>
+        <v>0.13018322082931533</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -7898,14 +7915,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -7914,14 +7931,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -7932,25 +7949,25 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="51">
+      <c r="I19" s="48">
         <v>3</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <f>SUM(I19,'WK 7 27-02-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0.41379310344827586</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>0.1044932079414838</v>
+        <v>9.643201542912247E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -7963,14 +7980,14 @@
       <c r="H20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -7979,9 +7996,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -7997,9 +8014,9 @@
         <f>SUM(I4:I21)</f>
         <v>7.25</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="57">
         <f>SUM(J4:K21)</f>
-        <v>95.7</v>
+        <v>103.7</v>
       </c>
       <c r="K22" s="77"/>
       <c r="L22" s="40">
@@ -8041,6 +8058,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
@@ -8048,19 +8078,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6815C-B604-4525-BBC8-CEFAEE81A8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2120AF64-E12C-4C52-8831-2D52A62AC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="135">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>Worked on register and Login fetures</t>
+  </si>
+  <si>
+    <t>Added Tool search functionality</t>
   </si>
 </sst>
 </file>
@@ -871,6 +874,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -911,15 +923,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,18 +1364,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1414,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1424,14 +1427,14 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>5</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
         <v>31.35</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.83333333333333337</v>
@@ -1442,7 +1445,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -1457,14 +1460,14 @@
         <v>129</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1473,14 +1476,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1491,14 +1494,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>1</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
         <v>20.3</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.16666666666666666</v>
@@ -1509,7 +1512,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1520,14 +1523,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1536,14 +1539,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1554,14 +1557,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>0</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1572,7 +1575,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1581,14 +1584,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1597,14 +1600,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1615,14 +1618,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>0</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1633,7 +1636,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1642,14 +1645,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -1658,14 +1661,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1676,14 +1679,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48">
+      <c r="I16" s="51">
         <v>0</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
         <v>13.5</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1694,7 +1697,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -1703,14 +1706,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -1719,14 +1722,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1737,14 +1740,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48">
+      <c r="I19" s="51">
         <v>0</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1755,7 +1758,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -1764,14 +1767,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -1780,9 +1783,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -1794,15 +1797,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>6</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>109.7</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1820,9 +1823,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -1834,550 +1837,19 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="L4 L7 L10 L13 L16 L19 L22" evalError="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE4D42-20BB-495B-A71E-BA01A66E0D5C}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:M24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J2" s="2"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="48">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="51">
-        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>28.85</v>
-      </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="40">
-        <f>I4/$I$22</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="M4" s="33">
-        <f>J4/$J$22</f>
-        <v>0.24001663893510816</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="48">
-        <v>0</v>
-      </c>
-      <c r="J7" s="51">
-        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
-        <v>19.3</v>
-      </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
-        <f>J7/$J$22</f>
-        <v>0.1605657237936772</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="48">
-        <v>0</v>
-      </c>
-      <c r="J10" s="51">
-        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
-        <v>11.8</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <f>J10/$J$22</f>
-        <v>9.8169717138103171E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="48">
-        <v>0</v>
-      </c>
-      <c r="J13" s="51">
-        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
-        <v>22.75</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <f>J13/$J$22</f>
-        <v>0.18926788685524126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="48">
-        <v>14</v>
-      </c>
-      <c r="J16" s="51">
-        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>27.5</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="40">
-        <f t="shared" si="0"/>
-        <v>0.84848484848484851</v>
-      </c>
-      <c r="M16" s="33">
-        <f>J16/$J$22</f>
-        <v>0.22878535773710482</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="48">
-        <v>0</v>
-      </c>
-      <c r="J19" s="51">
-        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
-        <f>J19/$J$22</f>
-        <v>8.3194675540765387E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="57">
-        <f>SUM(I4:I21)</f>
-        <v>16.5</v>
-      </c>
-      <c r="J22" s="57">
-        <f>SUM(J4:K21)</f>
-        <v>120.2</v>
-      </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="33">
-        <f>J22/$J$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
@@ -2396,18 +1868,21 @@
     <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L4 L7 L10 L13 L16 L19 L22" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8690DDA5-BCF2-4FF3-8202-266C0CA12E90}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE4D42-20BB-495B-A71E-BA01A66E0D5C}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,18 +1897,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2472,52 +1947,56 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>2.5</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
         <v>28.85</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
-        <v>1</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="M4" s="33">
         <f>J4/$J$22</f>
-        <v>0.2716572504708098</v>
+        <v>0.24001663893510816</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2526,14 +2005,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -2544,25 +2023,25 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>0</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
         <v>19.3</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0</v>
       </c>
       <c r="M7" s="33">
         <f>J7/$J$22</f>
-        <v>0.18173258003766479</v>
+        <v>0.1605657237936772</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2571,14 +2050,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2587,14 +2066,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2605,25 +2084,25 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>0</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="33">
         <f>J10/$J$22</f>
-        <v>0.11111111111111112</v>
+        <v>9.8169717138103171E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -2632,14 +2111,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -2648,14 +2127,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2666,25 +2145,25 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>0</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="33">
         <f>J13/$J$22</f>
-        <v>0.21421845574387946</v>
+        <v>0.18926788685524126</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -2693,14 +2172,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -2709,14 +2188,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2727,41 +2206,45 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48">
-        <v>0</v>
-      </c>
-      <c r="J16" s="51">
+      <c r="I16" s="51">
+        <v>14</v>
+      </c>
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>13.5</v>
-      </c>
-      <c r="K16" s="52"/>
+        <v>27.5</v>
+      </c>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="M16" s="33">
         <f>J16/$J$22</f>
-        <v>0.1271186440677966</v>
+        <v>0.22878535773710482</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -2770,14 +2253,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -2788,25 +2271,25 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48">
+      <c r="I19" s="51">
         <v>0</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="33">
         <f>J19/$J$22</f>
-        <v>9.4161958568738227E-2</v>
+        <v>8.3194675540765387E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -2815,14 +2298,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -2831,9 +2314,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -2845,15 +2328,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J22" s="57">
+        <v>16.5</v>
+      </c>
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
-        <v>106.2</v>
-      </c>
-      <c r="K22" s="59"/>
+        <v>120.2</v>
+      </c>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2871,9 +2354,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -2885,14 +2368,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -2901,12 +2397,507 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8690DDA5-BCF2-4FF3-8202-266C0CA12E90}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="54">
+        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
+        <v>28.85</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="40">
+        <f>I4/$I$22</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="M4" s="33">
+        <f>J4/$J$22</f>
+        <v>0.25485865724381623</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50"/>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54">
+        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
+        <v>19.3</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <f>J7/$J$22</f>
+        <v>0.1704946996466431</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="50"/>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="50"/>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54">
+        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
+        <v>11.8</v>
+      </c>
+      <c r="K10" s="55"/>
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="33">
+        <f>J10/$J$22</f>
+        <v>0.10424028268551237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="51">
+        <v>0</v>
+      </c>
+      <c r="J13" s="54">
+        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
+        <v>22.75</v>
+      </c>
+      <c r="K13" s="55"/>
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <f>J13/$J$22</f>
+        <v>0.20097173144876324</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="51">
+        <v>7</v>
+      </c>
+      <c r="J16" s="54">
+        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
+        <v>20.5</v>
+      </c>
+      <c r="K16" s="55"/>
+      <c r="L16" s="40">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M16" s="33">
+        <f>J16/$J$22</f>
+        <v>0.18109540636042401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="51">
+        <v>0</v>
+      </c>
+      <c r="J19" s="54">
+        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="55"/>
+      <c r="L19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
+        <f>J19/$J$22</f>
+        <v>8.8339222614840993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="60">
+        <f>SUM(I4:I21)</f>
+        <v>9.5</v>
+      </c>
+      <c r="J22" s="60">
+        <f>SUM(J4:K21)</f>
+        <v>113.2</v>
+      </c>
+      <c r="K22" s="62"/>
+      <c r="L22" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="33">
+        <f>J22/$J$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="I4:I6"/>
@@ -2914,6 +2905,20 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,18 +2947,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2992,7 +2997,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3003,14 +3008,14 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>2.5</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
         <v>28.85</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>1</v>
@@ -3021,7 +3026,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -3030,14 +3035,14 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3046,14 +3051,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3064,14 +3069,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>0</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
         <v>19.3</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0</v>
@@ -3082,7 +3087,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -3091,14 +3096,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -3107,14 +3112,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3125,14 +3130,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>0</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3143,7 +3148,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -3152,14 +3157,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3168,14 +3173,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3186,14 +3191,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>0</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3204,7 +3209,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -3213,14 +3218,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -3229,14 +3234,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3247,14 +3252,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48">
+      <c r="I16" s="51">
         <v>0</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
         <v>13.5</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3265,7 +3270,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -3274,14 +3279,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -3290,14 +3295,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3308,14 +3313,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48">
+      <c r="I19" s="51">
         <v>0</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3326,7 +3331,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -3335,14 +3340,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -3351,9 +3356,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -3365,15 +3370,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>2.5</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>106.2</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3391,9 +3396,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -3405,14 +3410,27 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -3421,19 +3439,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3463,18 +3468,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3515,7 +3520,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3536,14 +3541,14 @@
       <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>0.5</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>I4</f>
         <v>0.5</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.7142857142857143</v>
@@ -3554,7 +3559,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -3573,14 +3578,14 @@
       <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3599,14 +3604,14 @@
       <c r="H6" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3617,12 +3622,12 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="51">
+      <c r="I7" s="51"/>
+      <c r="J7" s="54">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0</v>
@@ -3633,7 +3638,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -3642,14 +3647,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -3658,14 +3663,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3686,14 +3691,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>0.2</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>I10</f>
         <v>0.2</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0.28571428571428575</v>
@@ -3704,7 +3709,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -3723,14 +3728,14 @@
       <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3749,14 +3754,14 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3767,12 +3772,12 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="51">
+      <c r="I13" s="51"/>
+      <c r="J13" s="54">
         <f>I13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3783,7 +3788,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -3792,14 +3797,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -3808,14 +3813,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3826,12 +3831,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51">
+      <c r="I16" s="51"/>
+      <c r="J16" s="54">
         <f>I16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3842,7 +3847,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -3851,14 +3856,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -3867,14 +3872,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3885,12 +3890,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="51">
+      <c r="I19" s="51"/>
+      <c r="J19" s="54">
         <f>I19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3901,7 +3906,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -3910,14 +3915,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -3926,9 +3931,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -3940,15 +3945,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>0.7</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>0.7</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3966,9 +3971,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
     </row>
@@ -3980,27 +3985,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="35"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -4009,6 +4001,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4038,18 +4043,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4090,7 +4095,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4111,14 +4116,14 @@
       <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>5.45</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 1 16-01-23'!J4:K6)</f>
         <v>5.95</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.73154362416107388</v>
@@ -4129,7 +4134,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -4148,14 +4153,14 @@
       <c r="H5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4174,14 +4179,14 @@
       <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4192,14 +4197,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>1</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 1 16-01-23'!J7:K9)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.13422818791946309</v>
@@ -4210,7 +4215,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -4221,14 +4226,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -4237,14 +4242,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4265,14 +4270,14 @@
       <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>0.75</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 1 16-01-23'!J10:K12)</f>
         <v>0.95</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0.10067114093959731</v>
@@ -4283,7 +4288,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -4302,14 +4307,14 @@
       <c r="H11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -4328,14 +4333,14 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4346,14 +4351,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>0.25</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 1 16-01-23'!J13:K15)</f>
         <v>0.25</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>3.3557046979865772E-2</v>
@@ -4364,7 +4369,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -4375,14 +4380,14 @@
         <v>92</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -4391,14 +4396,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4409,12 +4414,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51">
+      <c r="I16" s="51"/>
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 1 16-01-23'!J16:K18)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4425,7 +4430,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -4434,14 +4439,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -4450,14 +4455,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -4468,12 +4473,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="51">
+      <c r="I19" s="51"/>
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 1 16-01-23'!J19:K21)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4484,7 +4489,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -4493,14 +4498,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -4509,9 +4514,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -4523,15 +4528,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>7.45</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>8.15</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4549,9 +4554,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
     </row>
@@ -4563,27 +4568,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="35"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -4592,6 +4584,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4621,18 +4626,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4673,7 +4678,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4694,14 +4699,14 @@
       <c r="H4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>5.45</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 2 23-01-23'!J4:K6)</f>
         <v>11.4</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.46382978723404256</v>
@@ -4712,7 +4717,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -4731,14 +4736,14 @@
       <c r="H5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4757,14 +4762,14 @@
       <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4779,14 +4784,14 @@
       <c r="H7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>5</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 2 23-01-23'!J7:K9)</f>
         <v>6</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.42553191489361702</v>
@@ -4797,7 +4802,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -4810,14 +4815,14 @@
         <v>81</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -4826,14 +4831,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4844,14 +4849,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>0.3</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 2 23-01-23'!J10:K12)</f>
         <v>1.25</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>2.553191489361702E-2</v>
@@ -4862,7 +4867,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -4881,14 +4886,14 @@
       <c r="H11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -4897,14 +4902,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4919,14 +4924,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>1</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 2 23-01-23'!J13:K15)</f>
         <v>1.25</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>8.5106382978723402E-2</v>
@@ -4937,7 +4942,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -4950,14 +4955,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -4968,14 +4973,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4986,12 +4991,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51">
+      <c r="I16" s="51"/>
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 2 23-01-23'!J16:K18)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5002,7 +5007,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -5011,14 +5016,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -5027,14 +5032,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5045,12 +5050,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="51">
+      <c r="I19" s="51"/>
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 2 23-01-23'!J19:K21)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5061,7 +5066,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -5070,14 +5075,14 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -5086,9 +5091,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -5100,15 +5105,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>11.75</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5126,9 +5131,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
     </row>
@@ -5140,27 +5145,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="35"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -5169,6 +5161,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5198,18 +5203,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5251,7 +5256,7 @@
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -5272,14 +5277,14 @@
       <c r="H4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>4.45</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 3 30-01-23'!J4:K6)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.21140142517814728</v>
@@ -5291,7 +5296,7 @@
     </row>
     <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -5310,15 +5315,15 @@
       <c r="H5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5337,15 +5342,15 @@
       <c r="H6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -5360,14 +5365,14 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>3.3</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 3 30-01-23'!J7:K9)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.15676959619952494</v>
@@ -5379,7 +5384,7 @@
     </row>
     <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -5394,15 +5399,15 @@
         <v>63</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -5411,15 +5416,15 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -5440,14 +5445,14 @@
       <c r="H10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>4.3</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 3 30-01-23'!J10:K12)</f>
         <v>5.55</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0.20427553444180521</v>
@@ -5459,7 +5464,7 @@
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -5478,15 +5483,15 @@
       <c r="H11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -5505,15 +5510,15 @@
       <c r="H12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5530,14 +5535,14 @@
       <c r="H13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>4</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 3 30-01-23'!J13:K15)</f>
         <v>5.25</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0.19002375296912113</v>
@@ -5549,7 +5554,7 @@
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -5564,15 +5569,15 @@
       <c r="H14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -5587,15 +5592,15 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -5606,14 +5611,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48">
+      <c r="I16" s="51">
         <v>3</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 3 30-01-23'!J16:K18)</f>
         <v>3</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0.14251781472684086</v>
@@ -5625,7 +5630,7 @@
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -5636,15 +5641,15 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -5653,15 +5658,15 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5675,11 +5680,11 @@
       <c r="I19" s="63">
         <v>2</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 3 30-01-23'!J19:K21)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>9.5011876484560567E-2</v>
@@ -5691,7 +5696,7 @@
     </row>
     <row r="20" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -5703,14 +5708,14 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="64"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -5720,8 +5725,8 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="65"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -5734,15 +5739,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>21.05</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>40.950000000000003</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5761,9 +5766,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="40"/>
       <c r="M23" s="34"/>
     </row>
@@ -5776,27 +5781,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="40"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -5805,6 +5797,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5836,18 +5841,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5893,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -5909,14 +5914,14 @@
       <c r="H4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>4.75</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 4 06-02-23'!J4:K6)</f>
         <v>20.6</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="31">
         <f>I4/$I$22</f>
         <v>0.19191919191919191</v>
@@ -5927,7 +5932,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -5944,14 +5949,14 @@
       <c r="H5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="32"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5970,14 +5975,14 @@
       <c r="H6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="32"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -5988,14 +5993,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>4</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 4 06-02-23'!J7:K9)</f>
         <v>13.3</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="31">
         <f>I7/$I$22</f>
         <v>0.16161616161616163</v>
@@ -6006,7 +6011,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -6019,14 +6024,14 @@
       <c r="H8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="32"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -6035,14 +6040,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="32"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -6063,14 +6068,14 @@
       <c r="H10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>6.25</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 4 06-02-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="31">
         <f>I10/$I$22</f>
         <v>0.25252525252525254</v>
@@ -6081,7 +6086,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -6100,14 +6105,14 @@
       <c r="H11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -6126,14 +6131,14 @@
       <c r="H12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="32"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6154,14 +6159,14 @@
       <c r="H13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>6.25</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 4 06-02-23'!J13:K15)</f>
         <v>11.5</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="31">
         <f>I13/$I$22</f>
         <v>0.25252525252525254</v>
@@ -6172,7 +6177,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -6191,14 +6196,14 @@
       <c r="H14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="32"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -6217,14 +6222,14 @@
       <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="32"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6235,14 +6240,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48">
+      <c r="I16" s="51">
         <v>2.5</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 4 06-02-23'!J16:K18)</f>
         <v>5.5</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="31">
         <f>I16/$I$22</f>
         <v>0.10101010101010101</v>
@@ -6253,7 +6258,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -6266,14 +6271,14 @@
       <c r="H17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="32"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -6282,14 +6287,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="32"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -6300,14 +6305,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48">
+      <c r="I19" s="51">
         <v>1</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 4 06-02-23'!J19:K21)</f>
         <v>3</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="31">
         <f>I19/$I$22</f>
         <v>4.0404040404040407E-2</v>
@@ -6318,7 +6323,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -6329,14 +6334,14 @@
       <c r="H20" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="32"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -6345,9 +6350,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="32"/>
       <c r="M21" s="34"/>
     </row>
@@ -6359,15 +6364,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>24.75</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>65.7</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="31">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -6385,9 +6390,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="32"/>
       <c r="M23" s="34"/>
     </row>
@@ -6399,27 +6404,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="32"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -6428,6 +6420,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6457,18 +6462,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="16"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,7 +6514,7 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -6540,7 +6545,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -6562,7 +6567,7 @@
       <c r="M5" s="37"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -6578,7 +6583,7 @@
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -6607,7 +6612,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -6625,7 +6630,7 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -6641,7 +6646,7 @@
       <c r="M9" s="37"/>
     </row>
     <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -6668,7 +6673,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -6684,7 +6689,7 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -6700,7 +6705,7 @@
       <c r="M12" s="37"/>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6737,7 +6742,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -6761,7 +6766,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -6785,7 +6790,7 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6814,7 +6819,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -6832,7 +6837,7 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -6848,7 +6853,7 @@
       <c r="M18" s="37"/>
     </row>
     <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -6877,7 +6882,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -6897,7 +6902,7 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -6968,19 +6973,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -6989,6 +6981,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7019,18 +7024,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7071,7 +7076,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -7082,14 +7087,14 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>0.5</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 6 20-02-23 '!J4:K6)</f>
         <v>24.1</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>4.5454545454545456E-2</v>
@@ -7100,7 +7105,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7119,14 +7124,14 @@
       <c r="H5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="43"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -7135,14 +7140,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="43"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -7153,14 +7158,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>3</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 6 20-02-23 '!J7:K9)</f>
         <v>17.3</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f>I7/$I$22</f>
         <v>0.27272727272727271</v>
@@ -7171,7 +7176,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -7184,14 +7189,14 @@
         <v>111</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="43"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -7200,14 +7205,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="43"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -7218,12 +7223,12 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="51">
+      <c r="I10" s="51"/>
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 6 20-02-23 '!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f>I10/$I$22</f>
         <v>0</v>
@@ -7234,7 +7239,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -7243,14 +7248,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="43"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -7259,14 +7264,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="43"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -7283,14 +7288,14 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48">
+      <c r="I13" s="51">
         <v>5</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 6 20-02-23 '!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f>I13/$I$22</f>
         <v>0.45454545454545453</v>
@@ -7301,7 +7306,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -7316,14 +7321,14 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="43"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -7338,14 +7343,14 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="43"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -7356,12 +7361,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51">
+      <c r="I16" s="51"/>
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 6 20-02-23 '!J16:K18)</f>
         <v>13.5</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f>I16/$I$22</f>
         <v>0</v>
@@ -7372,7 +7377,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -7381,14 +7386,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="43"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -7397,14 +7402,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="43"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -7415,14 +7420,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48">
+      <c r="I19" s="51">
         <v>2.5</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 6 20-02-23 '!J19:K21)</f>
         <v>7</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f>I19/$I$22</f>
         <v>0.22727272727272727</v>
@@ -7433,7 +7438,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -7444,14 +7449,14 @@
         <v>120</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="43"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -7462,9 +7467,9 @@
         <v>121</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="43"/>
       <c r="M21" s="34"/>
     </row>
@@ -7476,15 +7481,15 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="57">
+      <c r="I22" s="60">
         <f>SUM(I4:I21)</f>
         <v>11</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>96.45</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="44">
         <f>SUM(L4:L21)</f>
         <v>1</v>
@@ -7502,9 +7507,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="39"/>
       <c r="M23" s="34"/>
     </row>
@@ -7516,27 +7521,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="39"/>
       <c r="M24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:K18"/>
@@ -7545,6 +7537,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7573,18 +7578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7623,7 +7628,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -7634,14 +7639,14 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="48">
+      <c r="I4" s="51">
         <v>2.25</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f>SUM(I4,'WK 7 27-02-23'!J4:K6)</f>
         <v>26.35</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="40">
         <f>I4/$I$22</f>
         <v>0.31034482758620691</v>
@@ -7652,7 +7657,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7667,14 +7672,14 @@
       <c r="H5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="40"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -7683,14 +7688,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -7703,14 +7708,14 @@
       <c r="H7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="51">
         <v>2</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f>SUM(I7,'WK 7 27-02-23'!J7:K9)</f>
         <v>19.3</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L22" si="0">I7/$I$22</f>
         <v>0.27586206896551724</v>
@@ -7721,7 +7726,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
@@ -7736,14 +7741,14 @@
       <c r="H8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="40"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -7754,14 +7759,14 @@
         <v>112</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="40"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -7772,12 +7777,12 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="51">
+      <c r="I10" s="51"/>
+      <c r="J10" s="54">
         <f>SUM(I10,'WK 7 27-02-23'!J10:K12)</f>
         <v>11.8</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7788,7 +7793,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -7797,14 +7802,14 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="40"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -7813,14 +7818,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="40"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -7831,12 +7836,12 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="51">
+      <c r="I13" s="51"/>
+      <c r="J13" s="54">
         <f>SUM(I13,'WK 7 27-02-23'!J13:K15)</f>
         <v>22.75</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7847,7 +7852,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
@@ -7856,14 +7861,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="40"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -7872,14 +7877,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="40"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -7890,12 +7895,12 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51">
+      <c r="I16" s="51"/>
+      <c r="J16" s="54">
         <f>SUM(I16,'WK 7 27-02-23'!J16:K18)</f>
         <v>13.5</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7906,7 +7911,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -7915,14 +7920,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="40"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -7931,14 +7936,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="40"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -7949,14 +7954,14 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="48">
+      <c r="I19" s="51">
         <v>3</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="54">
         <f>SUM(I19,'WK 7 27-02-23'!J19:K21)</f>
         <v>10</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>0.41379310344827586</v>
@@ -7967,7 +7972,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
@@ -7980,14 +7985,14 @@
       <c r="H20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="40"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
@@ -7996,9 +8001,9 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="40"/>
       <c r="M21" s="34"/>
     </row>
@@ -8014,7 +8019,7 @@
         <f>SUM(I4:I21)</f>
         <v>7.25</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="60">
         <f>SUM(J4:K21)</f>
         <v>103.7</v>
       </c>
@@ -8058,6 +8063,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="I4:I6"/>
@@ -8065,19 +8083,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="134">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -178,7 +178,13 @@
     <t>Communication with Course lead</t>
   </si>
   <si>
+    <t>Review meeting minutes in preparation for sub team meeting tomorrow</t>
+  </si>
+  <si>
     <t>Sub team meeting</t>
+  </si>
+  <si>
+    <t>Made changes to HTML pages</t>
   </si>
   <si>
     <t>Team meeting with group</t>
@@ -1236,7 +1242,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="59">
         <v>13</v>
@@ -1246,27 +1252,27 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" s="61">
         <v>44956</v>
@@ -1276,7 +1282,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" s="59">
         <v>1</v>
@@ -3553,19 +3559,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" s="21">
         <v>0.5</v>
@@ -3588,19 +3594,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -3615,19 +3621,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -3703,19 +3709,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="21">
         <v>0.2</v>
@@ -3738,19 +3744,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -3765,19 +3771,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4143,19 +4149,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4178,19 +4184,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4205,19 +4211,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4259,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -4297,19 +4303,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="21">
         <v>0.75</v>
@@ -4332,19 +4338,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4359,19 +4365,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4416,7 +4422,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="27"/>
@@ -4741,19 +4747,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4776,19 +4782,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4803,19 +4809,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4833,12 +4839,12 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I7" s="21">
         <v>5</v>
@@ -4861,12 +4867,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -4926,19 +4932,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4999,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5329,19 +5335,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I4" s="21">
         <v>4.45</v>
@@ -5364,19 +5370,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -5391,19 +5397,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -5421,10 +5427,10 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -5449,14 +5455,14 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -5491,19 +5497,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I10" s="21">
         <v>4.3</v>
@@ -5526,19 +5532,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -5553,19 +5559,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -5586,7 +5592,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
@@ -5613,15 +5619,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -5636,15 +5642,15 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -5688,7 +5694,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5750,7 +5756,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -5959,19 +5965,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I4" s="21">
         <v>4.75</v>
@@ -5994,17 +6000,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6019,19 +6025,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -6073,13 +6079,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -6113,19 +6119,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" s="21">
         <v>6.25</v>
@@ -6148,19 +6154,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -6175,19 +6181,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -6204,19 +6210,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6239,19 +6245,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6266,19 +6272,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6320,13 +6326,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -6389,7 +6395,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -6691,11 +6697,15 @@
       <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -6733,7 +6743,9 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <v>6</v>
+      </c>
       <c r="J10" s="22">
         <f>SUM(I10,'WK 5 13-02-23'!J10:K12)</f>
       </c>
@@ -6752,7 +6764,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6790,17 +6802,17 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6827,13 +6839,13 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6852,13 +6864,13 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6960,10 +6972,10 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="PROJECT DETAILS"/>
@@ -6508,7 +6508,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7660,7 +7660,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="PROJECT DETAILS"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="135">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Researched how to implement bcrypt in a python flask application</t>
+  </si>
+  <si>
+    <t>Team meeting, meeting minutes</t>
   </si>
   <si>
     <t>nil.</t>
@@ -1242,7 +1245,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="59">
         <v>13</v>
@@ -1252,27 +1255,27 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="61">
         <v>44956</v>
@@ -1282,7 +1285,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="59">
         <v>1</v>
@@ -3559,19 +3562,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="21">
         <v>0.5</v>
@@ -3594,19 +3597,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -3621,19 +3624,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -3709,19 +3712,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="21">
         <v>0.2</v>
@@ -3744,19 +3747,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -3771,19 +3774,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4149,19 +4152,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4184,19 +4187,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4211,19 +4214,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4265,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -4303,19 +4306,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="21">
         <v>0.75</v>
@@ -4338,19 +4341,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4365,19 +4368,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4422,7 +4425,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="27"/>
@@ -4747,19 +4750,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4782,19 +4785,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4809,19 +4812,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4839,12 +4842,12 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I7" s="21">
         <v>5</v>
@@ -4867,12 +4870,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -4932,19 +4935,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4978,7 +4981,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5005,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5024,7 +5027,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -5335,19 +5338,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="21">
         <v>4.45</v>
@@ -5370,19 +5373,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -5397,19 +5400,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -5427,10 +5430,10 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -5455,14 +5458,14 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -5497,19 +5500,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" s="21">
         <v>4.3</v>
@@ -5532,19 +5535,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -5559,19 +5562,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -5588,15 +5591,15 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="21">
         <v>4</v>
@@ -5619,15 +5622,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -5642,15 +5645,15 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -5694,7 +5697,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5756,7 +5759,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -5965,19 +5968,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="21">
         <v>4.75</v>
@@ -6000,17 +6003,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6025,19 +6028,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -6079,13 +6082,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -6119,19 +6122,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="21">
         <v>6.25</v>
@@ -6154,19 +6157,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -6181,19 +6184,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -6210,19 +6213,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6245,19 +6248,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6272,19 +6275,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6326,13 +6329,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -6395,7 +6398,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -6601,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -6628,15 +6631,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6698,13 +6701,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -6764,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6802,17 +6805,17 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6839,13 +6842,13 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6860,17 +6863,17 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6972,10 +6975,10 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -7090,7 +7093,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7341,7 +7344,9 @@
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -7378,13 +7383,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -7409,13 +7414,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -7432,13 +7437,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -7544,7 +7549,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="27"/>
@@ -7563,7 +7568,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="30"/>
@@ -7660,7 +7665,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="PROJECT DETAILS"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="140">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -103,6 +103,18 @@
     <t>Team meeting</t>
   </si>
   <si>
+    <t>Checking in with team virtually regarding next steps</t>
+  </si>
+  <si>
+    <t>Team meeting with client</t>
+  </si>
+  <si>
+    <t>Discussion with team regarding client's comments</t>
+  </si>
+  <si>
+    <t>Unable to attend classes due to illness</t>
+  </si>
+  <si>
     <t>Preparing meeting minutes, updating management spreadsheets emails to team Started the MID term report.  Some coaching of JC regarding project management, following standing in while away!</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
   </si>
   <si>
     <t>Team meeting, meeting minutes</t>
+  </si>
+  <si>
+    <t>Discussed page designs with Daniel</t>
   </si>
   <si>
     <t>nil.</t>
@@ -1245,7 +1260,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="58" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="59">
         <v>13</v>
@@ -1255,27 +1270,27 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="58" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="58" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="58" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D7" s="61">
         <v>44956</v>
@@ -1285,7 +1300,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="58" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D8" s="59">
         <v>1</v>
@@ -1303,7 +1318,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1533,7 +1548,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="22">
         <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
@@ -1552,11 +1567,17 @@
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
       <c r="K11" s="29"/>
@@ -1569,7 +1590,9 @@
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -3562,19 +3585,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I4" s="21">
         <v>0.5</v>
@@ -3597,19 +3620,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -3624,19 +3647,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -3712,19 +3735,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I10" s="21">
         <v>0.2</v>
@@ -3747,19 +3770,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -3774,19 +3797,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4152,19 +4175,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4187,19 +4210,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4214,19 +4237,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4268,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -4306,19 +4329,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I10" s="21">
         <v>0.75</v>
@@ -4341,19 +4364,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4368,19 +4391,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4425,7 +4448,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="27"/>
@@ -4750,19 +4773,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4785,19 +4808,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4812,19 +4835,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4842,12 +4865,12 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I7" s="21">
         <v>5</v>
@@ -4870,12 +4893,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -4935,19 +4958,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4981,7 +5004,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5008,7 +5031,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5027,7 +5050,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -5338,19 +5361,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I4" s="21">
         <v>4.45</v>
@@ -5373,19 +5396,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -5400,19 +5423,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -5430,10 +5453,10 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -5458,14 +5481,14 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -5500,19 +5523,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I10" s="21">
         <v>4.3</v>
@@ -5535,19 +5558,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -5562,19 +5585,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -5591,15 +5614,15 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I13" s="21">
         <v>4</v>
@@ -5622,15 +5645,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -5645,15 +5668,15 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -5697,7 +5720,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5759,7 +5782,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -5968,19 +5991,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I4" s="21">
         <v>4.75</v>
@@ -6003,17 +6026,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6028,19 +6051,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -6082,13 +6105,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -6122,19 +6145,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I10" s="21">
         <v>6.25</v>
@@ -6157,19 +6180,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -6184,19 +6207,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -6213,19 +6236,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6248,19 +6271,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6275,19 +6298,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6329,13 +6352,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -6398,7 +6421,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -6604,7 +6627,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -6631,15 +6654,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6701,13 +6724,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -6767,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6805,17 +6828,17 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6842,13 +6865,13 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6863,17 +6886,17 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6975,10 +6998,10 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -7093,7 +7116,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7211,19 +7234,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -7282,12 +7305,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -7345,9 +7368,11 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -7383,13 +7408,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -7414,13 +7439,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -7437,13 +7462,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -7549,7 +7574,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="27"/>
@@ -7568,7 +7593,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="30"/>
@@ -7783,15 +7808,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -7829,7 +7854,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I7" s="21">
         <v>2</v>
@@ -7857,10 +7882,10 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -7878,7 +7903,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="30"/>
@@ -8101,10 +8126,10 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="PROJECT DETAILS"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="147">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Checking in with team virtually regarding next steps</t>
   </si>
   <si>
+    <t>Working on STARL example and uploading evidence</t>
+  </si>
+  <si>
     <t>Team meeting with client</t>
   </si>
   <si>
@@ -136,6 +139,21 @@
     <t>Lack of knowledge on flask implementation</t>
   </si>
   <si>
+    <t>Team meeting, taking minutes for meeting</t>
+  </si>
+  <si>
+    <t>Gathering evidence for STARL example draft</t>
+  </si>
+  <si>
+    <t>Editing and formatting STARL draft for Friday</t>
+  </si>
+  <si>
+    <t>Submitting STARL draft</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>made the database done, not done and risks to the mid piont report</t>
   </si>
   <si>
@@ -158,6 +176,9 @@
   </si>
   <si>
     <t>Discussed page designs with Daniel</t>
+  </si>
+  <si>
+    <t>Sub team meeting, implementation of page designs</t>
   </si>
   <si>
     <t>nil.</t>
@@ -739,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -872,6 +893,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1235,74 +1259,74 @@
     <col min="1" max="1" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="38" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="55" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="56" width="37.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="57"/>
+      <c r="D1" s="58"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="27">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="59">
+      <c r="C4" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="60">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>135</v>
+      <c r="C5" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>137</v>
+      <c r="C6" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="61">
+      <c r="C7" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="62">
         <v>44956</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="59">
+      <c r="C8" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="60">
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1342,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1571,12 +1595,14 @@
         <v>25</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -1591,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -3507,7 +3533,7 @@
     <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="55" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -3525,7 +3551,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="53"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -3537,10 +3563,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -3573,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="53"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
@@ -3585,19 +3611,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I4" s="21">
         <v>0.5</v>
@@ -3620,19 +3646,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -3647,19 +3673,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -3735,19 +3761,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" s="21">
         <v>0.2</v>
@@ -3770,19 +3796,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -3797,19 +3823,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4029,7 +4055,7 @@
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -4044,7 +4070,7 @@
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="57"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="25"/>
     </row>
   </sheetData>
@@ -4097,7 +4123,7 @@
     <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="55" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -4115,7 +4141,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="53"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -4127,10 +4153,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -4163,7 +4189,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="53"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
@@ -4175,19 +4201,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4210,19 +4236,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4237,19 +4263,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4291,7 +4317,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -4329,19 +4355,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" s="21">
         <v>0.75</v>
@@ -4364,19 +4390,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -4391,19 +4417,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -4448,7 +4474,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="27"/>
@@ -4627,7 +4653,7 @@
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -4642,7 +4668,7 @@
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="57"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="25"/>
     </row>
   </sheetData>
@@ -4695,7 +4721,7 @@
     <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="55" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -4713,7 +4739,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="53"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -4725,10 +4751,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -4761,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="53"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -4772,20 +4798,20 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>111</v>
+      <c r="D4" s="57" t="s">
+        <v>118</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4808,19 +4834,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -4835,19 +4861,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -4865,12 +4891,12 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I7" s="21">
         <v>5</v>
@@ -4893,12 +4919,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -4958,19 +4984,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -5004,7 +5030,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5031,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5050,7 +5076,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -5215,7 +5241,7 @@
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -5230,7 +5256,7 @@
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="57"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="25"/>
     </row>
   </sheetData>
@@ -5283,7 +5309,7 @@
     <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="55" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5301,7 +5327,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="53"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -5313,10 +5339,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -5349,7 +5375,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="53"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
@@ -5361,19 +5387,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I4" s="21">
         <v>4.45</v>
@@ -5396,19 +5422,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -5423,19 +5449,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -5453,10 +5479,10 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -5481,14 +5507,14 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -5523,19 +5549,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I10" s="21">
         <v>4.3</v>
@@ -5558,19 +5584,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -5585,19 +5611,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -5614,15 +5640,15 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I13" s="21">
         <v>4</v>
@@ -5645,15 +5671,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -5668,15 +5694,15 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -5720,7 +5746,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5782,7 +5808,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -5913,7 +5939,7 @@
     <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="55" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5931,7 +5957,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="53"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -5943,10 +5969,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
@@ -5979,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="53"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
@@ -5991,19 +6017,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I4" s="21">
         <v>4.75</v>
@@ -6026,17 +6052,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6051,19 +6077,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -6105,13 +6131,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -6145,19 +6171,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I10" s="21">
         <v>6.25</v>
@@ -6180,19 +6206,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -6207,19 +6233,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -6236,19 +6262,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6271,19 +6297,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6298,19 +6324,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6351,14 +6377,14 @@
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>89</v>
+      <c r="D17" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -6421,7 +6447,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -6549,7 +6575,7 @@
     <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="48" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -6579,9 +6605,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="36"/>
       <c r="M2" s="6"/>
     </row>
@@ -6627,7 +6653,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -6654,15 +6680,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -6724,13 +6750,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -6790,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6828,17 +6854,17 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6865,13 +6891,13 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -6886,17 +6912,17 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
@@ -6998,10 +7024,10 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -7044,7 +7070,7 @@
         <f>SUM(J4:K21)</f>
       </c>
       <c r="K22" s="35"/>
-      <c r="L22" s="47">
+      <c r="L22" s="48">
         <f>I22/$I$22*100</f>
       </c>
       <c r="M22" s="25">
@@ -7063,7 +7089,7 @@
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="47"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -7078,7 +7104,7 @@
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="47"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="25"/>
     </row>
   </sheetData>
@@ -7116,7 +7142,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7161,9 +7187,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
     </row>
@@ -7234,19 +7260,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -7305,12 +7331,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="27"/>
@@ -7368,12 +7394,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="27"/>
@@ -7408,18 +7436,18 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="22">
         <f>SUM(I13,'WK 6 20-02-23 '!J13:K15)</f>
@@ -7439,13 +7467,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -7462,13 +7490,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -7574,7 +7602,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="27"/>
@@ -7593,7 +7621,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="30"/>
@@ -7702,9 +7730,9 @@
     <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="48" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="51" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -7808,15 +7836,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -7854,7 +7882,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="21">
         <v>2</v>
@@ -7882,10 +7910,10 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -7903,7 +7931,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="30"/>
@@ -7925,7 +7953,9 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <v>4.5</v>
+      </c>
       <c r="J10" s="22">
         <f>SUM(I10,'WK 7 27-02-23'!J10:K12)</f>
       </c>
@@ -7943,11 +7973,19 @@
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
       <c r="K11" s="29"/>
@@ -7963,8 +8001,12 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
@@ -8126,10 +8168,10 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -8163,13 +8205,13 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="45">
+      <c r="I22" s="46">
         <f>SUM(I4:I21)</f>
       </c>
       <c r="J22" s="35">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
@@ -8186,9 +8228,9 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
@@ -8201,9 +8243,9 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="146">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Submitting STARL draft</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>made the database done, not done and risks to the mid piont report</t>
@@ -499,12 +496,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFffffff"/>
       <name val="Calibri"/>
@@ -513,6 +504,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FFffffff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -760,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -777,40 +774,40 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -834,9 +831,6 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,16 +852,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -888,23 +876,17 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -916,9 +898,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1256,77 +1235,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="56" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="34" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="50" width="37.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="58"/>
+      <c r="D1" s="52"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="58"/>
+      <c r="D2" s="52"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="58"/>
+      <c r="D3" s="52"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="27">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="60">
+      <c r="C4" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="54">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>141</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>143</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="62">
+      <c r="C7" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="56">
         <v>44956</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="60">
+      <c r="C8" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="54">
         <v>1</v>
       </c>
     </row>
@@ -1346,19 +1325,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1451,13 +1430,13 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
@@ -1472,15 +1451,15 @@
         <v>23</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -1489,11 +1468,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -1518,13 +1497,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -1535,15 +1514,15 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1552,11 +1531,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -1581,13 +1560,13 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
@@ -1604,15 +1583,15 @@
       <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -1623,11 +1602,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -1652,13 +1631,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -1667,15 +1646,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -1684,11 +1663,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -1713,13 +1692,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -1728,15 +1707,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -1745,11 +1724,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -1774,13 +1753,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -1789,15 +1768,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -1806,64 +1785,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1904,19 +1883,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2009,13 +1988,13 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
@@ -2026,15 +2005,15 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -2043,11 +2022,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -2072,13 +2051,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -2087,15 +2066,15 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -2104,11 +2083,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -2133,13 +2112,13 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
@@ -2148,15 +2127,15 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -2165,11 +2144,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -2194,13 +2173,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -2209,15 +2188,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -2226,11 +2205,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -2255,13 +2234,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -2270,15 +2249,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -2287,11 +2266,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -2316,13 +2295,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -2331,15 +2310,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -2348,64 +2327,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2446,19 +2425,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2549,13 +2528,13 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
@@ -2564,15 +2543,15 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -2581,11 +2560,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -2610,13 +2589,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -2625,15 +2604,15 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -2642,11 +2621,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -2671,13 +2650,13 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
@@ -2686,15 +2665,15 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -2703,11 +2682,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -2732,13 +2711,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -2747,15 +2726,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -2764,11 +2743,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -2793,13 +2772,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -2808,15 +2787,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -2825,11 +2804,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -2854,13 +2833,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -2869,15 +2848,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -2886,64 +2865,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2984,19 +2963,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -3087,13 +3066,13 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
@@ -3102,15 +3081,15 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -3119,11 +3098,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -3148,13 +3127,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -3163,15 +3142,15 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -3180,11 +3159,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -3209,13 +3188,13 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
@@ -3224,15 +3203,15 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3241,11 +3220,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -3270,13 +3249,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -3285,15 +3264,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -3302,11 +3281,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -3331,13 +3310,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -3346,15 +3325,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -3363,11 +3342,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -3392,13 +3371,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -3407,15 +3386,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -3424,64 +3403,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3522,19 +3501,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -3551,7 +3530,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="54"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -3563,10 +3542,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -3599,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="54"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
@@ -3611,19 +3590,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="21">
         <v>0.5</v>
@@ -3635,63 +3614,63 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -3714,13 +3693,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -3729,15 +3708,15 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -3746,11 +3725,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -3761,19 +3740,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="21">
         <v>0.2</v>
@@ -3785,63 +3764,63 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -3864,13 +3843,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -3879,15 +3858,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -3896,11 +3875,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -3923,13 +3902,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -3938,15 +3917,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -3955,11 +3934,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -3982,13 +3961,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -3997,15 +3976,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -4014,64 +3993,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4112,19 +4091,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -4141,7 +4120,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="54"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -4153,10 +4132,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -4189,7 +4168,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="54"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
@@ -4201,19 +4180,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4225,63 +4204,63 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -4306,32 +4285,32 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -4340,11 +4319,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -4355,19 +4334,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="21">
         <v>0.75</v>
@@ -4379,63 +4358,63 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -4460,13 +4439,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -4474,18 +4453,18 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -4494,11 +4473,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -4521,13 +4500,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -4536,15 +4515,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -4553,11 +4532,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -4580,13 +4559,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -4595,15 +4574,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -4612,64 +4591,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4710,19 +4689,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -4739,7 +4718,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="54"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -4751,10 +4730,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -4787,7 +4766,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="54"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -4798,20 +4777,20 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="I4" s="21">
         <v>5.45</v>
@@ -4823,63 +4802,63 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -4891,12 +4870,12 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="21">
         <v>5</v>
@@ -4908,34 +4887,34 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -4944,11 +4923,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -4973,40 +4952,40 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -5015,11 +4994,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -5030,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5046,47 +5025,47 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -5109,13 +5088,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -5124,15 +5103,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -5141,11 +5120,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -5168,13 +5147,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -5183,15 +5162,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -5200,64 +5179,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5298,19 +5277,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="38" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="35" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -5327,7 +5306,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="54"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -5339,10 +5318,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
@@ -5375,11 +5354,11 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="54"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
-      <c r="A4" s="33"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
@@ -5387,19 +5366,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="I4" s="21">
         <v>4.45</v>
@@ -5411,66 +5390,66 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
-      <c r="A5" s="33"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
-      <c r="A6" s="33"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
-      <c r="A7" s="33"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
@@ -5479,10 +5458,10 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -5496,36 +5475,36 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
-      <c r="A8" s="33"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
-      <c r="A9" s="33"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -5534,14 +5513,14 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
-      <c r="A10" s="33"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
@@ -5549,19 +5528,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>110</v>
       </c>
       <c r="I10" s="21">
         <v>4.3</v>
@@ -5573,66 +5552,66 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
-      <c r="A11" s="33"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
-      <c r="A12" s="33"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
-      <c r="A13" s="33"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
@@ -5640,15 +5619,15 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="21">
         <v>4</v>
@@ -5660,58 +5639,58 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
-      <c r="A14" s="33"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+        <v>113</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
-      <c r="A15" s="33"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
-      <c r="A16" s="33"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
@@ -5733,32 +5712,32 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -5767,14 +5746,14 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
-      <c r="A19" s="33"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
@@ -5796,32 +5775,32 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
-      <c r="A20" s="33"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
-      <c r="A21" s="33"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -5830,64 +5809,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5928,19 +5907,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="56" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.75">
@@ -5957,7 +5936,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="54"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -5969,10 +5948,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
@@ -6005,7 +5984,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="54"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
@@ -6017,19 +5996,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="21">
         <v>4.75</v>
@@ -6041,61 +6020,61 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="90">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5">
       <c r="A7" s="1"/>
@@ -6120,34 +6099,34 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -6156,11 +6135,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
@@ -6171,19 +6150,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="21">
         <v>6.25</v>
@@ -6195,63 +6174,63 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="52.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="1"/>
@@ -6262,19 +6241,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6286,63 +6265,63 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="50.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="35.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1"/>
@@ -6367,34 +6346,34 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="62.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>96</v>
+      <c r="D17" s="49" t="s">
+        <v>95</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -6403,11 +6382,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="1"/>
@@ -6432,13 +6411,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -6447,17 +6426,17 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -6466,64 +6445,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6564,19 +6543,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="44" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
@@ -6593,7 +6572,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="36"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -6605,10 +6584,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="36"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
@@ -6641,7 +6620,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="36"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -6653,7 +6632,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -6669,36 +6648,36 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="102.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -6707,11 +6686,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
@@ -6736,13 +6715,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -6750,24 +6729,24 @@
         <v>24</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -6776,11 +6755,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
@@ -6805,32 +6784,32 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -6839,11 +6818,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
@@ -6854,17 +6833,17 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="I13" s="21">
         <v>6.25</v>
@@ -6876,13 +6855,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="61.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -6891,44 +6870,44 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
@@ -6951,13 +6930,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -6966,15 +6945,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -6983,11 +6962,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
@@ -7012,34 +6991,34 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -7048,64 +7027,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="48">
+      <c r="K22" s="33"/>
+      <c r="L22" s="40">
         <f>I22/$I$22*100</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7146,22 +7125,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7187,13 +7166,13 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -7226,7 +7205,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
         <v>10</v>
@@ -7249,40 +7228,40 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
+      <c r="M5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -7291,13 +7270,13 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
+      <c r="M6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
@@ -7320,34 +7299,34 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="47.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
+      <c r="M8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -7356,11 +7335,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -7383,36 +7362,36 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
@@ -7421,11 +7400,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -7436,13 +7415,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -7456,55 +7435,55 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="63">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -7527,13 +7506,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -7542,15 +7521,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -7559,11 +7538,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -7588,13 +7567,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -7602,18 +7581,18 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -7621,67 +7600,67 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="32">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="25">
+      <c r="K22" s="33"/>
+      <c r="L22" s="6">
         <f>SUM(L4:L21)</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7722,19 +7701,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="38" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="51" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="35" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="35" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="44" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="45" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="46" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -7763,9 +7742,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="43"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="44"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
     </row>
@@ -7825,13 +7804,13 @@
       <c r="L4" s="24">
         <f>I4/$I$22</f>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="6">
         <f>J4/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
@@ -7846,15 +7825,15 @@
       <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -7863,11 +7842,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42">
       <c r="A7" s="1"/>
@@ -7894,13 +7873,13 @@
       <c r="L7" s="24">
         <f>I7/$I$22</f>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="6">
         <f>J7/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
@@ -7915,15 +7894,15 @@
       <c r="H8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -7934,11 +7913,11 @@
         <v>36</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42">
       <c r="A10" s="1"/>
@@ -7963,13 +7942,13 @@
       <c r="L10" s="24">
         <f>I10/$I$22</f>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="6">
         <f>J10/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="42">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
@@ -7986,32 +7965,30 @@
       <c r="H11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="45" t="s">
-        <v>41</v>
-      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42">
       <c r="A13" s="1"/>
@@ -8034,13 +8011,13 @@
       <c r="L13" s="24">
         <f>I13/$I$22</f>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="6">
         <f>J13/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
@@ -8049,15 +8026,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -8066,11 +8043,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1"/>
@@ -8093,13 +8070,13 @@
       <c r="L16" s="24">
         <f>I16/$I$22</f>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="6">
         <f>J16/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
@@ -8108,15 +8085,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
@@ -8125,11 +8102,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="40.5">
       <c r="A19" s="1"/>
@@ -8154,13 +8131,13 @@
       <c r="L19" s="24">
         <f>I19/$I$22</f>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="6">
         <f>J19/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
@@ -8168,20 +8145,20 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -8190,64 +8167,64 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="46">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="42">
         <f>SUM(I4:I21)</f>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <f>SUM(J4:K21)</f>
       </c>
-      <c r="K22" s="47"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="24">
         <f>I22/$I$22</f>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="6">
         <f>J22/$J$22</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181C02E-2ED7-4675-BFB9-0EBA3198EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{8181C02E-2ED7-4675-BFB9-0EBA3198EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9B79B6-B631-4557-887F-EE2719B827C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,13 @@
     <sheet name="WK 7 27-02-23" sheetId="8" r:id="rId8"/>
     <sheet name="WK 8 06-03-23" sheetId="9" r:id="rId9"/>
     <sheet name="WK 9 13-03-23" sheetId="10" r:id="rId10"/>
-    <sheet name="WK 9 20-03-23" sheetId="11" r:id="rId11"/>
-    <sheet name="WK 9 27-03-23" sheetId="12" r:id="rId12"/>
-    <sheet name="WK 9 03-04-23" sheetId="13" r:id="rId13"/>
+    <sheet name="WK 10 20-03-23" sheetId="11" r:id="rId11"/>
+    <sheet name="WK 11 27-03-23" sheetId="12" r:id="rId12"/>
+    <sheet name="WK 12 03-04-23" sheetId="13" r:id="rId13"/>
+    <sheet name="WK 13 10-04-23" sheetId="14" r:id="rId14"/>
+    <sheet name="WK 14 17-04-23" sheetId="15" r:id="rId15"/>
+    <sheet name="WK15 24-04-23" sheetId="16" r:id="rId16"/>
+    <sheet name="WK16 01-05-23" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="158">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -501,6 +505,24 @@
   </si>
   <si>
     <t xml:space="preserve">Finished the bokking feature prototype </t>
+  </si>
+  <si>
+    <t>Team meeting with the team and updating the tables</t>
+  </si>
+  <si>
+    <t>an email with the module lead and the client</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>emails with the client and the press office</t>
+  </si>
+  <si>
+    <t>Meeting with the team.  Emails to the press office and the module lead</t>
+  </si>
+  <si>
+    <t>spreadsheet updates.  Peer review for group 49 agenda for monda meeting.  And emails to the team.</t>
   </si>
 </sst>
 </file>
@@ -906,13 +928,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,13 +970,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,26 +1291,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="3"/>
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C2" s="3"/>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="3"/>
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="34" t="s">
         <v>139</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="34" t="s">
         <v>140</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="34" t="s">
         <v>142</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="34" t="s">
         <v>144</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="34" t="s">
         <v>145</v>
       </c>
@@ -1340,38 +1362,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1385,7 +1407,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1439,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1470,7 @@
         <v>0.25654664484451717</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -1470,7 +1492,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -1486,7 +1508,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>0.16612111292962356</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -1533,7 +1555,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -1549,7 +1571,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>0.20703764320785598</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -1602,7 +1624,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -1620,7 +1642,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1671,7 @@
         <v>0.17798690671031095</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -1665,7 +1687,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -1681,7 +1703,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1732,7 @@
         <v>0.11047463175122749</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -1726,7 +1748,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -1742,7 +1764,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -1771,7 +1793,7 @@
         <v>8.1833060556464804E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -1787,7 +1809,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -1803,7 +1825,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1811,15 +1833,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>9</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>122.2</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -1829,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1837,13 +1859,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1851,9 +1873,2189 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="46">
+        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
+        <v>28.85</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="16">
+        <f>I4/$I$22</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="M4" s="2">
+        <f>J4/$J$22</f>
+        <v>0.22243639167309179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="42"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="42"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
+        <v>19.3</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="16">
+        <f>I7/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>J7/$J$22</f>
+        <v>0.14880493446414805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="42"/>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="42"/>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="43">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
+        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
+        <v>22.3</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="16">
+        <f>I10/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>J10/$J$22</f>
+        <v>0.17193523515805709</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="42"/>
+      <c r="C11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="42"/>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
+        <v>21.75</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="16">
+        <f>I13/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>J13/$J$22</f>
+        <v>0.16769468003084043</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="42"/>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="42"/>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="43">
+        <v>14</v>
+      </c>
+      <c r="J16" s="46">
+        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
+        <v>27.5</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="16">
+        <f>I16/$I$22</f>
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="M16" s="2">
+        <f>J16/$J$22</f>
+        <v>0.21202775636083271</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="42"/>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="42"/>
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="16">
+        <f>I19/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f>J19/$J$22</f>
+        <v>7.7101002313030076E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="42"/>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="38">
+        <f>SUM(I4:I21)</f>
+        <v>16.5</v>
+      </c>
+      <c r="J22" s="38">
+        <f>SUM(J4:K21)</f>
+        <v>129.69999999999999</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="16">
+        <f>I22/$I$22</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <f>J22/$J$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="46">
+        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
+        <v>28.85</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="16">
+        <f>I4/$I$22</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <f>J4/$J$22</f>
+        <v>0.24935177182368196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="42"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="42"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
+        <v>19.3</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="16">
+        <f>I7/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>J7/$J$22</f>
+        <v>0.16681071737251513</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="42"/>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="42"/>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="43">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
+        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
+        <v>22.3</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="16">
+        <f>I10/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>J10/$J$22</f>
+        <v>0.19273984442523767</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="42"/>
+      <c r="C11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="42"/>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
+        <v>21.75</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="16">
+        <f>I13/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>J13/$J$22</f>
+        <v>0.18798617113223853</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="42"/>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="42"/>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="43">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46">
+        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
+        <v>13.5</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="16">
+        <f>I16/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <f>J16/$J$22</f>
+        <v>0.11668107173725151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="42"/>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="42"/>
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="16">
+        <f>I19/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f>J19/$J$22</f>
+        <v>8.6430423509075191E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="42"/>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="38">
+        <f>SUM(I4:I21)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J22" s="38">
+        <f>SUM(J4:K21)</f>
+        <v>115.7</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="16">
+        <f>I22/$I$22</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <f>J22/$J$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="46">
+        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
+        <v>26.85</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="16">
+        <f>I4/$I$22</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <f>J4/$J$22</f>
+        <v>0.20082273747195217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="42"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="42"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
+        <v>19.3</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="16">
+        <f>I7/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>J7/$J$22</f>
+        <v>0.14435302916978313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="42"/>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="42"/>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="43">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
+        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
+        <v>22.3</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="16">
+        <f>I10/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>J10/$J$22</f>
+        <v>0.16679132385938672</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="42"/>
+      <c r="C11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="42"/>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
+        <v>21.75</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="16">
+        <f>I13/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>J13/$J$22</f>
+        <v>0.16267763649962605</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="42"/>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="42"/>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="43">
+        <v>20</v>
+      </c>
+      <c r="J16" s="46">
+        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
+        <v>33.5</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="16">
+        <f>I16/$I$22</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="M16" s="2">
+        <f>J16/$J$22</f>
+        <v>0.2505609573672401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="42"/>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="42"/>
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="16">
+        <f>I19/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f>J19/$J$22</f>
+        <v>7.4794315632011971E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="42"/>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="38">
+        <f>SUM(I4:I21)</f>
+        <v>20.5</v>
+      </c>
+      <c r="J22" s="38">
+        <f>SUM(J4:K21)</f>
+        <v>133.69999999999999</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="16">
+        <f>I22/$I$22</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <f>J22/$J$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63519CE-3366-43DA-BB5D-21080736719F}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:M24"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="43">
+        <v>0</v>
+      </c>
+      <c r="J4" s="46">
+        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
+        <v>26.35</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="16">
+        <f>I4/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f>J4/$J$22</f>
+        <v>0.19782282282282285</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="42"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="42"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
+        <v>19.3</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="16">
+        <f>I7/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>J7/$J$22</f>
+        <v>0.1448948948948949</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="42"/>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="42"/>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="43">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
+        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
+        <v>22.3</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="16">
+        <f>I10/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>J10/$J$22</f>
+        <v>0.16741741741741745</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="42"/>
+      <c r="C11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="42"/>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
+        <v>21.75</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="16">
+        <f>I13/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>J13/$J$22</f>
+        <v>0.16328828828828831</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="42"/>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="42"/>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="43">
+        <v>20</v>
+      </c>
+      <c r="J16" s="46">
+        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
+        <v>33.5</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="16">
+        <f>I16/$I$22</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <f>J16/$J$22</f>
+        <v>0.25150150150150152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="42"/>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="42"/>
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="16">
+        <f>I19/$I$22</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f>J19/$J$22</f>
+        <v>7.5075075075075076E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="42"/>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="38">
+        <f>SUM(I4:I21)</f>
+        <v>20</v>
+      </c>
+      <c r="J22" s="38">
+        <f>SUM(J4:K21)</f>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="16">
+        <f>I22/$I$22</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <f>J22/$J$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -1885,47 +4087,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410A702-B0B8-47EF-B5EA-9CF19F1F26DA}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1939,7 +4141,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1971,56 +4173,56 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="43">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="46">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>28.85</v>
+        <v>29.35</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="16">
         <f>I4/$I$22</f>
-        <v>0.15151515151515152</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="M4" s="2">
         <f>J4/$J$22</f>
-        <v>0.22243639167309179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.21549192364170341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="I5" s="44"/>
       <c r="J5" s="48"/>
       <c r="K5" s="49"/>
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -2036,7 +4238,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -2062,10 +4264,10 @@
       </c>
       <c r="M7" s="2">
         <f>J7/$J$22</f>
-        <v>0.14880493446414805</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.14170337738619679</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -2081,7 +4283,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -2097,7 +4299,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -2123,10 +4325,10 @@
       </c>
       <c r="M10" s="2">
         <f>J10/$J$22</f>
-        <v>0.17193523515805709</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.16372980910425847</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -2142,7 +4344,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -2158,7 +4360,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -2184,10 +4386,10 @@
       </c>
       <c r="M13" s="2">
         <f>J13/$J$22</f>
-        <v>0.16769468003084043</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.15969162995594716</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -2203,7 +4405,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -2219,7 +4421,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -2232,23 +4434,23 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="43">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J16" s="46">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>27.5</v>
+        <v>33.5</v>
       </c>
       <c r="K16" s="47"/>
       <c r="L16" s="16">
         <f>I16/$I$22</f>
-        <v>0.84848484848484851</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="M16" s="2">
         <f>J16/$J$22</f>
-        <v>0.21202775636083271</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.24596182085168872</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -2256,19 +4458,21 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="I17" s="44"/>
       <c r="J17" s="48"/>
       <c r="K17" s="49"/>
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -2284,7 +4488,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -2310,10 +4514,10 @@
       </c>
       <c r="M19" s="2">
         <f>J19/$J$22</f>
-        <v>7.7101002313030076E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.3421439060205582E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -2329,7 +4533,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -2345,7 +4549,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2353,15 +4557,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
-        <v>16.5</v>
-      </c>
-      <c r="J22" s="52">
+        <v>23</v>
+      </c>
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
-        <v>129.69999999999999</v>
-      </c>
-      <c r="K22" s="54"/>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -2371,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2379,13 +4583,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2393,9 +4597,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -2427,45 +4631,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3B4C08-E3A7-4672-A21A-0B76AA867D0B}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2479,7 +4685,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2511,7 +4717,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -2533,14 +4739,14 @@
       <c r="K4" s="47"/>
       <c r="L4" s="16">
         <f>I4/$I$22</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M4" s="2">
         <f>J4/$J$22</f>
-        <v>0.24935177182368196</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.21260132645541638</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -2556,7 +4762,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -2572,7 +4778,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -2598,10 +4804,10 @@
       </c>
       <c r="M7" s="2">
         <f>J7/$J$22</f>
-        <v>0.16681071737251513</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.14222549742078114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -2617,7 +4823,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -2633,7 +4839,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -2659,10 +4865,10 @@
       </c>
       <c r="M10" s="2">
         <f>J10/$J$22</f>
-        <v>0.19273984442523767</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.16433308769344143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -2678,7 +4884,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -2694,7 +4900,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -2720,10 +4926,10 @@
       </c>
       <c r="M13" s="2">
         <f>J13/$J$22</f>
-        <v>0.18798617113223853</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.16028002947678704</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -2739,7 +4945,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -2755,7 +4961,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -2768,39 +4974,45 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16" s="46">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>13.5</v>
+        <v>33.5</v>
       </c>
       <c r="K16" s="47"/>
       <c r="L16" s="16">
         <f>I16/$I$22</f>
-        <v>0</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M16" s="2">
         <f>J16/$J$22</f>
-        <v>0.11668107173725151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.24686809137803981</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="I17" s="44"/>
       <c r="J17" s="48"/>
       <c r="K17" s="49"/>
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -2816,7 +5028,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -2842,10 +5054,10 @@
       </c>
       <c r="M19" s="2">
         <f>J19/$J$22</f>
-        <v>8.6430423509075191E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.369196757553427E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -2861,7 +5073,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -2877,7 +5089,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2885,15 +5097,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J22" s="52">
+        <v>22.5</v>
+      </c>
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
-        <v>115.7</v>
-      </c>
-      <c r="K22" s="54"/>
+        <v>135.69999999999999</v>
+      </c>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -2903,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2911,13 +5123,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2925,9 +5137,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -2959,47 +5171,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A3AEB-B50E-4988-94C7-54F2D06C77B5}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3013,7 +5225,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +5257,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -3074,7 +5286,7 @@
         <v>0.21260132645541638</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -3090,7 +5302,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -3106,7 +5318,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +5347,7 @@
         <v>0.14222549742078114</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -3151,7 +5363,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -3167,7 +5379,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -3196,7 +5408,7 @@
         <v>0.16433308769344143</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -3212,7 +5424,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -3228,7 +5440,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -3257,7 +5469,7 @@
         <v>0.16028002947678704</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -3273,7 +5485,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -3289,7 +5501,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -3318,7 +5530,7 @@
         <v>0.24686809137803981</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -3340,7 +5552,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -3356,7 +5568,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -3385,7 +5597,7 @@
         <v>7.369196757553427E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -3401,7 +5613,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -3417,7 +5629,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3425,15 +5637,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>22.5</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>135.69999999999999</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -3443,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3451,13 +5663,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3465,9 +5677,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -3506,38 +5718,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3551,7 +5763,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3583,7 +5795,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +5834,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -3648,7 +5860,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -3674,7 +5886,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -3701,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -3717,7 +5929,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -3733,7 +5945,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -3772,7 +5984,7 @@
         <v>0.28571428571428575</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -3798,7 +6010,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -3824,7 +6036,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -3851,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -3867,7 +6079,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -3883,7 +6095,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -3926,7 +6138,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -3942,7 +6154,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -3969,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -3985,7 +6197,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -4001,7 +6213,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4009,15 +6221,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>0.7</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>0.7</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -4027,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4035,13 +6247,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="33"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4049,14 +6261,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="33"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -4065,19 +6290,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4090,38 +6302,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4135,7 +6347,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4167,7 +6379,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -4206,7 +6418,7 @@
         <v>0.73006134969325154</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -4232,7 +6444,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -4258,7 +6470,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -4287,7 +6499,7 @@
         <v>0.12269938650306748</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -4305,7 +6517,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -4321,7 +6533,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -4360,7 +6572,7 @@
         <v>0.1165644171779141</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -4386,7 +6598,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -4412,7 +6624,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +6653,7 @@
         <v>3.0674846625766871E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -4459,7 +6671,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -4475,7 +6687,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -4502,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -4518,7 +6730,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -4534,7 +6746,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -4577,7 +6789,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -4593,7 +6805,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4601,15 +6813,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>7.45</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>8.15</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -4619,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4627,13 +6839,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="33"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4641,14 +6853,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="33"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -4657,19 +6882,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4682,38 +6894,40 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4727,7 +6941,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4759,7 +6973,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -4798,7 +7012,7 @@
         <v>0.57286432160804024</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -4824,7 +7038,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -4850,7 +7064,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -4883,7 +7097,7 @@
         <v>0.30150753768844224</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -4903,7 +7117,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -4919,7 +7133,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -4948,7 +7162,7 @@
         <v>6.2814070351758802E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -4974,7 +7188,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -4990,7 +7204,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -5021,7 +7235,7 @@
         <v>6.2814070351758802E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -5039,7 +7253,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -5057,7 +7271,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -5084,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -5100,7 +7314,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -5116,7 +7330,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -5143,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -5159,7 +7373,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -5175,7 +7389,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5183,15 +7397,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>11.75</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -5201,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5209,13 +7423,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="33"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5223,14 +7437,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="33"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -5239,19 +7466,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5264,39 +7478,39 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="3"/>
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5311,7 +7525,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -5344,7 +7558,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="41" t="s">
         <v>10</v>
@@ -5384,7 +7598,7 @@
         <v>0.38705738705738707</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
@@ -5411,7 +7625,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
@@ -5438,7 +7652,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="41" t="s">
         <v>14</v>
@@ -5472,7 +7686,7 @@
         <v>0.2271062271062271</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
@@ -5495,7 +7709,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
@@ -5512,7 +7726,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="41" t="s">
         <v>15</v>
@@ -5552,7 +7766,7 @@
         <v>0.13553113553113552</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
@@ -5579,7 +7793,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
@@ -5606,7 +7820,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="41" t="s">
         <v>16</v>
@@ -5642,7 +7856,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
@@ -5665,7 +7879,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
@@ -5688,7 +7902,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>17</v>
@@ -5718,7 +7932,7 @@
         <v>7.326007326007325E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
@@ -5737,7 +7951,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
@@ -5754,7 +7968,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="41" t="s">
         <v>18</v>
@@ -5784,7 +7998,7 @@
         <v>4.884004884004884E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
@@ -5803,7 +8017,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
@@ -5820,7 +8034,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5829,15 +8043,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>21.05</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>40.950000000000003</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -5847,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5856,13 +8070,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5871,14 +8085,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -5887,19 +8114,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5912,40 +8126,40 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5959,7 +8173,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5991,7 +8205,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -6030,7 +8244,7 @@
         <v>0.31354642313546421</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -6054,7 +8268,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -6080,7 +8294,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -6109,7 +8323,7 @@
         <v>0.20243531202435311</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -6129,7 +8343,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -6145,7 +8359,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -6184,7 +8398,7 @@
         <v>0.17960426179604261</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -6210,7 +8424,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -6236,7 +8450,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -6275,7 +8489,7 @@
         <v>0.17503805175038051</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6301,7 +8515,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -6327,7 +8541,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -6356,7 +8570,7 @@
         <v>8.3713850837138504E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -6376,7 +8590,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -6392,7 +8606,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -6421,7 +8635,7 @@
         <v>4.5662100456621002E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -6439,7 +8653,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -6455,7 +8669,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6463,15 +8677,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>24.75</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>65.7</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -6481,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6489,13 +8703,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6503,14 +8717,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -6519,19 +8746,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6544,40 +8758,40 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="4"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6591,7 +8805,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6623,7 +8837,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -6654,7 +8868,7 @@
         <v>0.25806451612903225</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -6676,7 +8890,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -6692,7 +8906,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -6721,7 +8935,7 @@
         <v>0.15636960087479498</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -6745,7 +8959,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -6761,7 +8975,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -6790,7 +9004,7 @@
         <v>0.19464188080918535</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -6808,7 +9022,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -6824,7 +9038,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -6861,7 +9075,7 @@
         <v>0.19409513395297975</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6885,7 +9099,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -6909,7 +9123,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -6938,7 +9152,7 @@
         <v>0.14762165117550574</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -6956,7 +9170,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -6972,7 +9186,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -7001,7 +9215,7 @@
         <v>4.9207217058501909E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -7021,7 +9235,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -7037,7 +9251,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7045,15 +9259,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>25.75</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>91.45</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="22">
         <f>I22/$I$22*100</f>
         <v>100</v>
@@ -7063,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -7071,13 +9285,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="22"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7085,14 +9299,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="22"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -7101,19 +9328,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7126,40 +9340,40 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7173,7 +9387,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -7205,7 +9419,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -7234,7 +9448,7 @@
         <v>0.23755544603252834</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -7260,7 +9474,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -7276,7 +9490,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +9519,7 @@
         <v>0.17052735337604732</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -7325,7 +9539,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -7341,7 +9555,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -7368,7 +9582,7 @@
         <v>0.17545588960078856</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -7390,7 +9604,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -7406,7 +9620,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -7441,7 +9655,7 @@
         <v>0.21439132577624445</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -7463,7 +9677,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -7485,7 +9699,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -7512,7 +9726,7 @@
         <v>0.13307047806801381</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -7528,7 +9742,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -7544,7 +9758,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -7573,7 +9787,7 @@
         <v>6.8999507146377523E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -7591,7 +9805,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -7609,7 +9823,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7617,15 +9831,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <f>SUM(I4:I21)</f>
         <v>10</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>SUM(J4:K21)</f>
         <v>101.45</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="2">
         <f>SUM(L4:L21)</f>
         <v>1</v>
@@ -7635,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -7643,13 +9857,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7657,14 +9871,27 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -7673,19 +9900,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7698,38 +9912,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7743,7 +9957,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -7775,7 +9989,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -7804,7 +10018,7 @@
         <v>0.23277385159010602</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -7826,7 +10040,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -7842,7 +10056,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -7873,7 +10087,7 @@
         <v>0.1704946996466431</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -7895,7 +10109,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -7913,7 +10127,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -7942,7 +10156,7 @@
         <v>0.19699646643109542</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -7966,7 +10180,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -7984,7 +10198,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -8011,7 +10225,7 @@
         <v>0.19213780918727916</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -8027,7 +10241,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -8043,7 +10257,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -8070,7 +10284,7 @@
         <v>0.11925795053003534</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -8086,7 +10300,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -8102,7 +10316,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -8131,7 +10345,7 @@
         <v>8.8339222614840993E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -8151,7 +10365,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -8167,7 +10381,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8179,7 +10393,7 @@
         <f>SUM(I4:I21)</f>
         <v>11.75</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="40">
         <f>SUM(J4:K21)</f>
         <v>113.2</v>
       </c>
@@ -8193,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -8207,7 +10421,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -8223,6 +10437,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="I16:I18"/>
@@ -8230,19 +10457,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/daily-scrum-meeting.xlsx
+++ b/Documentation/daily-scrum-meeting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{8181C02E-2ED7-4675-BFB9-0EBA3198EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9B79B6-B631-4557-887F-EE2719B827C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181C02E-2ED7-4675-BFB9-0EBA3198EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,9 @@
     <sheet name="WK 7 27-02-23" sheetId="8" r:id="rId8"/>
     <sheet name="WK 8 06-03-23" sheetId="9" r:id="rId9"/>
     <sheet name="WK 9 13-03-23" sheetId="10" r:id="rId10"/>
-    <sheet name="WK 10 20-03-23" sheetId="11" r:id="rId11"/>
-    <sheet name="WK 11 27-03-23" sheetId="12" r:id="rId12"/>
-    <sheet name="WK 12 03-04-23" sheetId="13" r:id="rId13"/>
-    <sheet name="WK 13 10-04-23" sheetId="14" r:id="rId14"/>
-    <sheet name="WK 14 17-04-23" sheetId="15" r:id="rId15"/>
-    <sheet name="WK15 24-04-23" sheetId="16" r:id="rId16"/>
-    <sheet name="WK16 01-05-23" sheetId="17" r:id="rId17"/>
+    <sheet name="WK 9 20-03-23" sheetId="11" r:id="rId11"/>
+    <sheet name="WK 9 27-03-23" sheetId="12" r:id="rId12"/>
+    <sheet name="WK 9 03-04-23" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="152">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -505,24 +501,6 @@
   </si>
   <si>
     <t xml:space="preserve">Finished the bokking feature prototype </t>
-  </si>
-  <si>
-    <t>Team meeting with the team and updating the tables</t>
-  </si>
-  <si>
-    <t>an email with the module lead and the client</t>
-  </si>
-  <si>
-    <t>unavailable</t>
-  </si>
-  <si>
-    <t>emails with the client and the press office</t>
-  </si>
-  <si>
-    <t>Meeting with the team.  Emails to the press office and the module lead</t>
-  </si>
-  <si>
-    <t>spreadsheet updates.  Peer review for group 49 agenda for monda meeting.  And emails to the team.</t>
   </si>
 </sst>
 </file>
@@ -928,13 +906,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,13 +948,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,26 +1269,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="34" t="s">
         <v>139</v>
       </c>
@@ -1318,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="34" t="s">
         <v>140</v>
       </c>
@@ -1326,7 +1304,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="34" t="s">
         <v>142</v>
       </c>
@@ -1334,7 +1312,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="34" t="s">
         <v>144</v>
       </c>
@@ -1342,7 +1320,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="34" t="s">
         <v>145</v>
       </c>
@@ -1362,38 +1340,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1407,7 +1385,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1417,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1448,7 @@
         <v>0.25654664484451717</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -1492,7 +1470,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -1508,7 +1486,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1515,7 @@
         <v>0.16612111292962356</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -1555,7 +1533,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -1571,7 +1549,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1578,7 @@
         <v>0.20703764320785598</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -1624,7 +1602,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -1642,7 +1620,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1649,7 @@
         <v>0.17798690671031095</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -1687,7 +1665,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -1703,7 +1681,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1710,7 @@
         <v>0.11047463175122749</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -1748,7 +1726,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -1764,7 +1742,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -1793,7 +1771,7 @@
         <v>8.1833060556464804E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -1809,7 +1787,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -1825,7 +1803,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1833,15 +1811,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="38">
+      <c r="I22" s="52">
         <f>SUM(I4:I21)</f>
         <v>9</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="52">
         <f>SUM(J4:K21)</f>
         <v>122.2</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -1851,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1859,13 +1837,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1873,2189 +1851,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:M24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="46">
-        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>28.85</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="16">
-        <f>I4/$I$22</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="M4" s="2">
-        <f>J4/$J$22</f>
-        <v>0.22243639167309179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="42"/>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="42"/>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46">
-        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
-        <v>19.3</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="16">
-        <f>I7/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f>J7/$J$22</f>
-        <v>0.14880493446414805</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="42"/>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42"/>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="46">
-        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
-        <v>22.3</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="16">
-        <f>I10/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f>J10/$J$22</f>
-        <v>0.17193523515805709</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="42"/>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="42"/>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="43">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
-        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
-        <v>21.75</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="16">
-        <f>I13/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f>J13/$J$22</f>
-        <v>0.16769468003084043</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="42"/>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="42"/>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="43">
-        <v>14</v>
-      </c>
-      <c r="J16" s="46">
-        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>27.5</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="16">
-        <f>I16/$I$22</f>
-        <v>0.84848484848484851</v>
-      </c>
-      <c r="M16" s="2">
-        <f>J16/$J$22</f>
-        <v>0.21202775636083271</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="42"/>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="42"/>
-      <c r="C18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46">
-        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="16">
-        <f>I19/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <f>J19/$J$22</f>
-        <v>7.7101002313030076E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="42"/>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="42"/>
-      <c r="C21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="38">
-        <f>SUM(I4:I21)</f>
-        <v>16.5</v>
-      </c>
-      <c r="J22" s="38">
-        <f>SUM(J4:K21)</f>
-        <v>129.69999999999999</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="16">
-        <f>I22/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <f>J22/$J$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:M24"/>
-  <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="46">
-        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>28.85</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="16">
-        <f>I4/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <f>J4/$J$22</f>
-        <v>0.24935177182368196</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="42"/>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="42"/>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46">
-        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
-        <v>19.3</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="16">
-        <f>I7/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f>J7/$J$22</f>
-        <v>0.16681071737251513</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="42"/>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42"/>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="46">
-        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
-        <v>22.3</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="16">
-        <f>I10/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f>J10/$J$22</f>
-        <v>0.19273984442523767</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="42"/>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="42"/>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="43">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
-        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
-        <v>21.75</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="16">
-        <f>I13/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f>J13/$J$22</f>
-        <v>0.18798617113223853</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="42"/>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="42"/>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="43">
-        <v>0</v>
-      </c>
-      <c r="J16" s="46">
-        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>13.5</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="16">
-        <f>I16/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <f>J16/$J$22</f>
-        <v>0.11668107173725151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="42"/>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="42"/>
-      <c r="C18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46">
-        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="16">
-        <f>I19/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <f>J19/$J$22</f>
-        <v>8.6430423509075191E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="42"/>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="42"/>
-      <c r="C21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="38">
-        <f>SUM(I4:I21)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J22" s="38">
-        <f>SUM(J4:K21)</f>
-        <v>115.7</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="16">
-        <f>I22/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <f>J22/$J$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:M24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="46">
-        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>26.85</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="16">
-        <f>I4/$I$22</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <f>J4/$J$22</f>
-        <v>0.20082273747195217</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="42"/>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="42"/>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46">
-        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
-        <v>19.3</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="16">
-        <f>I7/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f>J7/$J$22</f>
-        <v>0.14435302916978313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="42"/>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42"/>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="46">
-        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
-        <v>22.3</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="16">
-        <f>I10/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f>J10/$J$22</f>
-        <v>0.16679132385938672</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="42"/>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="42"/>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="43">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
-        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
-        <v>21.75</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="16">
-        <f>I13/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f>J13/$J$22</f>
-        <v>0.16267763649962605</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="42"/>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="42"/>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="43">
-        <v>20</v>
-      </c>
-      <c r="J16" s="46">
-        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>33.5</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="16">
-        <f>I16/$I$22</f>
-        <v>0.97560975609756095</v>
-      </c>
-      <c r="M16" s="2">
-        <f>J16/$J$22</f>
-        <v>0.2505609573672401</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="42"/>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="42"/>
-      <c r="C18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46">
-        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="16">
-        <f>I19/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <f>J19/$J$22</f>
-        <v>7.4794315632011971E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="42"/>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="42"/>
-      <c r="C21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="38">
-        <f>SUM(I4:I21)</f>
-        <v>20.5</v>
-      </c>
-      <c r="J22" s="38">
-        <f>SUM(J4:K21)</f>
-        <v>133.69999999999999</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="16">
-        <f>I22/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <f>J22/$J$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:K21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63519CE-3366-43DA-BB5D-21080736719F}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:M24"/>
-  <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="43">
-        <v>0</v>
-      </c>
-      <c r="J4" s="46">
-        <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>26.35</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="16">
-        <f>I4/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <f>J4/$J$22</f>
-        <v>0.19782282282282285</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="42"/>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="42"/>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46">
-        <f>SUM(I7,'WK 8 06-03-23'!J7:K9)</f>
-        <v>19.3</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="16">
-        <f>I7/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f>J7/$J$22</f>
-        <v>0.1448948948948949</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="42"/>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42"/>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="46">
-        <f>SUM(I10,'WK 8 06-03-23'!J10:K12)</f>
-        <v>22.3</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="16">
-        <f>I10/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f>J10/$J$22</f>
-        <v>0.16741741741741745</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="42"/>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="42"/>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="43">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
-        <f>SUM(I13,'WK 8 06-03-23'!J13:K15)</f>
-        <v>21.75</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="16">
-        <f>I13/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f>J13/$J$22</f>
-        <v>0.16328828828828831</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="42"/>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="42"/>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="43">
-        <v>20</v>
-      </c>
-      <c r="J16" s="46">
-        <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>33.5</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="16">
-        <f>I16/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <f>J16/$J$22</f>
-        <v>0.25150150150150152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="42"/>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="42"/>
-      <c r="C18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46">
-        <f>SUM(I19,'WK 8 06-03-23'!J19:K21)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="16">
-        <f>I19/$I$22</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <f>J19/$J$22</f>
-        <v>7.5075075075075076E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="42"/>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="42"/>
-      <c r="C21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="38">
-        <f>SUM(I4:I21)</f>
-        <v>20</v>
-      </c>
-      <c r="J22" s="38">
-        <f>SUM(J4:K21)</f>
-        <v>133.19999999999999</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="16">
-        <f>I22/$I$22</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <f>J22/$J$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -4087,47 +1885,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410A702-B0B8-47EF-B5EA-9CF19F1F26DA}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4141,7 +1939,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4173,56 +1971,56 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J4" s="46">
         <f>SUM(I4,'WK 8 06-03-23'!J4:K6)</f>
-        <v>29.35</v>
+        <v>28.85</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="16">
         <f>I4/$I$22</f>
-        <v>0.13043478260869565</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="M4" s="2">
         <f>J4/$J$22</f>
-        <v>0.21549192364170341</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.45">
+        <v>0.22243639167309179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="44"/>
       <c r="J5" s="48"/>
       <c r="K5" s="49"/>
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -4238,7 +2036,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -4264,10 +2062,10 @@
       </c>
       <c r="M7" s="2">
         <f>J7/$J$22</f>
-        <v>0.14170337738619679</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.14880493446414805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -4283,7 +2081,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -4299,7 +2097,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -4325,10 +2123,10 @@
       </c>
       <c r="M10" s="2">
         <f>J10/$J$22</f>
-        <v>0.16372980910425847</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.17193523515805709</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -4344,7 +2142,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -4360,7 +2158,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -4386,10 +2184,10 @@
       </c>
       <c r="M13" s="2">
         <f>J13/$J$22</f>
-        <v>0.15969162995594716</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.16769468003084043</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -4405,7 +2203,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -4421,7 +2219,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -4434,23 +2232,23 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="43">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J16" s="46">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>33.5</v>
+        <v>27.5</v>
       </c>
       <c r="K16" s="47"/>
       <c r="L16" s="16">
         <f>I16/$I$22</f>
-        <v>0.86956521739130432</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="M16" s="2">
         <f>J16/$J$22</f>
-        <v>0.24596182085168872</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.21202775636083271</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -4458,21 +2256,19 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>151</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H17" s="15"/>
       <c r="I17" s="44"/>
       <c r="J17" s="48"/>
       <c r="K17" s="49"/>
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -4488,7 +2284,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -4514,10 +2310,10 @@
       </c>
       <c r="M19" s="2">
         <f>J19/$J$22</f>
-        <v>7.3421439060205582E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+        <v>7.7101002313030076E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -4533,7 +2329,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -4549,7 +2345,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4557,15 +2353,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="38">
+      <c r="I22" s="52">
         <f>SUM(I4:I21)</f>
-        <v>23</v>
-      </c>
-      <c r="J22" s="38">
+        <v>16.5</v>
+      </c>
+      <c r="J22" s="52">
         <f>SUM(J4:K21)</f>
-        <v>136.19999999999999</v>
-      </c>
-      <c r="K22" s="40"/>
+        <v>129.69999999999999</v>
+      </c>
+      <c r="K22" s="54"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -4575,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4583,13 +2379,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4597,9 +2393,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -4631,47 +2427,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3B4C08-E3A7-4672-A21A-0B76AA867D0B}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4685,7 +2479,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4717,7 +2511,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -4739,14 +2533,14 @@
       <c r="K4" s="47"/>
       <c r="L4" s="16">
         <f>I4/$I$22</f>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <f>J4/$J$22</f>
-        <v>0.21260132645541638</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.24935177182368196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -4762,7 +2556,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -4778,7 +2572,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -4804,10 +2598,10 @@
       </c>
       <c r="M7" s="2">
         <f>J7/$J$22</f>
-        <v>0.14222549742078114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.16681071737251513</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -4823,7 +2617,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -4839,7 +2633,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -4865,10 +2659,10 @@
       </c>
       <c r="M10" s="2">
         <f>J10/$J$22</f>
-        <v>0.16433308769344143</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.19273984442523767</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -4884,7 +2678,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -4900,7 +2694,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -4926,10 +2720,10 @@
       </c>
       <c r="M13" s="2">
         <f>J13/$J$22</f>
-        <v>0.16028002947678704</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.18798617113223853</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -4945,7 +2739,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -4961,7 +2755,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -4974,45 +2768,39 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J16" s="46">
         <f>SUM(I16,'WK 8 06-03-23'!J16:K18)</f>
-        <v>33.5</v>
+        <v>13.5</v>
       </c>
       <c r="K16" s="47"/>
       <c r="L16" s="16">
         <f>I16/$I$22</f>
-        <v>0.88888888888888884</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <f>J16/$J$22</f>
-        <v>0.24686809137803981</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.11668107173725151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="44"/>
       <c r="J17" s="48"/>
       <c r="K17" s="49"/>
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -5028,7 +2816,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -5054,10 +2842,10 @@
       </c>
       <c r="M19" s="2">
         <f>J19/$J$22</f>
-        <v>7.369196757553427E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+        <v>8.6430423509075191E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -5073,7 +2861,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -5089,7 +2877,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5097,15 +2885,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="38">
+      <c r="I22" s="52">
         <f>SUM(I4:I21)</f>
-        <v>22.5</v>
-      </c>
-      <c r="J22" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="J22" s="52">
         <f>SUM(J4:K21)</f>
-        <v>135.69999999999999</v>
-      </c>
-      <c r="K22" s="40"/>
+        <v>115.7</v>
+      </c>
+      <c r="K22" s="54"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -5115,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5123,13 +2911,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5137,9 +2925,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -5171,47 +2959,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A3AEB-B50E-4988-94C7-54F2D06C77B5}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5225,7 +3013,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5257,7 +3045,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -5286,7 +3074,7 @@
         <v>0.21260132645541638</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -5302,7 +3090,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -5318,7 +3106,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -5347,7 +3135,7 @@
         <v>0.14222549742078114</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -5363,7 +3151,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -5379,7 +3167,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +3196,7 @@
         <v>0.16433308769344143</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -5424,7 +3212,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -5440,7 +3228,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -5469,7 +3257,7 @@
         <v>0.16028002947678704</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -5485,7 +3273,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -5501,7 +3289,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -5530,7 +3318,7 @@
         <v>0.24686809137803981</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -5552,7 +3340,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -5568,7 +3356,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -5597,7 +3385,7 @@
         <v>7.369196757553427E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -5613,7 +3401,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -5629,7 +3417,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5637,15 +3425,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="38">
+      <c r="I22" s="52">
         <f>SUM(I4:I21)</f>
         <v>22.5</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="52">
         <f>SUM(J4:K21)</f>
         <v>135.69999999999999</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -5655,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5663,13 +3451,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5677,9 +3465,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="16"/>
       <c r="M24" s="2"/>
     </row>
@@ -5718,38 +3506,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5763,7 +3551,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5795,7 +3583,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -5834,7 +3622,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -5860,7 +3648,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -5886,7 +3674,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -5913,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -5929,7 +3717,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -5945,7 +3733,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -5984,7 +3772,7 @@
         <v>0.28571428571428575</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -6010,7 +3798,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -6036,7 +3824,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -6063,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6079,7 +3867,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -6095,7 +3883,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -6122,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -6138,7 +3926,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -6154,7 +3942,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -6181,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -6197,7 +3985,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -6213,7 +4001,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6221,15 +4009,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="38">
+      <c r="I22" s="52">
         <f>SUM(I4:I21)</f>
         <v>0.7</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="52">
         <f>SUM(J4:K21)</f>
         <v>0.7</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -6239,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6247,13 +4035,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="33"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6261,27 +4049,14 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="33"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="B16:B18"/>
@@ -6290,6 +4065,19 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:K15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6302,38 +4090,38 @@
   </sheetPr>
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="29"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6347,7 +4135,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6379,7 +4167,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
@@ -6418,7 +4206,7 @@
         <v>0.73006134969325154</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -6444,7 +4232,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -6470,7 +4258,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
@@ -6499,7 +4287,7 @@
         <v>0.12269938650306748</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -6517,7 +4305,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -6533,7 +4321,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -6572,7 +4360,7 @@
         <v>0.1165644171779141</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -6598,7 +4386,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -6624,7 +4412,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
@@ -6653,7 +4441,7 @@
         <v>3.0674846625766871E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6671,7 +4459,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -6687,7 +4475,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
@@ -6714,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -6730,7 +4518,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -6746,7 +4534,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
@@ -6773,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -6789,7 +4577,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -6805,7 +4593,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6813,15 +4601,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="38">
+      <c r="I22" s="52">
         <f>SUM(I4:I21)</f>
         <v>7.45</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="52">
         <f>SUM(J4:K21)</f>
         <v>8.15</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="16">
         <f>I22/$I$22</f>
         <v>1</v>
@@ -6831,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6839,13 +4627,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="53"/>
+ 